--- a/chinuk_vocab_gold.xlsx
+++ b/chinuk_vocab_gold.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/connor/Desktop/chinuk_vocab_repo/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/connor/Desktop/chinuk_repos/chinuk_vocab_repo/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CEA7DD8B-43E7-634F-9317-845412E54C70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A052436A-C879-5C4E-84EA-0DE116BD14FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-45220" yWindow="2160" windowWidth="42140" windowHeight="26680" activeTab="17" xr2:uid="{7DFB5DAA-41FE-8F4C-ADA0-7B74441B15D5}"/>
+    <workbookView minimized="1" xWindow="-45220" yWindow="2160" windowWidth="42140" windowHeight="26680" activeTab="20" xr2:uid="{7DFB5DAA-41FE-8F4C-ADA0-7B74441B15D5}"/>
   </bookViews>
   <sheets>
     <sheet name="question_words" sheetId="8" r:id="rId1"/>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1744" uniqueCount="1454">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1745" uniqueCount="1455">
   <si>
     <t>tʼsiqʰwaʔ</t>
   </si>
@@ -4421,6 +4421,9 @@
   </si>
   <si>
     <t>iqʰix</t>
+  </si>
+  <si>
+    <t>These came from plant presentations in cw103 in spring 2023 (I think).</t>
   </si>
 </sst>
 </file>
@@ -4710,7 +4713,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -4794,16 +4797,12 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="49" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -5121,7 +5120,7 @@
   <dimension ref="A2:H28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="P16" sqref="P16"/>
+      <selection activeCell="A4" sqref="A4:C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="21"/>
@@ -5340,60 +5339,60 @@
       </c>
     </row>
     <row r="20" spans="1:8" ht="26">
-      <c r="F20" s="45" t="s">
+      <c r="F20" s="44" t="s">
         <v>1181</v>
       </c>
-      <c r="G20" s="45" t="s">
+      <c r="G20" s="44" t="s">
         <v>1182</v>
       </c>
-      <c r="H20" s="45"/>
+      <c r="H20" s="44"/>
     </row>
     <row r="21" spans="1:8" ht="26">
-      <c r="F21" s="45" t="s">
+      <c r="F21" s="44" t="s">
         <v>1183</v>
       </c>
-      <c r="G21" s="45" t="s">
+      <c r="G21" s="44" t="s">
         <v>1184</v>
       </c>
-      <c r="H21" s="45"/>
+      <c r="H21" s="44"/>
     </row>
     <row r="22" spans="1:8" ht="26">
-      <c r="F22" s="45" t="s">
+      <c r="F22" s="44" t="s">
         <v>1185</v>
       </c>
-      <c r="G22" s="45" t="s">
+      <c r="G22" s="44" t="s">
         <v>1186</v>
       </c>
-      <c r="H22" s="45"/>
+      <c r="H22" s="44"/>
     </row>
     <row r="23" spans="1:8" ht="26">
-      <c r="F23" s="45" t="s">
+      <c r="F23" s="44" t="s">
         <v>1189</v>
       </c>
-      <c r="G23" s="45" t="s">
+      <c r="G23" s="44" t="s">
         <v>1190</v>
       </c>
-      <c r="H23" s="45"/>
+      <c r="H23" s="44"/>
     </row>
     <row r="24" spans="1:8" ht="26">
-      <c r="F24" s="45" t="s">
+      <c r="F24" s="44" t="s">
         <v>1179</v>
       </c>
-      <c r="G24" s="45" t="s">
+      <c r="G24" s="44" t="s">
         <v>1180</v>
       </c>
-      <c r="H24" s="45" t="s">
+      <c r="H24" s="44" t="s">
         <v>1191</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="26">
-      <c r="F25" s="45" t="s">
+      <c r="F25" s="44" t="s">
         <v>1192</v>
       </c>
-      <c r="G25" s="45" t="s">
+      <c r="G25" s="44" t="s">
         <v>1193</v>
       </c>
-      <c r="H25" s="45"/>
+      <c r="H25" s="44"/>
     </row>
     <row r="26" spans="1:8" ht="24">
       <c r="F26" s="23"/>
@@ -6161,10 +6160,10 @@
         <v>81</v>
       </c>
       <c r="F22" s="1"/>
-      <c r="G22" s="48" t="s">
+      <c r="G22" s="45" t="s">
         <v>524</v>
       </c>
-      <c r="H22" s="48" t="s">
+      <c r="H22" s="45" t="s">
         <v>525</v>
       </c>
       <c r="I22" s="4"/>
@@ -6583,8 +6582,8 @@
       <c r="D34" s="3"/>
       <c r="E34" s="3"/>
       <c r="F34" s="3"/>
-      <c r="G34" s="46"/>
-      <c r="H34" s="46"/>
+      <c r="G34" s="45"/>
+      <c r="H34" s="45"/>
       <c r="I34" s="1"/>
       <c r="J34" s="1"/>
       <c r="K34" s="1"/>
@@ -8705,7 +8704,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A8189FA-8DE2-CE4D-844B-A846D91C12A6}">
   <dimension ref="A1:E16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
@@ -9137,7 +9136,7 @@
         <v>1350</v>
       </c>
       <c r="C6" s="12"/>
-      <c r="E6" s="47" t="s">
+      <c r="E6" s="46" t="s">
         <v>1351</v>
       </c>
     </row>
@@ -9445,10 +9444,10 @@
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1446148E-86CD-C745-8E28-605EED3FB402}">
-  <dimension ref="A2:B64"/>
+  <dimension ref="A2:D64"/>
   <sheetViews>
-    <sheetView topLeftCell="A35" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="21"/>
@@ -9457,23 +9456,25 @@
     <col min="2" max="2" width="64.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:2" ht="24">
-      <c r="A2" s="44" t="s">
+    <row r="2" spans="1:4" ht="24">
+      <c r="A2" s="43" t="s">
         <v>720</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="24">
-      <c r="A3" s="43"/>
-    </row>
-    <row r="4" spans="1:2" ht="24">
-      <c r="A4" s="24" t="s">
+    <row r="3" spans="1:4">
+      <c r="D3" t="s">
+        <v>1454</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="24">
+      <c r="A4" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="B4" s="24" t="s">
+      <c r="B4" s="10" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="24">
+    <row r="5" spans="1:4" ht="24">
       <c r="A5" s="21" t="s">
         <v>605</v>
       </c>
@@ -9481,7 +9482,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="24">
+    <row r="6" spans="1:4" ht="24">
       <c r="A6" s="21" t="s">
         <v>606</v>
       </c>
@@ -9489,7 +9490,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="24">
+    <row r="7" spans="1:4" ht="24">
       <c r="A7" s="21" t="s">
         <v>607</v>
       </c>
@@ -9497,7 +9498,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="24">
+    <row r="8" spans="1:4" ht="24">
       <c r="A8" s="21" t="s">
         <v>608</v>
       </c>
@@ -9505,7 +9506,7 @@
         <v>666</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="24">
+    <row r="9" spans="1:4" ht="24">
       <c r="A9" s="21" t="s">
         <v>609</v>
       </c>
@@ -9513,7 +9514,7 @@
         <v>665</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="24">
+    <row r="10" spans="1:4" ht="24">
       <c r="A10" s="21" t="s">
         <v>610</v>
       </c>
@@ -9521,7 +9522,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="24">
+    <row r="11" spans="1:4" ht="24">
       <c r="A11" s="21" t="s">
         <v>662</v>
       </c>
@@ -9529,7 +9530,7 @@
         <v>663</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="24">
+    <row r="12" spans="1:4" ht="24">
       <c r="A12" s="21" t="s">
         <v>611</v>
       </c>
@@ -9537,7 +9538,7 @@
         <v>668</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="24">
+    <row r="13" spans="1:4" ht="24">
       <c r="A13" s="21" t="s">
         <v>612</v>
       </c>
@@ -9545,7 +9546,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="24">
+    <row r="14" spans="1:4" ht="24">
       <c r="A14" s="21" t="s">
         <v>613</v>
       </c>
@@ -9553,7 +9554,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="24">
+    <row r="15" spans="1:4" ht="24">
       <c r="A15" s="21" t="s">
         <v>614</v>
       </c>
@@ -9561,7 +9562,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="24">
+    <row r="16" spans="1:4" ht="24">
       <c r="A16" s="21" t="s">
         <v>615</v>
       </c>

--- a/chinuk_vocab_gold.xlsx
+++ b/chinuk_vocab_gold.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/connor/Desktop/chinuk_repos/chinuk_vocab_repo/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A052436A-C879-5C4E-84EA-0DE116BD14FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAD93A92-4E88-854A-BC23-765651FA3DA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="-45220" yWindow="2160" windowWidth="42140" windowHeight="26680" activeTab="20" xr2:uid="{7DFB5DAA-41FE-8F4C-ADA0-7B74441B15D5}"/>
+    <workbookView xWindow="-45220" yWindow="2160" windowWidth="42140" windowHeight="26680" activeTab="2" xr2:uid="{7DFB5DAA-41FE-8F4C-ADA0-7B74441B15D5}"/>
   </bookViews>
   <sheets>
     <sheet name="question_words" sheetId="8" r:id="rId1"/>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1745" uniqueCount="1455">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1756" uniqueCount="1464">
   <si>
     <t>tʼsiqʰwaʔ</t>
   </si>
@@ -765,9 +765,6 @@
   </si>
   <si>
     <t>kʰəpit ixt = only one</t>
-  </si>
-  <si>
-    <t>almost, a range</t>
   </si>
   <si>
     <t>upt'ɬiki</t>
@@ -4424,6 +4421,36 @@
   </si>
   <si>
     <t>These came from plant presentations in cw103 in spring 2023 (I think).</t>
+  </si>
+  <si>
+    <t>chaku-ala</t>
+  </si>
+  <si>
+    <t>become astonished</t>
+  </si>
+  <si>
+    <t>exclamation of surprise</t>
+  </si>
+  <si>
+    <t>munk-ala</t>
+  </si>
+  <si>
+    <t>to admire; to astonish</t>
+  </si>
+  <si>
+    <t>almost, a range, might, maybe, almost, perhaps</t>
+  </si>
+  <si>
+    <t>ala</t>
+  </si>
+  <si>
+    <t>alta-aɬqi</t>
+  </si>
+  <si>
+    <t>Now will; have to, be sure to, only then</t>
+  </si>
+  <si>
+    <t>alta-aɬqi nayka məkʰmək. Now will I eat.</t>
   </si>
 </sst>
 </file>
@@ -5134,10 +5161,10 @@
   <sheetData>
     <row r="2" spans="1:8" ht="31">
       <c r="A2" s="19" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B2" t="s">
-        <v>1449</v>
+        <v>1448</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="31">
@@ -5151,7 +5178,7 @@
         <v>78</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="F4" s="10" t="s">
         <v>77</v>
@@ -5160,7 +5187,7 @@
         <v>78</v>
       </c>
       <c r="H4" s="10" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="24">
@@ -5168,80 +5195,80 @@
         <v>178</v>
       </c>
       <c r="B5" s="21" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="C5" s="21"/>
       <c r="F5" s="21" t="s">
+        <v>1178</v>
+      </c>
+      <c r="G5" s="21" t="s">
         <v>1179</v>
-      </c>
-      <c r="G5" s="21" t="s">
-        <v>1180</v>
       </c>
       <c r="H5" s="21"/>
     </row>
     <row r="6" spans="1:8" ht="24">
       <c r="A6" s="21" t="s">
+        <v>411</v>
+      </c>
+      <c r="B6" s="21" t="s">
         <v>412</v>
-      </c>
-      <c r="B6" s="21" t="s">
-        <v>413</v>
       </c>
       <c r="C6" s="21"/>
       <c r="F6" s="21" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="G6" s="21" t="s">
-        <v>1347</v>
+        <v>1346</v>
       </c>
       <c r="H6" s="21"/>
     </row>
     <row r="7" spans="1:8" ht="24">
       <c r="A7" s="21" t="s">
+        <v>413</v>
+      </c>
+      <c r="B7" s="21" t="s">
         <v>414</v>
-      </c>
-      <c r="B7" s="21" t="s">
-        <v>415</v>
       </c>
       <c r="C7" s="21"/>
       <c r="F7" s="21" t="s">
+        <v>1133</v>
+      </c>
+      <c r="G7" s="21" t="s">
         <v>1134</v>
-      </c>
-      <c r="G7" s="21" t="s">
-        <v>1135</v>
       </c>
       <c r="H7" s="21"/>
     </row>
     <row r="8" spans="1:8" ht="24">
       <c r="A8" s="21" t="s">
+        <v>252</v>
+      </c>
+      <c r="B8" s="21" t="s">
         <v>253</v>
-      </c>
-      <c r="B8" s="21" t="s">
-        <v>254</v>
       </c>
       <c r="C8" s="21"/>
       <c r="F8" s="21" t="s">
+        <v>1186</v>
+      </c>
+      <c r="G8" s="21" t="s">
         <v>1187</v>
-      </c>
-      <c r="G8" s="21" t="s">
-        <v>1188</v>
       </c>
       <c r="H8" s="21"/>
     </row>
     <row r="9" spans="1:8" ht="24">
       <c r="A9" s="21" t="s">
+        <v>415</v>
+      </c>
+      <c r="B9" s="21" t="s">
         <v>416</v>
-      </c>
-      <c r="B9" s="21" t="s">
-        <v>417</v>
       </c>
       <c r="C9" s="21"/>
     </row>
     <row r="10" spans="1:8" ht="24">
       <c r="A10" s="21" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B10" s="21" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C10" s="21"/>
       <c r="F10" s="21"/>
@@ -5250,10 +5277,10 @@
     </row>
     <row r="11" spans="1:8" ht="24">
       <c r="A11" s="21" t="s">
+        <v>419</v>
+      </c>
+      <c r="B11" s="21" t="s">
         <v>420</v>
-      </c>
-      <c r="B11" s="21" t="s">
-        <v>421</v>
       </c>
       <c r="C11" s="21"/>
       <c r="F11" s="21"/>
@@ -5274,10 +5301,10 @@
     </row>
     <row r="13" spans="1:8" ht="24">
       <c r="A13" s="21" t="s">
+        <v>1169</v>
+      </c>
+      <c r="B13" s="21" t="s">
         <v>1170</v>
-      </c>
-      <c r="B13" s="21" t="s">
-        <v>1171</v>
       </c>
       <c r="C13" s="21"/>
       <c r="F13" s="21"/>
@@ -5286,10 +5313,10 @@
     </row>
     <row r="14" spans="1:8" ht="24">
       <c r="A14" s="21" t="s">
+        <v>1171</v>
+      </c>
+      <c r="B14" s="21" t="s">
         <v>1172</v>
-      </c>
-      <c r="B14" s="21" t="s">
-        <v>1173</v>
       </c>
       <c r="C14" s="21"/>
       <c r="F14" s="21"/>
@@ -5298,19 +5325,19 @@
     </row>
     <row r="15" spans="1:8" ht="24">
       <c r="A15" s="21" t="s">
+        <v>1173</v>
+      </c>
+      <c r="B15" s="21" t="s">
         <v>1174</v>
-      </c>
-      <c r="B15" s="21" t="s">
-        <v>1175</v>
       </c>
       <c r="C15" s="21"/>
     </row>
     <row r="16" spans="1:8" ht="24">
       <c r="A16" s="21" t="s">
+        <v>1175</v>
+      </c>
+      <c r="B16" s="21" t="s">
         <v>1176</v>
-      </c>
-      <c r="B16" s="21" t="s">
-        <v>1177</v>
       </c>
       <c r="C16" s="21"/>
     </row>
@@ -5324,7 +5351,7 @@
       <c r="B18" s="9"/>
       <c r="C18" s="9"/>
       <c r="F18" s="19" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="24">
@@ -5335,62 +5362,62 @@
         <v>78</v>
       </c>
       <c r="H19" s="10" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="26">
       <c r="F20" s="44" t="s">
+        <v>1180</v>
+      </c>
+      <c r="G20" s="44" t="s">
         <v>1181</v>
-      </c>
-      <c r="G20" s="44" t="s">
-        <v>1182</v>
       </c>
       <c r="H20" s="44"/>
     </row>
     <row r="21" spans="1:8" ht="26">
       <c r="F21" s="44" t="s">
+        <v>1182</v>
+      </c>
+      <c r="G21" s="44" t="s">
         <v>1183</v>
-      </c>
-      <c r="G21" s="44" t="s">
-        <v>1184</v>
       </c>
       <c r="H21" s="44"/>
     </row>
     <row r="22" spans="1:8" ht="26">
       <c r="F22" s="44" t="s">
+        <v>1184</v>
+      </c>
+      <c r="G22" s="44" t="s">
         <v>1185</v>
-      </c>
-      <c r="G22" s="44" t="s">
-        <v>1186</v>
       </c>
       <c r="H22" s="44"/>
     </row>
     <row r="23" spans="1:8" ht="26">
       <c r="F23" s="44" t="s">
+        <v>1188</v>
+      </c>
+      <c r="G23" s="44" t="s">
         <v>1189</v>
-      </c>
-      <c r="G23" s="44" t="s">
-        <v>1190</v>
       </c>
       <c r="H23" s="44"/>
     </row>
     <row r="24" spans="1:8" ht="26">
       <c r="F24" s="44" t="s">
+        <v>1178</v>
+      </c>
+      <c r="G24" s="44" t="s">
         <v>1179</v>
       </c>
-      <c r="G24" s="44" t="s">
-        <v>1180</v>
-      </c>
       <c r="H24" s="44" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="26">
       <c r="F25" s="44" t="s">
+        <v>1191</v>
+      </c>
+      <c r="G25" s="44" t="s">
         <v>1192</v>
-      </c>
-      <c r="G25" s="44" t="s">
-        <v>1193</v>
       </c>
       <c r="H25" s="44"/>
     </row>
@@ -5433,7 +5460,7 @@
   <sheetData>
     <row r="1" spans="1:24" ht="31">
       <c r="A1" s="17" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="B1" s="2"/>
     </row>
@@ -5515,10 +5542,10 @@
       </c>
       <c r="F5" s="1"/>
       <c r="G5" s="5" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="I5" s="4"/>
       <c r="J5" s="1"/>
@@ -5857,10 +5884,10 @@
       </c>
       <c r="F14" s="1"/>
       <c r="G14" s="5" t="s">
+        <v>1323</v>
+      </c>
+      <c r="H14" s="5" t="s">
         <v>1324</v>
-      </c>
-      <c r="H14" s="5" t="s">
-        <v>1325</v>
       </c>
       <c r="I14" s="4"/>
       <c r="J14" s="1"/>
@@ -5919,10 +5946,10 @@
     </row>
     <row r="16" spans="1:24" ht="24">
       <c r="A16" s="5" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="C16" s="1"/>
       <c r="D16" s="5" t="s">
@@ -6161,10 +6188,10 @@
       </c>
       <c r="F22" s="1"/>
       <c r="G22" s="45" t="s">
+        <v>523</v>
+      </c>
+      <c r="H22" s="45" t="s">
         <v>524</v>
-      </c>
-      <c r="H22" s="45" t="s">
-        <v>525</v>
       </c>
       <c r="I22" s="4"/>
       <c r="J22" s="1"/>
@@ -6489,10 +6516,10 @@
     </row>
     <row r="31" spans="1:24" ht="24">
       <c r="A31" s="5" t="s">
+        <v>405</v>
+      </c>
+      <c r="B31" s="6" t="s">
         <v>406</v>
-      </c>
-      <c r="B31" s="6" t="s">
-        <v>407</v>
       </c>
       <c r="C31" s="1"/>
       <c r="D31" s="5" t="s">
@@ -6717,150 +6744,150 @@
         <v>78</v>
       </c>
       <c r="C4" s="29" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="24">
       <c r="A5" s="30" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="B5" s="31" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="C5" s="12"/>
     </row>
     <row r="6" spans="1:3" ht="24">
       <c r="A6" s="13" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="C6" s="32"/>
     </row>
     <row r="7" spans="1:3" ht="24">
       <c r="A7" s="13" t="s">
+        <v>886</v>
+      </c>
+      <c r="B7" s="14" t="s">
         <v>887</v>
-      </c>
-      <c r="B7" s="14" t="s">
-        <v>888</v>
       </c>
       <c r="C7" s="14"/>
     </row>
     <row r="8" spans="1:3" ht="24">
       <c r="A8" s="13" t="s">
+        <v>888</v>
+      </c>
+      <c r="B8" s="14" t="s">
         <v>889</v>
-      </c>
-      <c r="B8" s="14" t="s">
-        <v>890</v>
       </c>
       <c r="C8" s="14"/>
     </row>
     <row r="9" spans="1:3" ht="24">
       <c r="A9" s="13" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="C9" s="14"/>
     </row>
     <row r="10" spans="1:3" ht="24">
       <c r="A10" s="13" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="C10" s="14"/>
     </row>
     <row r="11" spans="1:3" ht="24">
       <c r="A11" s="13" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="C11" s="14"/>
     </row>
     <row r="12" spans="1:3" ht="24">
       <c r="A12" s="13" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="B12" s="14" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="C12" s="14"/>
     </row>
     <row r="13" spans="1:3" ht="24">
       <c r="A13" s="13" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="B13" s="14" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="C13" s="14"/>
     </row>
     <row r="14" spans="1:3" ht="24">
       <c r="A14" s="13" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="B14" s="14" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="C14" s="14"/>
     </row>
     <row r="15" spans="1:3" ht="24">
       <c r="A15" s="13" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="B15" s="14" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="C15" s="14"/>
     </row>
     <row r="16" spans="1:3" ht="24">
       <c r="A16" s="13" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="B16" s="14" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="C16" s="14"/>
     </row>
     <row r="17" spans="1:3" ht="24">
       <c r="A17" s="13" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="B17" s="14" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="C17" s="14"/>
     </row>
     <row r="18" spans="1:3" ht="24">
       <c r="A18" s="13" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="B18" s="14" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="C18" s="14"/>
     </row>
     <row r="19" spans="1:3" ht="24">
       <c r="A19" s="13" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="B19" s="14" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="C19" s="14"/>
     </row>
     <row r="20" spans="1:3" ht="24">
       <c r="A20" s="13" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="B20" s="14" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="C20" s="32"/>
     </row>
@@ -6886,7 +6913,7 @@
   <sheetData>
     <row r="2" spans="1:3" ht="31">
       <c r="A2" s="26" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="B2" s="38"/>
       <c r="C2" s="38"/>
@@ -6904,384 +6931,384 @@
         <v>78</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="24">
       <c r="A5" s="21" t="s">
+        <v>1072</v>
+      </c>
+      <c r="B5" s="21" t="s">
         <v>1073</v>
-      </c>
-      <c r="B5" s="21" t="s">
-        <v>1074</v>
       </c>
       <c r="C5" s="21"/>
     </row>
     <row r="6" spans="1:3" ht="24">
       <c r="A6" s="21" t="s">
+        <v>1045</v>
+      </c>
+      <c r="B6" s="21" t="s">
         <v>1046</v>
-      </c>
-      <c r="B6" s="21" t="s">
-        <v>1047</v>
       </c>
       <c r="C6" s="21"/>
     </row>
     <row r="7" spans="1:3" ht="24">
       <c r="A7" s="21" t="s">
+        <v>1064</v>
+      </c>
+      <c r="B7" s="21" t="s">
         <v>1065</v>
-      </c>
-      <c r="B7" s="21" t="s">
-        <v>1066</v>
       </c>
       <c r="C7" s="21"/>
     </row>
     <row r="8" spans="1:3" ht="24">
       <c r="A8" s="21" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="B8" s="21" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="C8" s="21"/>
     </row>
     <row r="9" spans="1:3" ht="24">
       <c r="A9" s="21" t="s">
+        <v>1052</v>
+      </c>
+      <c r="B9" s="21" t="s">
         <v>1053</v>
-      </c>
-      <c r="B9" s="21" t="s">
-        <v>1054</v>
       </c>
       <c r="C9" s="21"/>
     </row>
     <row r="10" spans="1:3" ht="24">
       <c r="A10" s="21" t="s">
+        <v>1080</v>
+      </c>
+      <c r="B10" s="21" t="s">
         <v>1081</v>
-      </c>
-      <c r="B10" s="21" t="s">
-        <v>1082</v>
       </c>
       <c r="C10" s="21"/>
     </row>
     <row r="11" spans="1:3" ht="24">
       <c r="A11" s="21" t="s">
+        <v>1035</v>
+      </c>
+      <c r="B11" s="21" t="s">
         <v>1036</v>
-      </c>
-      <c r="B11" s="21" t="s">
-        <v>1037</v>
       </c>
       <c r="C11" s="21"/>
     </row>
     <row r="12" spans="1:3" ht="24">
       <c r="A12" s="21" t="s">
+        <v>1033</v>
+      </c>
+      <c r="B12" s="21" t="s">
         <v>1034</v>
-      </c>
-      <c r="B12" s="21" t="s">
-        <v>1035</v>
       </c>
       <c r="C12" s="21"/>
     </row>
     <row r="13" spans="1:3" ht="24">
       <c r="A13" s="21" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
       <c r="B13" s="21" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="C13" s="21"/>
     </row>
     <row r="14" spans="1:3" ht="24">
       <c r="A14" s="21" t="s">
+        <v>1066</v>
+      </c>
+      <c r="B14" s="21" t="s">
         <v>1067</v>
-      </c>
-      <c r="B14" s="21" t="s">
-        <v>1068</v>
       </c>
       <c r="C14" s="21"/>
     </row>
     <row r="15" spans="1:3" ht="24">
       <c r="A15" s="21" t="s">
+        <v>1070</v>
+      </c>
+      <c r="B15" s="21" t="s">
         <v>1071</v>
-      </c>
-      <c r="B15" s="21" t="s">
-        <v>1072</v>
       </c>
       <c r="C15" s="21"/>
     </row>
     <row r="16" spans="1:3" ht="24">
       <c r="A16" s="21" t="s">
+        <v>1089</v>
+      </c>
+      <c r="B16" s="21" t="s">
         <v>1090</v>
-      </c>
-      <c r="B16" s="21" t="s">
-        <v>1091</v>
       </c>
       <c r="C16" s="21"/>
     </row>
     <row r="17" spans="1:3" ht="24">
       <c r="A17" s="21" t="s">
+        <v>1019</v>
+      </c>
+      <c r="B17" s="21" t="s">
         <v>1020</v>
-      </c>
-      <c r="B17" s="21" t="s">
-        <v>1021</v>
       </c>
       <c r="C17" s="21"/>
     </row>
     <row r="18" spans="1:3" ht="24">
       <c r="A18" s="21" t="s">
+        <v>1015</v>
+      </c>
+      <c r="B18" s="21" t="s">
         <v>1016</v>
-      </c>
-      <c r="B18" s="21" t="s">
-        <v>1017</v>
       </c>
       <c r="C18" s="21"/>
     </row>
     <row r="19" spans="1:3" ht="24">
       <c r="A19" s="21" t="s">
+        <v>1025</v>
+      </c>
+      <c r="B19" s="21" t="s">
         <v>1026</v>
-      </c>
-      <c r="B19" s="21" t="s">
-        <v>1027</v>
       </c>
       <c r="C19" s="21"/>
     </row>
     <row r="20" spans="1:3" ht="24">
       <c r="A20" s="21" t="s">
+        <v>1085</v>
+      </c>
+      <c r="B20" s="21" t="s">
         <v>1086</v>
-      </c>
-      <c r="B20" s="21" t="s">
-        <v>1087</v>
       </c>
       <c r="C20" s="21"/>
     </row>
     <row r="21" spans="1:3" ht="24">
       <c r="A21" s="21" t="s">
+        <v>1058</v>
+      </c>
+      <c r="B21" s="21" t="s">
         <v>1059</v>
-      </c>
-      <c r="B21" s="21" t="s">
-        <v>1060</v>
       </c>
       <c r="C21" s="21"/>
     </row>
     <row r="22" spans="1:3" ht="24">
       <c r="A22" s="21" t="s">
+        <v>1023</v>
+      </c>
+      <c r="B22" s="21" t="s">
         <v>1024</v>
-      </c>
-      <c r="B22" s="21" t="s">
-        <v>1025</v>
       </c>
       <c r="C22" s="21"/>
     </row>
     <row r="23" spans="1:3" ht="24">
       <c r="A23" s="21" t="s">
+        <v>857</v>
+      </c>
+      <c r="B23" s="21" t="s">
         <v>858</v>
-      </c>
-      <c r="B23" s="21" t="s">
-        <v>859</v>
       </c>
       <c r="C23" s="21"/>
     </row>
     <row r="24" spans="1:3" ht="24">
       <c r="A24" s="21" t="s">
+        <v>1047</v>
+      </c>
+      <c r="B24" s="21" t="s">
         <v>1048</v>
-      </c>
-      <c r="B24" s="21" t="s">
-        <v>1049</v>
       </c>
       <c r="C24" s="21"/>
     </row>
     <row r="25" spans="1:3" ht="24">
       <c r="A25" s="21" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B25" s="21" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="C25" s="21"/>
     </row>
     <row r="26" spans="1:3" ht="24">
       <c r="A26" s="21" t="s">
+        <v>1021</v>
+      </c>
+      <c r="B26" s="21" t="s">
         <v>1022</v>
-      </c>
-      <c r="B26" s="21" t="s">
-        <v>1023</v>
       </c>
       <c r="C26" s="21"/>
     </row>
     <row r="27" spans="1:3" ht="24">
       <c r="A27" s="21" t="s">
+        <v>1074</v>
+      </c>
+      <c r="B27" s="21" t="s">
         <v>1075</v>
-      </c>
-      <c r="B27" s="21" t="s">
-        <v>1076</v>
       </c>
       <c r="C27" s="21"/>
     </row>
     <row r="28" spans="1:3" ht="24">
       <c r="A28" s="21" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="B28" s="21" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="C28" s="21"/>
     </row>
     <row r="29" spans="1:3" ht="24">
       <c r="A29" s="21" t="s">
+        <v>1082</v>
+      </c>
+      <c r="B29" s="21" t="s">
         <v>1083</v>
-      </c>
-      <c r="B29" s="21" t="s">
-        <v>1084</v>
       </c>
       <c r="C29" s="21"/>
     </row>
     <row r="30" spans="1:3" ht="24">
       <c r="A30" s="21" t="s">
+        <v>1013</v>
+      </c>
+      <c r="B30" s="21" t="s">
         <v>1014</v>
-      </c>
-      <c r="B30" s="21" t="s">
-        <v>1015</v>
       </c>
       <c r="C30" s="21"/>
     </row>
     <row r="31" spans="1:3" ht="24">
       <c r="A31" s="21" t="s">
+        <v>1060</v>
+      </c>
+      <c r="B31" s="21" t="s">
         <v>1061</v>
-      </c>
-      <c r="B31" s="21" t="s">
-        <v>1062</v>
       </c>
       <c r="C31" s="21"/>
     </row>
     <row r="32" spans="1:3" ht="24">
       <c r="A32" s="21" t="s">
+        <v>1017</v>
+      </c>
+      <c r="B32" s="21" t="s">
         <v>1018</v>
-      </c>
-      <c r="B32" s="21" t="s">
-        <v>1019</v>
       </c>
       <c r="C32" s="21"/>
     </row>
     <row r="33" spans="1:3" ht="24">
       <c r="A33" s="21" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="B33" s="21" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="C33" s="21"/>
     </row>
     <row r="34" spans="1:3" ht="24">
       <c r="A34" s="21" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B34" s="21" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="C34" s="21"/>
     </row>
     <row r="35" spans="1:3" ht="24">
       <c r="A35" s="21" t="s">
+        <v>1043</v>
+      </c>
+      <c r="B35" s="21" t="s">
         <v>1044</v>
-      </c>
-      <c r="B35" s="21" t="s">
-        <v>1045</v>
       </c>
       <c r="C35" s="21"/>
     </row>
     <row r="36" spans="1:3" ht="24">
       <c r="A36" s="21" t="s">
+        <v>1054</v>
+      </c>
+      <c r="B36" s="21" t="s">
         <v>1055</v>
-      </c>
-      <c r="B36" s="21" t="s">
-        <v>1056</v>
       </c>
       <c r="C36" s="21"/>
     </row>
     <row r="37" spans="1:3" ht="24">
       <c r="A37" s="21" t="s">
+        <v>1056</v>
+      </c>
+      <c r="B37" s="21" t="s">
         <v>1057</v>
-      </c>
-      <c r="B37" s="21" t="s">
-        <v>1058</v>
       </c>
       <c r="C37" s="21"/>
     </row>
     <row r="38" spans="1:3" ht="24">
       <c r="A38" s="21" t="s">
+        <v>1087</v>
+      </c>
+      <c r="B38" s="21" t="s">
         <v>1088</v>
-      </c>
-      <c r="B38" s="21" t="s">
-        <v>1089</v>
       </c>
       <c r="C38" s="21"/>
     </row>
     <row r="39" spans="1:3" ht="24">
       <c r="A39" s="21" t="s">
+        <v>1062</v>
+      </c>
+      <c r="B39" s="21" t="s">
         <v>1063</v>
-      </c>
-      <c r="B39" s="21" t="s">
-        <v>1064</v>
       </c>
       <c r="C39" s="21"/>
     </row>
     <row r="40" spans="1:3" ht="24">
       <c r="A40" s="21" t="s">
+        <v>1041</v>
+      </c>
+      <c r="B40" s="21" t="s">
         <v>1042</v>
-      </c>
-      <c r="B40" s="21" t="s">
-        <v>1043</v>
       </c>
       <c r="C40" s="21"/>
     </row>
     <row r="41" spans="1:3" ht="24">
       <c r="A41" s="21" t="s">
+        <v>1076</v>
+      </c>
+      <c r="B41" s="21" t="s">
         <v>1077</v>
-      </c>
-      <c r="B41" s="21" t="s">
-        <v>1078</v>
       </c>
       <c r="C41" s="21"/>
     </row>
     <row r="42" spans="1:3" ht="24">
       <c r="A42" s="21" t="s">
+        <v>1031</v>
+      </c>
+      <c r="B42" s="21" t="s">
         <v>1032</v>
-      </c>
-      <c r="B42" s="21" t="s">
-        <v>1033</v>
       </c>
       <c r="C42" s="21"/>
     </row>
     <row r="43" spans="1:3" ht="24">
       <c r="A43" s="21" t="s">
+        <v>1078</v>
+      </c>
+      <c r="B43" s="21" t="s">
         <v>1079</v>
-      </c>
-      <c r="B43" s="21" t="s">
-        <v>1080</v>
       </c>
       <c r="C43" s="21"/>
     </row>
     <row r="44" spans="1:3" ht="24">
       <c r="A44" s="21" t="s">
+        <v>1027</v>
+      </c>
+      <c r="B44" s="21" t="s">
         <v>1028</v>
-      </c>
-      <c r="B44" s="21" t="s">
-        <v>1029</v>
       </c>
       <c r="C44" s="21"/>
     </row>
     <row r="45" spans="1:3" ht="24">
       <c r="A45" s="21" t="s">
+        <v>1029</v>
+      </c>
+      <c r="B45" s="21" t="s">
         <v>1030</v>
-      </c>
-      <c r="B45" s="21" t="s">
-        <v>1031</v>
       </c>
       <c r="C45" s="21"/>
     </row>
     <row r="46" spans="1:3" ht="24">
       <c r="A46" s="21" t="s">
+        <v>1049</v>
+      </c>
+      <c r="B46" s="21" t="s">
         <v>1050</v>
-      </c>
-      <c r="B46" s="21" t="s">
-        <v>1051</v>
       </c>
       <c r="C46" s="21"/>
     </row>
@@ -7309,7 +7336,7 @@
   <sheetData>
     <row r="2" spans="1:4" ht="31">
       <c r="A2" s="18" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B2" s="9"/>
     </row>
@@ -7328,60 +7355,60 @@
     </row>
     <row r="5" spans="1:4" ht="24">
       <c r="A5" s="21" t="s">
+        <v>295</v>
+      </c>
+      <c r="B5" s="21" t="s">
         <v>296</v>
-      </c>
-      <c r="B5" s="21" t="s">
-        <v>297</v>
       </c>
       <c r="C5" s="21"/>
       <c r="D5" s="9"/>
     </row>
     <row r="6" spans="1:4" ht="24">
       <c r="A6" s="21" t="s">
+        <v>293</v>
+      </c>
+      <c r="B6" s="21" t="s">
         <v>294</v>
-      </c>
-      <c r="B6" s="21" t="s">
-        <v>295</v>
       </c>
       <c r="C6" s="21"/>
       <c r="D6" s="9"/>
     </row>
     <row r="7" spans="1:4" ht="24">
       <c r="A7" s="21" t="s">
+        <v>301</v>
+      </c>
+      <c r="B7" s="21" t="s">
         <v>302</v>
-      </c>
-      <c r="B7" s="21" t="s">
-        <v>303</v>
       </c>
       <c r="C7" s="21"/>
       <c r="D7" s="9"/>
     </row>
     <row r="8" spans="1:4" ht="24">
       <c r="A8" s="21" t="s">
+        <v>303</v>
+      </c>
+      <c r="B8" s="21" t="s">
         <v>304</v>
-      </c>
-      <c r="B8" s="21" t="s">
-        <v>305</v>
       </c>
       <c r="C8" s="21"/>
       <c r="D8" s="9"/>
     </row>
     <row r="9" spans="1:4" ht="24">
       <c r="A9" s="21" t="s">
+        <v>299</v>
+      </c>
+      <c r="B9" s="21" t="s">
         <v>300</v>
-      </c>
-      <c r="B9" s="21" t="s">
-        <v>301</v>
       </c>
       <c r="C9" s="21"/>
       <c r="D9" s="9"/>
     </row>
     <row r="10" spans="1:4" ht="24">
       <c r="A10" s="21" t="s">
+        <v>297</v>
+      </c>
+      <c r="B10" s="21" t="s">
         <v>298</v>
-      </c>
-      <c r="B10" s="21" t="s">
-        <v>299</v>
       </c>
       <c r="C10" s="21"/>
       <c r="D10" s="9"/>
@@ -7621,123 +7648,123 @@
         <v>78</v>
       </c>
       <c r="C4" s="29" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="24">
       <c r="A5" s="30" t="s">
+        <v>824</v>
+      </c>
+      <c r="B5" s="31" t="s">
         <v>825</v>
-      </c>
-      <c r="B5" s="31" t="s">
-        <v>826</v>
       </c>
       <c r="C5" s="12"/>
     </row>
     <row r="6" spans="1:3" ht="24">
       <c r="A6" s="13" t="s">
+        <v>833</v>
+      </c>
+      <c r="B6" s="14" t="s">
         <v>834</v>
-      </c>
-      <c r="B6" s="14" t="s">
-        <v>835</v>
       </c>
       <c r="C6" s="14"/>
     </row>
     <row r="7" spans="1:3" ht="24">
       <c r="A7" s="13" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="C7" s="14"/>
     </row>
     <row r="8" spans="1:3" ht="24">
       <c r="A8" s="13" t="s">
+        <v>845</v>
+      </c>
+      <c r="B8" s="14" t="s">
         <v>846</v>
-      </c>
-      <c r="B8" s="14" t="s">
-        <v>847</v>
       </c>
       <c r="C8" s="14"/>
     </row>
     <row r="9" spans="1:3" ht="24">
       <c r="A9" s="13" t="s">
+        <v>839</v>
+      </c>
+      <c r="B9" s="14" t="s">
         <v>840</v>
-      </c>
-      <c r="B9" s="14" t="s">
-        <v>841</v>
       </c>
       <c r="C9" s="14"/>
     </row>
     <row r="10" spans="1:3" ht="24">
       <c r="A10" s="13" t="s">
+        <v>828</v>
+      </c>
+      <c r="B10" s="14" t="s">
         <v>829</v>
-      </c>
-      <c r="B10" s="14" t="s">
-        <v>830</v>
       </c>
       <c r="C10" s="14"/>
     </row>
     <row r="11" spans="1:3" ht="24">
       <c r="A11" s="13" t="s">
+        <v>841</v>
+      </c>
+      <c r="B11" s="14" t="s">
         <v>842</v>
-      </c>
-      <c r="B11" s="14" t="s">
-        <v>843</v>
       </c>
       <c r="C11" s="14"/>
     </row>
     <row r="12" spans="1:3" ht="24">
       <c r="A12" s="13" t="s">
+        <v>837</v>
+      </c>
+      <c r="B12" s="14" t="s">
         <v>838</v>
-      </c>
-      <c r="B12" s="14" t="s">
-        <v>839</v>
       </c>
       <c r="C12" s="14"/>
     </row>
     <row r="13" spans="1:3" ht="24">
       <c r="A13" s="13" t="s">
+        <v>831</v>
+      </c>
+      <c r="B13" s="14" t="s">
         <v>832</v>
-      </c>
-      <c r="B13" s="14" t="s">
-        <v>833</v>
       </c>
       <c r="C13" s="14"/>
     </row>
     <row r="14" spans="1:3" ht="24">
       <c r="A14" s="13" t="s">
+        <v>847</v>
+      </c>
+      <c r="B14" s="14" t="s">
         <v>848</v>
-      </c>
-      <c r="B14" s="14" t="s">
-        <v>849</v>
       </c>
       <c r="C14" s="14"/>
     </row>
     <row r="15" spans="1:3" ht="24">
       <c r="A15" s="13" t="s">
+        <v>835</v>
+      </c>
+      <c r="B15" s="14" t="s">
         <v>836</v>
-      </c>
-      <c r="B15" s="14" t="s">
-        <v>837</v>
       </c>
       <c r="C15" s="14"/>
     </row>
     <row r="16" spans="1:3" ht="24">
       <c r="A16" s="13" t="s">
+        <v>826</v>
+      </c>
+      <c r="B16" s="14" t="s">
         <v>827</v>
-      </c>
-      <c r="B16" s="14" t="s">
-        <v>828</v>
       </c>
       <c r="C16" s="32"/>
     </row>
     <row r="17" spans="1:3" ht="24">
       <c r="A17" s="13" t="s">
+        <v>843</v>
+      </c>
+      <c r="B17" s="14" t="s">
         <v>844</v>
-      </c>
-      <c r="B17" s="14" t="s">
-        <v>845</v>
       </c>
       <c r="C17" s="14"/>
     </row>
@@ -7768,15 +7795,15 @@
   <sheetData>
     <row r="2" spans="1:5" ht="31">
       <c r="A2" s="16" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="24">
       <c r="A4" s="34" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="D4" s="34" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="24">
@@ -7798,27 +7825,27 @@
     </row>
     <row r="7" spans="1:5" ht="24">
       <c r="A7" s="13" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="D7" s="13" t="s">
+        <v>915</v>
+      </c>
+      <c r="E7" s="14" t="s">
         <v>916</v>
-      </c>
-      <c r="E7" s="14" t="s">
-        <v>917</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="24">
       <c r="A8" s="13" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="D8" s="13" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="E8" s="14" t="s">
         <v>159</v>
@@ -7826,10 +7853,10 @@
     </row>
     <row r="9" spans="1:5" ht="24">
       <c r="A9" s="13" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="D9" s="13" t="s">
         <v>39</v>
@@ -7840,10 +7867,10 @@
     </row>
     <row r="10" spans="1:5" ht="24">
       <c r="A10" s="13" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="D10" s="13" t="s">
         <v>1</v>
@@ -7854,55 +7881,55 @@
     </row>
     <row r="11" spans="1:5" ht="24">
       <c r="A11" s="13" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="D11" s="13" t="s">
+        <v>562</v>
+      </c>
+      <c r="E11" s="14" t="s">
         <v>563</v>
-      </c>
-      <c r="E11" s="14" t="s">
-        <v>564</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="24">
       <c r="A12" s="13" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B12" s="14" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="D12" s="13" t="s">
         <v>58</v>
       </c>
       <c r="E12" s="14" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="24">
       <c r="A13" s="13" t="s">
+        <v>429</v>
+      </c>
+      <c r="B13" s="14" t="s">
         <v>430</v>
       </c>
-      <c r="B13" s="14" t="s">
-        <v>431</v>
-      </c>
       <c r="D13" s="13" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="E13" s="14" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="24">
       <c r="A14" s="13" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B14" s="14" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="D14" s="13" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="E14" s="14" t="s">
         <v>98</v>
@@ -7910,50 +7937,50 @@
     </row>
     <row r="15" spans="1:5" ht="24">
       <c r="A15" s="13" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="B15" s="14" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="24">
       <c r="A16" s="13" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B16" s="14" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="24">
       <c r="A17" s="13" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B17" s="14" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="24">
       <c r="A18" s="13" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B18" s="14" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="24">
       <c r="A19" s="13" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B19" s="14" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="24">
       <c r="A20" s="13" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B20" s="14" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
   </sheetData>
@@ -7985,7 +8012,7 @@
   <sheetData>
     <row r="2" spans="1:9" ht="31">
       <c r="A2" s="19" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="24">
@@ -7996,7 +8023,7 @@
         <v>78</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="E4" s="10" t="s">
         <v>77</v>
@@ -8013,529 +8040,529 @@
     </row>
     <row r="5" spans="1:9" ht="24">
       <c r="A5" s="21" t="s">
+        <v>1210</v>
+      </c>
+      <c r="B5" s="21" t="s">
         <v>1211</v>
-      </c>
-      <c r="B5" s="21" t="s">
-        <v>1212</v>
       </c>
       <c r="C5" s="23"/>
       <c r="E5" s="21" t="s">
+        <v>1239</v>
+      </c>
+      <c r="F5" s="21" t="s">
         <v>1240</v>
       </c>
-      <c r="F5" s="21" t="s">
-        <v>1241</v>
-      </c>
       <c r="H5" s="21" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="I5" s="42" t="s">
-        <v>1296</v>
+        <v>1295</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="24">
       <c r="A6" s="21" t="s">
+        <v>1224</v>
+      </c>
+      <c r="B6" s="21" t="s">
         <v>1225</v>
-      </c>
-      <c r="B6" s="21" t="s">
-        <v>1226</v>
       </c>
       <c r="C6" s="23"/>
       <c r="E6" s="21" t="s">
+        <v>1241</v>
+      </c>
+      <c r="F6" s="21" t="s">
         <v>1242</v>
       </c>
-      <c r="F6" s="21" t="s">
-        <v>1243</v>
-      </c>
       <c r="H6" s="21" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="I6" s="42" t="s">
-        <v>1295</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="24">
       <c r="A7" s="21" t="s">
+        <v>1226</v>
+      </c>
+      <c r="B7" s="21" t="s">
         <v>1227</v>
-      </c>
-      <c r="B7" s="21" t="s">
-        <v>1228</v>
       </c>
       <c r="C7" s="23"/>
       <c r="E7" s="21" t="s">
+        <v>1243</v>
+      </c>
+      <c r="F7" s="21" t="s">
         <v>1244</v>
       </c>
-      <c r="F7" s="21" t="s">
-        <v>1245</v>
-      </c>
       <c r="H7" s="21" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="I7" s="42" t="s">
-        <v>1294</v>
+        <v>1293</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="24">
       <c r="A8" s="21" t="s">
-        <v>1197</v>
+        <v>1196</v>
       </c>
       <c r="B8" s="21" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
       <c r="C8" s="23"/>
       <c r="E8" s="21" t="s">
+        <v>1245</v>
+      </c>
+      <c r="F8" s="21" t="s">
         <v>1246</v>
       </c>
-      <c r="F8" s="21" t="s">
-        <v>1247</v>
-      </c>
       <c r="H8" s="21" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="I8" s="42" t="s">
-        <v>1293</v>
+        <v>1292</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="24">
       <c r="A9" s="21" t="s">
+        <v>1234</v>
+      </c>
+      <c r="B9" s="21" t="s">
         <v>1235</v>
-      </c>
-      <c r="B9" s="21" t="s">
-        <v>1236</v>
       </c>
       <c r="C9" s="23"/>
       <c r="E9" s="21" t="s">
+        <v>1247</v>
+      </c>
+      <c r="F9" s="21" t="s">
         <v>1248</v>
       </c>
-      <c r="F9" s="21" t="s">
-        <v>1249</v>
-      </c>
       <c r="H9" s="21" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="I9" s="42" t="s">
-        <v>1297</v>
+        <v>1296</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="24">
       <c r="A10" s="21" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
       <c r="B10" s="21" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="C10" s="23"/>
       <c r="E10" s="21" t="s">
+        <v>1249</v>
+      </c>
+      <c r="F10" s="21" t="s">
         <v>1250</v>
       </c>
-      <c r="F10" s="21" t="s">
-        <v>1251</v>
-      </c>
       <c r="H10" s="21" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="I10" s="42" t="s">
-        <v>1298</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="24">
       <c r="A11" s="21" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
       <c r="B11" s="21" t="s">
-        <v>1314</v>
+        <v>1313</v>
       </c>
       <c r="C11" s="23"/>
       <c r="E11" s="21" t="s">
+        <v>1251</v>
+      </c>
+      <c r="F11" s="21" t="s">
         <v>1252</v>
       </c>
-      <c r="F11" s="21" t="s">
-        <v>1253</v>
-      </c>
       <c r="H11" s="21" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="I11" s="42" t="s">
-        <v>1299</v>
+        <v>1298</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="24">
       <c r="A12" s="21" t="s">
+        <v>1212</v>
+      </c>
+      <c r="B12" s="21" t="s">
         <v>1213</v>
-      </c>
-      <c r="B12" s="21" t="s">
-        <v>1214</v>
       </c>
       <c r="C12" s="23"/>
       <c r="E12" s="21" t="s">
+        <v>1253</v>
+      </c>
+      <c r="F12" s="21" t="s">
         <v>1254</v>
       </c>
-      <c r="F12" s="21" t="s">
-        <v>1255</v>
-      </c>
       <c r="H12" s="21" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="I12" s="42" t="s">
-        <v>1300</v>
+        <v>1299</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="24">
       <c r="A13" s="21" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
       <c r="B13" s="21" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="C13" s="23"/>
       <c r="E13" s="21" t="s">
+        <v>1255</v>
+      </c>
+      <c r="F13" s="21" t="s">
         <v>1256</v>
       </c>
-      <c r="F13" s="21" t="s">
-        <v>1257</v>
-      </c>
       <c r="H13" s="21" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="I13" s="42" t="s">
-        <v>1301</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="24">
       <c r="A14" s="21" t="s">
+        <v>1208</v>
+      </c>
+      <c r="B14" s="21" t="s">
         <v>1209</v>
-      </c>
-      <c r="B14" s="21" t="s">
-        <v>1210</v>
       </c>
       <c r="C14" s="23"/>
       <c r="E14" s="21" t="s">
+        <v>1257</v>
+      </c>
+      <c r="F14" s="21" t="s">
         <v>1258</v>
       </c>
-      <c r="F14" s="21" t="s">
-        <v>1259</v>
-      </c>
       <c r="H14" s="21" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="I14" s="42" t="s">
-        <v>1302</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="24">
       <c r="A15" s="21" t="s">
+        <v>1214</v>
+      </c>
+      <c r="B15" s="21" t="s">
         <v>1215</v>
-      </c>
-      <c r="B15" s="21" t="s">
-        <v>1216</v>
       </c>
       <c r="C15" s="23"/>
       <c r="E15" s="21" t="s">
+        <v>1259</v>
+      </c>
+      <c r="F15" s="21" t="s">
         <v>1260</v>
       </c>
-      <c r="F15" s="21" t="s">
-        <v>1261</v>
-      </c>
       <c r="H15" s="21" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="I15" s="42" t="s">
-        <v>1303</v>
+        <v>1302</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="24">
       <c r="A16" s="21" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
       <c r="B16" s="21" t="s">
-        <v>1316</v>
+        <v>1315</v>
       </c>
       <c r="C16" s="23"/>
       <c r="E16" s="21" t="s">
+        <v>1261</v>
+      </c>
+      <c r="F16" s="21" t="s">
         <v>1262</v>
       </c>
-      <c r="F16" s="21" t="s">
-        <v>1263</v>
-      </c>
       <c r="H16" s="21" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
       <c r="I16" s="42" t="s">
-        <v>1304</v>
+        <v>1303</v>
       </c>
     </row>
     <row r="17" spans="1:11" ht="24">
       <c r="A17" s="21" t="s">
+        <v>1236</v>
+      </c>
+      <c r="B17" s="21" t="s">
         <v>1237</v>
-      </c>
-      <c r="B17" s="21" t="s">
-        <v>1238</v>
       </c>
       <c r="C17" s="23"/>
       <c r="E17" s="21" t="s">
+        <v>1263</v>
+      </c>
+      <c r="F17" s="21" t="s">
         <v>1264</v>
       </c>
-      <c r="F17" s="21" t="s">
+      <c r="H17" s="21" t="s">
         <v>1265</v>
       </c>
-      <c r="H17" s="21" t="s">
-        <v>1266</v>
-      </c>
       <c r="I17" s="42" t="s">
-        <v>1305</v>
+        <v>1304</v>
       </c>
     </row>
     <row r="18" spans="1:11" ht="24">
       <c r="A18" s="21" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
       <c r="B18" s="21" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
       <c r="C18" s="23"/>
       <c r="E18" s="21" t="s">
+        <v>1266</v>
+      </c>
+      <c r="F18" s="21" t="s">
         <v>1267</v>
       </c>
-      <c r="F18" s="21" t="s">
-        <v>1268</v>
-      </c>
       <c r="H18" s="21" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="I18" s="42" t="s">
-        <v>1306</v>
+        <v>1305</v>
       </c>
     </row>
     <row r="19" spans="1:11" ht="24">
       <c r="A19" s="21" t="s">
+        <v>1222</v>
+      </c>
+      <c r="B19" s="21" t="s">
         <v>1223</v>
-      </c>
-      <c r="B19" s="21" t="s">
-        <v>1224</v>
       </c>
       <c r="C19" s="23"/>
       <c r="E19" s="21" t="s">
+        <v>1268</v>
+      </c>
+      <c r="F19" s="21" t="s">
         <v>1269</v>
       </c>
-      <c r="F19" s="21" t="s">
-        <v>1270</v>
-      </c>
       <c r="H19" s="21" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="I19" s="21" t="s">
-        <v>1305</v>
+        <v>1304</v>
       </c>
     </row>
     <row r="20" spans="1:11" ht="24">
       <c r="A20" s="21" t="s">
+        <v>1202</v>
+      </c>
+      <c r="B20" s="21" t="s">
         <v>1203</v>
-      </c>
-      <c r="B20" s="21" t="s">
-        <v>1204</v>
       </c>
       <c r="C20" s="23"/>
       <c r="E20" s="21" t="s">
+        <v>1270</v>
+      </c>
+      <c r="F20" s="21" t="s">
         <v>1271</v>
       </c>
-      <c r="F20" s="21" t="s">
-        <v>1272</v>
-      </c>
       <c r="H20" s="21" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="I20" s="42" t="s">
-        <v>1307</v>
+        <v>1306</v>
       </c>
     </row>
     <row r="21" spans="1:11" ht="24">
       <c r="A21" s="21" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
       <c r="B21" s="21" t="s">
-        <v>1318</v>
+        <v>1317</v>
       </c>
       <c r="C21" s="23"/>
       <c r="E21" s="21" t="s">
+        <v>1272</v>
+      </c>
+      <c r="F21" s="21" t="s">
         <v>1273</v>
       </c>
-      <c r="F21" s="21" t="s">
-        <v>1274</v>
-      </c>
       <c r="H21" s="21" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="I21" s="42" t="s">
-        <v>1308</v>
+        <v>1307</v>
       </c>
     </row>
     <row r="22" spans="1:11" ht="24">
       <c r="A22" s="21" t="s">
+        <v>1218</v>
+      </c>
+      <c r="B22" s="21" t="s">
         <v>1219</v>
-      </c>
-      <c r="B22" s="21" t="s">
-        <v>1220</v>
       </c>
       <c r="C22" s="23"/>
       <c r="E22" s="21" t="s">
+        <v>1274</v>
+      </c>
+      <c r="F22" s="21" t="s">
         <v>1275</v>
       </c>
-      <c r="F22" s="21" t="s">
-        <v>1276</v>
-      </c>
       <c r="H22" s="21" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="I22" s="42" t="s">
-        <v>1294</v>
+        <v>1293</v>
       </c>
     </row>
     <row r="23" spans="1:11" ht="24">
       <c r="A23" s="21" t="s">
-        <v>1198</v>
+        <v>1197</v>
       </c>
       <c r="B23" s="21" t="s">
-        <v>1319</v>
+        <v>1318</v>
       </c>
       <c r="C23" s="23"/>
       <c r="E23" s="21" t="s">
+        <v>1276</v>
+      </c>
+      <c r="F23" s="21" t="s">
         <v>1277</v>
       </c>
-      <c r="F23" s="21" t="s">
-        <v>1278</v>
-      </c>
       <c r="H23" s="21" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="I23" s="42" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
     </row>
     <row r="24" spans="1:11" ht="24">
       <c r="A24" s="21" t="s">
+        <v>1220</v>
+      </c>
+      <c r="B24" s="21" t="s">
         <v>1221</v>
-      </c>
-      <c r="B24" s="21" t="s">
-        <v>1222</v>
       </c>
       <c r="C24" s="23"/>
       <c r="E24" s="21" t="s">
+        <v>1278</v>
+      </c>
+      <c r="F24" s="21" t="s">
         <v>1279</v>
       </c>
-      <c r="F24" s="21" t="s">
-        <v>1280</v>
-      </c>
       <c r="H24" s="21" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="I24" s="42" t="s">
-        <v>1310</v>
+        <v>1309</v>
       </c>
       <c r="K24" t="s">
-        <v>1321</v>
+        <v>1320</v>
       </c>
     </row>
     <row r="25" spans="1:11" ht="24">
       <c r="A25" s="21" t="s">
+        <v>1204</v>
+      </c>
+      <c r="B25" s="21" t="s">
         <v>1205</v>
-      </c>
-      <c r="B25" s="21" t="s">
-        <v>1206</v>
       </c>
       <c r="C25" s="23"/>
       <c r="E25" s="21" t="s">
+        <v>1280</v>
+      </c>
+      <c r="F25" s="21" t="s">
         <v>1281</v>
       </c>
-      <c r="F25" s="21" t="s">
-        <v>1282</v>
-      </c>
       <c r="H25" s="21" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="I25" s="42" t="s">
-        <v>1311</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="26" spans="1:11" ht="24">
       <c r="A26" s="21" t="s">
+        <v>1216</v>
+      </c>
+      <c r="B26" s="21" t="s">
         <v>1217</v>
-      </c>
-      <c r="B26" s="21" t="s">
-        <v>1218</v>
       </c>
       <c r="C26" s="23"/>
       <c r="E26" s="21" t="s">
+        <v>1282</v>
+      </c>
+      <c r="F26" s="21" t="s">
         <v>1283</v>
-      </c>
-      <c r="F26" s="21" t="s">
-        <v>1284</v>
       </c>
     </row>
     <row r="27" spans="1:11" ht="24">
       <c r="A27" s="21" t="s">
+        <v>1206</v>
+      </c>
+      <c r="B27" s="21" t="s">
         <v>1207</v>
-      </c>
-      <c r="B27" s="21" t="s">
-        <v>1208</v>
       </c>
       <c r="C27" s="23"/>
       <c r="E27" s="21" t="s">
+        <v>1284</v>
+      </c>
+      <c r="F27" s="21" t="s">
         <v>1285</v>
-      </c>
-      <c r="F27" s="21" t="s">
-        <v>1286</v>
       </c>
     </row>
     <row r="28" spans="1:11" ht="24">
       <c r="A28" s="21" t="s">
+        <v>1228</v>
+      </c>
+      <c r="B28" s="21" t="s">
         <v>1229</v>
-      </c>
-      <c r="B28" s="21" t="s">
-        <v>1230</v>
       </c>
       <c r="C28" s="23"/>
       <c r="E28" s="21" t="s">
+        <v>1286</v>
+      </c>
+      <c r="F28" s="21" t="s">
         <v>1287</v>
-      </c>
-      <c r="F28" s="21" t="s">
-        <v>1288</v>
       </c>
     </row>
     <row r="29" spans="1:11" ht="24">
       <c r="A29" s="21" t="s">
+        <v>1230</v>
+      </c>
+      <c r="B29" s="21" t="s">
         <v>1231</v>
-      </c>
-      <c r="B29" s="21" t="s">
-        <v>1232</v>
       </c>
       <c r="C29" s="23"/>
       <c r="E29" s="21" t="s">
+        <v>1288</v>
+      </c>
+      <c r="F29" s="21" t="s">
         <v>1289</v>
-      </c>
-      <c r="F29" s="21" t="s">
-        <v>1290</v>
       </c>
     </row>
     <row r="30" spans="1:11" ht="24">
       <c r="A30" s="21" t="s">
-        <v>1199</v>
+        <v>1198</v>
       </c>
       <c r="B30" s="21" t="s">
-        <v>1320</v>
+        <v>1319</v>
       </c>
       <c r="C30" s="23"/>
       <c r="E30" s="21" t="s">
+        <v>1290</v>
+      </c>
+      <c r="F30" s="21" t="s">
         <v>1291</v>
-      </c>
-      <c r="F30" s="21" t="s">
-        <v>1292</v>
       </c>
     </row>
     <row r="31" spans="1:11" ht="24">
       <c r="A31" s="21" t="s">
+        <v>1232</v>
+      </c>
+      <c r="B31" s="21" t="s">
         <v>1233</v>
-      </c>
-      <c r="B31" s="21" t="s">
-        <v>1234</v>
       </c>
       <c r="C31" s="23"/>
     </row>
@@ -8564,7 +8591,7 @@
   <sheetData>
     <row r="2" spans="1:3" ht="31">
       <c r="A2" s="19" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="24">
@@ -8575,117 +8602,117 @@
         <v>78</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="24">
       <c r="A5" s="21" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="B5" s="21" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
       <c r="C5" s="21"/>
     </row>
     <row r="6" spans="1:3" ht="24">
       <c r="A6" s="21" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="B6" s="21" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
       <c r="C6" s="21"/>
     </row>
     <row r="7" spans="1:3" ht="24">
       <c r="A7" s="21" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="B7" s="21" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
       <c r="C7" s="21"/>
     </row>
     <row r="8" spans="1:3" ht="24">
       <c r="A8" s="21" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="B8" s="21" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="C8" s="21"/>
     </row>
     <row r="9" spans="1:3" ht="24">
       <c r="A9" s="21" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="B9" s="21" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="C9" s="21"/>
     </row>
     <row r="10" spans="1:3" ht="50">
       <c r="A10" s="39" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="B10" s="21" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="C10" s="21"/>
     </row>
     <row r="11" spans="1:3" ht="50">
       <c r="A11" s="39" t="s">
+        <v>1098</v>
+      </c>
+      <c r="B11" s="21" t="s">
         <v>1099</v>
-      </c>
-      <c r="B11" s="21" t="s">
-        <v>1100</v>
       </c>
       <c r="C11" s="21"/>
     </row>
     <row r="12" spans="1:3" ht="24">
       <c r="A12" s="21" t="s">
+        <v>1100</v>
+      </c>
+      <c r="B12" s="21" t="s">
         <v>1101</v>
-      </c>
-      <c r="B12" s="21" t="s">
-        <v>1102</v>
       </c>
       <c r="C12" s="21"/>
     </row>
     <row r="13" spans="1:3" ht="24">
       <c r="A13" s="21" t="s">
+        <v>1102</v>
+      </c>
+      <c r="B13" s="21" t="s">
         <v>1103</v>
-      </c>
-      <c r="B13" s="21" t="s">
-        <v>1104</v>
       </c>
       <c r="C13" s="21"/>
     </row>
     <row r="14" spans="1:3" ht="24">
       <c r="A14" s="21" t="s">
+        <v>1104</v>
+      </c>
+      <c r="B14" s="21" t="s">
         <v>1105</v>
-      </c>
-      <c r="B14" s="21" t="s">
-        <v>1106</v>
       </c>
       <c r="C14" s="21"/>
     </row>
     <row r="15" spans="1:3" ht="24">
       <c r="A15" s="21"/>
       <c r="B15" s="21" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
       <c r="C15" s="21"/>
     </row>
     <row r="16" spans="1:3" ht="24">
       <c r="A16" s="21"/>
       <c r="B16" s="21" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
       <c r="C16" s="21"/>
     </row>
     <row r="17" spans="1:3" ht="24">
       <c r="A17" s="21"/>
       <c r="B17" s="21" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
       <c r="C17" s="21"/>
     </row>
@@ -8717,7 +8744,7 @@
   <sheetData>
     <row r="1" spans="1:5" ht="31">
       <c r="A1" s="26" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
       <c r="B1" s="27"/>
       <c r="C1" s="27"/>
@@ -8735,129 +8762,129 @@
         <v>77</v>
       </c>
       <c r="C3" s="29" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="24">
       <c r="A4" s="30" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="B4" s="31" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="C4" s="12"/>
       <c r="E4" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="24">
       <c r="A5" s="13" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
       <c r="C5" s="32"/>
     </row>
     <row r="6" spans="1:5" ht="24">
       <c r="A6" s="13" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="C6" s="14"/>
       <c r="E6" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="24">
       <c r="A7" s="13" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="C7" s="14"/>
     </row>
     <row r="8" spans="1:5" ht="24">
       <c r="A8" s="30" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="B8" s="31" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
       <c r="C8" s="12"/>
     </row>
     <row r="9" spans="1:5" ht="24">
       <c r="A9" s="13" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
       <c r="C9" s="32"/>
     </row>
     <row r="10" spans="1:5" ht="24">
       <c r="A10" s="13" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="C10" s="14"/>
     </row>
     <row r="11" spans="1:5" ht="24">
       <c r="A11" s="13" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
       <c r="C11" s="14"/>
     </row>
     <row r="12" spans="1:5" ht="24">
       <c r="A12" s="13" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="B12" s="14" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
       <c r="C12" s="32"/>
     </row>
     <row r="13" spans="1:5" ht="24">
       <c r="A13" s="13" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
       <c r="B13" s="14" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="C13" s="14"/>
     </row>
     <row r="14" spans="1:5" ht="24">
       <c r="A14" s="13" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
       <c r="B14" s="14" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="C14" s="14"/>
     </row>
     <row r="15" spans="1:5" ht="24">
       <c r="A15" s="30" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
       <c r="B15" s="31" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
       <c r="C15" s="12"/>
     </row>
     <row r="16" spans="1:5" ht="24">
       <c r="A16" s="13" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="B16" s="14" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
       <c r="C16" s="32"/>
     </row>
@@ -8882,7 +8909,7 @@
   <sheetData>
     <row r="2" spans="1:3" ht="31">
       <c r="A2" s="19" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="24">
@@ -8893,195 +8920,195 @@
         <v>78</v>
       </c>
       <c r="C4" s="29" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="24">
       <c r="A5" s="30" t="s">
+        <v>816</v>
+      </c>
+      <c r="B5" s="31" t="s">
         <v>817</v>
-      </c>
-      <c r="B5" s="31" t="s">
-        <v>818</v>
       </c>
       <c r="C5" s="12"/>
     </row>
     <row r="6" spans="1:3" ht="24">
       <c r="A6" s="13" t="s">
+        <v>505</v>
+      </c>
+      <c r="B6" s="14" t="s">
         <v>506</v>
-      </c>
-      <c r="B6" s="14" t="s">
-        <v>507</v>
       </c>
       <c r="C6" s="32"/>
     </row>
     <row r="7" spans="1:3" ht="24">
       <c r="A7" s="13" t="s">
+        <v>507</v>
+      </c>
+      <c r="B7" s="14" t="s">
         <v>508</v>
-      </c>
-      <c r="B7" s="14" t="s">
-        <v>509</v>
       </c>
       <c r="C7" s="14"/>
     </row>
     <row r="8" spans="1:3" ht="24">
       <c r="A8" s="13" t="s">
+        <v>509</v>
+      </c>
+      <c r="B8" s="14" t="s">
         <v>510</v>
-      </c>
-      <c r="B8" s="14" t="s">
-        <v>511</v>
       </c>
       <c r="C8" s="14"/>
     </row>
     <row r="9" spans="1:3" ht="24">
       <c r="A9" s="13" t="s">
+        <v>810</v>
+      </c>
+      <c r="B9" s="14" t="s">
         <v>811</v>
-      </c>
-      <c r="B9" s="14" t="s">
-        <v>812</v>
       </c>
       <c r="C9" s="14"/>
     </row>
     <row r="10" spans="1:3" ht="24">
       <c r="A10" s="13" t="s">
+        <v>511</v>
+      </c>
+      <c r="B10" s="14" t="s">
         <v>512</v>
-      </c>
-      <c r="B10" s="14" t="s">
-        <v>513</v>
       </c>
       <c r="C10" s="14"/>
     </row>
     <row r="11" spans="1:3" ht="24">
       <c r="A11" s="13" t="s">
+        <v>812</v>
+      </c>
+      <c r="B11" s="14" t="s">
         <v>813</v>
-      </c>
-      <c r="B11" s="14" t="s">
-        <v>814</v>
       </c>
       <c r="C11" s="14"/>
     </row>
     <row r="12" spans="1:3" ht="24">
       <c r="A12" s="13" t="s">
+        <v>513</v>
+      </c>
+      <c r="B12" s="14" t="s">
         <v>514</v>
-      </c>
-      <c r="B12" s="14" t="s">
-        <v>515</v>
       </c>
       <c r="C12" s="14"/>
     </row>
     <row r="13" spans="1:3" ht="24">
       <c r="A13" s="14" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="B13" s="14" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="C13" s="14"/>
     </row>
     <row r="14" spans="1:3" ht="24">
       <c r="A14" s="14" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="B14" s="14" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="C14" s="14"/>
     </row>
     <row r="15" spans="1:3" ht="24">
       <c r="A15" s="13" t="s">
+        <v>515</v>
+      </c>
+      <c r="B15" s="14" t="s">
         <v>516</v>
-      </c>
-      <c r="B15" s="14" t="s">
-        <v>517</v>
       </c>
       <c r="C15" s="14"/>
     </row>
     <row r="16" spans="1:3" ht="24">
       <c r="A16" s="13" t="s">
+        <v>517</v>
+      </c>
+      <c r="B16" s="14" t="s">
         <v>518</v>
-      </c>
-      <c r="B16" s="14" t="s">
-        <v>519</v>
       </c>
       <c r="C16" s="14"/>
     </row>
     <row r="17" spans="1:3" ht="24">
       <c r="A17" s="13" t="s">
+        <v>519</v>
+      </c>
+      <c r="B17" s="14" t="s">
         <v>520</v>
-      </c>
-      <c r="B17" s="14" t="s">
-        <v>521</v>
       </c>
       <c r="C17" s="14"/>
     </row>
     <row r="18" spans="1:3" ht="24">
       <c r="A18" s="13" t="s">
+        <v>521</v>
+      </c>
+      <c r="B18" s="14" t="s">
         <v>522</v>
-      </c>
-      <c r="B18" s="14" t="s">
-        <v>523</v>
       </c>
       <c r="C18" s="14"/>
     </row>
     <row r="19" spans="1:3" ht="24">
       <c r="A19" s="30" t="s">
+        <v>806</v>
+      </c>
+      <c r="B19" s="31" t="s">
         <v>807</v>
-      </c>
-      <c r="B19" s="31" t="s">
-        <v>808</v>
       </c>
       <c r="C19" s="14"/>
     </row>
     <row r="20" spans="1:3" ht="24">
       <c r="A20" s="13" t="s">
+        <v>808</v>
+      </c>
+      <c r="B20" s="14" t="s">
         <v>809</v>
-      </c>
-      <c r="B20" s="14" t="s">
-        <v>810</v>
       </c>
       <c r="C20" s="32"/>
     </row>
     <row r="21" spans="1:3" ht="24">
       <c r="A21" s="13" t="s">
+        <v>814</v>
+      </c>
+      <c r="B21" s="14" t="s">
         <v>815</v>
-      </c>
-      <c r="B21" s="14" t="s">
-        <v>816</v>
       </c>
       <c r="C21" s="32"/>
     </row>
     <row r="22" spans="1:3" ht="24">
       <c r="A22" s="13" t="s">
-        <v>1451</v>
+        <v>1450</v>
       </c>
       <c r="B22" s="14" t="s">
-        <v>1450</v>
+        <v>1449</v>
       </c>
       <c r="C22" s="32"/>
     </row>
     <row r="23" spans="1:3" ht="24">
       <c r="A23" s="13" t="s">
+        <v>822</v>
+      </c>
+      <c r="B23" s="14" t="s">
         <v>823</v>
-      </c>
-      <c r="B23" s="14" t="s">
-        <v>824</v>
       </c>
       <c r="C23" s="32"/>
     </row>
     <row r="24" spans="1:3" ht="24">
       <c r="A24" s="13" t="s">
+        <v>822</v>
+      </c>
+      <c r="B24" s="14" t="s">
         <v>823</v>
-      </c>
-      <c r="B24" s="14" t="s">
-        <v>824</v>
       </c>
       <c r="C24" s="14"/>
     </row>
     <row r="25" spans="1:3" ht="24">
       <c r="A25" s="13" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="B25" s="14" t="s">
-        <v>1452</v>
+        <v>1451</v>
       </c>
       <c r="C25" s="14"/>
     </row>
@@ -9107,7 +9134,7 @@
   <sheetData>
     <row r="3" spans="1:5" ht="31">
       <c r="A3" s="26" t="s">
-        <v>1348</v>
+        <v>1347</v>
       </c>
       <c r="B3" s="27"/>
       <c r="C3" s="27"/>
@@ -9125,27 +9152,27 @@
         <v>78</v>
       </c>
       <c r="C5" s="29" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="24">
       <c r="A6" s="30" t="s">
+        <v>1348</v>
+      </c>
+      <c r="B6" s="31" t="s">
         <v>1349</v>
-      </c>
-      <c r="B6" s="31" t="s">
-        <v>1350</v>
       </c>
       <c r="C6" s="12"/>
       <c r="E6" s="46" t="s">
-        <v>1351</v>
+        <v>1350</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="24">
       <c r="A7" s="14" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="C7" s="32"/>
     </row>
@@ -9335,7 +9362,7 @@
   <sheetData>
     <row r="2" spans="1:3" ht="31">
       <c r="A2" s="26" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="B2" s="27"/>
       <c r="C2" s="27"/>
@@ -9353,87 +9380,87 @@
         <v>78</v>
       </c>
       <c r="C4" s="29" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="24">
       <c r="A5" s="13" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="C5" s="14"/>
     </row>
     <row r="6" spans="1:3" ht="24">
       <c r="A6" s="13" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="C6" s="14"/>
     </row>
     <row r="7" spans="1:3" ht="24">
       <c r="A7" s="13" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="C7" s="14"/>
     </row>
     <row r="8" spans="1:3" ht="24">
       <c r="A8" s="13" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="C8" s="14"/>
     </row>
     <row r="9" spans="1:3" ht="24">
       <c r="A9" s="13" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="C9" s="14"/>
     </row>
     <row r="10" spans="1:3" ht="24">
       <c r="A10" s="13" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="C10" s="14"/>
     </row>
     <row r="11" spans="1:3" ht="24">
       <c r="A11" s="13" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="C11" s="14"/>
     </row>
     <row r="12" spans="1:3" ht="24">
       <c r="A12" s="13" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="B12" s="14" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="C12" s="32"/>
     </row>
     <row r="13" spans="1:3" ht="24">
       <c r="A13" s="13" t="s">
+        <v>558</v>
+      </c>
+      <c r="B13" s="14" t="s">
         <v>559</v>
-      </c>
-      <c r="B13" s="14" t="s">
-        <v>560</v>
       </c>
       <c r="C13" s="32"/>
     </row>
@@ -9446,8 +9473,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1446148E-86CD-C745-8E28-605EED3FB402}">
   <dimension ref="A2:D64"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="21"/>
@@ -9458,12 +9485,12 @@
   <sheetData>
     <row r="2" spans="1:4" ht="24">
       <c r="A2" s="43" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="D3" t="s">
-        <v>1454</v>
+        <v>1453</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="24">
@@ -9476,482 +9503,482 @@
     </row>
     <row r="5" spans="1:4" ht="24">
       <c r="A5" s="21" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="B5" s="21" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="24">
       <c r="A6" s="21" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="B6" s="21" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="24">
       <c r="A7" s="21" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="B7" s="21" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="24">
       <c r="A8" s="21" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="B8" s="21" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="24">
       <c r="A9" s="21" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="B9" s="21" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="24">
       <c r="A10" s="21" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="B10" s="21" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="24">
       <c r="A11" s="21" t="s">
+        <v>661</v>
+      </c>
+      <c r="B11" s="21" t="s">
         <v>662</v>
-      </c>
-      <c r="B11" s="21" t="s">
-        <v>663</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="24">
       <c r="A12" s="21" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="B12" s="21" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="24">
       <c r="A13" s="21" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="B13" s="21" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="24">
       <c r="A14" s="21" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="B14" s="21" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="24">
       <c r="A15" s="21" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="B15" s="21" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="24">
       <c r="A16" s="21" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="B16" s="21" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="24">
       <c r="A17" s="21" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="B17" s="21" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="24">
       <c r="A18" s="21" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="B18" s="21" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="24">
       <c r="A19" s="21" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="B19" s="21" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="24">
       <c r="A20" s="21" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="B20" s="21" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="24">
       <c r="A21" s="21" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="B21" s="21" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="24">
       <c r="A22" s="21" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="B22" s="21" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="24">
       <c r="A23" s="21" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="B23" s="21" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="24">
       <c r="A24" s="21" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="B24" s="21" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="24">
       <c r="A25" s="21" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="B25" s="21" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="24">
       <c r="A26" s="21" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="B26" s="21" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="24">
       <c r="A27" s="21" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="B27" s="21" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="24">
       <c r="A28" s="21" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="B28" s="21" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="24">
       <c r="A29" s="21" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="B29" s="21" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="24">
       <c r="A30" s="21" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="B30" s="21" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="24">
       <c r="A31" s="21" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="B31" s="21" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="24">
       <c r="A32" s="21" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="B32" s="21" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="24">
       <c r="A33" s="21" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="B33" s="21" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="24">
       <c r="A34" s="21" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="B34" s="21" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="24">
       <c r="A35" s="21" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="B35" s="21" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="24">
       <c r="A36" s="21" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="B36" s="21" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="24">
       <c r="A37" s="21" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="B37" s="21" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="24">
       <c r="A38" s="21" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="B38" s="21" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
     </row>
     <row r="39" spans="1:2" ht="24">
       <c r="A39" s="21" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="B39" s="21" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
     </row>
     <row r="40" spans="1:2" ht="24">
       <c r="A40" s="21" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="B40" s="21" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="41" spans="1:2" ht="24">
       <c r="A41" s="21" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="B41" s="21" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
     </row>
     <row r="42" spans="1:2" ht="24">
       <c r="A42" s="21" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="B42" s="21" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
     </row>
     <row r="43" spans="1:2" ht="24">
       <c r="A43" s="21" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="B43" s="21" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
     </row>
     <row r="44" spans="1:2" ht="24">
       <c r="A44" s="21" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="B44" s="21" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
     </row>
     <row r="45" spans="1:2" ht="24">
       <c r="A45" s="21" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="B45" s="21" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
     </row>
     <row r="46" spans="1:2" ht="24">
       <c r="A46" s="21" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="B46" s="21" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="47" spans="1:2" ht="24">
       <c r="A47" s="21" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="B47" s="21" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
     </row>
     <row r="48" spans="1:2" ht="24">
       <c r="A48" s="21" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="B48" s="21" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="49" spans="1:2" ht="24">
       <c r="A49" s="21" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="B49" s="21" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
     </row>
     <row r="50" spans="1:2" ht="24">
       <c r="A50" s="21" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="B50" s="21" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
     </row>
     <row r="51" spans="1:2" ht="24">
       <c r="A51" s="21" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="B51" s="21" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
     </row>
     <row r="52" spans="1:2" ht="24">
       <c r="A52" s="21" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="B52" s="21" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
     </row>
     <row r="53" spans="1:2" ht="24">
       <c r="A53" s="21" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="B53" s="21" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
     </row>
     <row r="54" spans="1:2" ht="24">
       <c r="A54" s="21" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="B54" s="21" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
     </row>
     <row r="55" spans="1:2" ht="24">
       <c r="A55" s="21" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="B55" s="21" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
     </row>
     <row r="56" spans="1:2" ht="24">
       <c r="A56" s="21" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="B56" s="21" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
     </row>
     <row r="57" spans="1:2" ht="24">
       <c r="A57" s="21" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="B57" s="21" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
     </row>
     <row r="58" spans="1:2" ht="24">
       <c r="A58" s="21" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="B58" s="21" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
     </row>
     <row r="59" spans="1:2" ht="24">
       <c r="A59" s="21" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="B59" s="21" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
     </row>
     <row r="60" spans="1:2" ht="24">
       <c r="A60" s="21" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="B60" s="21" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
     </row>
     <row r="61" spans="1:2" ht="24">
       <c r="A61" s="21" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="B61" s="21" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
     </row>
     <row r="62" spans="1:2" ht="24">
       <c r="A62" s="21" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="B62" s="21" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
     </row>
     <row r="63" spans="1:2" ht="24">
       <c r="A63" s="21" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="B63" s="21" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
     </row>
     <row r="64" spans="1:2" ht="24">
       <c r="A64" s="21" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="B64" s="21" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
     </row>
   </sheetData>
@@ -9977,7 +10004,7 @@
   <sheetData>
     <row r="2" spans="1:3" ht="31">
       <c r="A2" s="26" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="B2" s="27"/>
       <c r="C2" s="27"/>
@@ -9995,7 +10022,7 @@
         <v>78</v>
       </c>
       <c r="C4" s="29" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="24">
@@ -10176,23 +10203,23 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB36050E-0104-0341-9D1D-396F77732371}">
-  <dimension ref="A2:O257"/>
+  <dimension ref="A2:O262"/>
   <sheetViews>
-    <sheetView topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="A35" sqref="A35"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="21"/>
   <cols>
     <col min="1" max="1" width="28.75" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="47.875" customWidth="1"/>
-    <col min="3" max="3" width="38.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="39.875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="25.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:15" ht="31">
       <c r="A2" s="19" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
     </row>
     <row r="4" spans="1:15" ht="24">
@@ -10203,15 +10230,15 @@
         <v>78</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="5" spans="1:15" ht="24">
       <c r="A5" s="21" t="s">
+        <v>596</v>
+      </c>
+      <c r="B5" s="21" t="s">
         <v>597</v>
-      </c>
-      <c r="B5" s="21" t="s">
-        <v>598</v>
       </c>
       <c r="C5" s="21"/>
       <c r="D5" s="9"/>
@@ -10229,12 +10256,13 @@
     </row>
     <row r="6" spans="1:15" ht="24">
       <c r="A6" s="21" t="s">
-        <v>168</v>
+        <v>1460</v>
       </c>
       <c r="B6" s="21" t="s">
-        <v>236</v>
+        <v>1456</v>
       </c>
       <c r="C6" s="21"/>
+      <c r="D6" s="9"/>
       <c r="E6" s="9"/>
       <c r="F6" s="9"/>
       <c r="G6" s="9"/>
@@ -10249,13 +10277,12 @@
     </row>
     <row r="7" spans="1:15" ht="24">
       <c r="A7" s="21" t="s">
-        <v>181</v>
+        <v>168</v>
       </c>
       <c r="B7" s="21" t="s">
-        <v>171</v>
+        <v>1459</v>
       </c>
       <c r="C7" s="21"/>
-      <c r="D7" s="9"/>
       <c r="E7" s="9"/>
       <c r="F7" s="9"/>
       <c r="G7" s="9"/>
@@ -10270,22 +10297,34 @@
     </row>
     <row r="8" spans="1:15" ht="24">
       <c r="A8" s="21" t="s">
-        <v>1136</v>
+        <v>1461</v>
       </c>
       <c r="B8" s="21" t="s">
-        <v>1137</v>
-      </c>
-      <c r="C8" s="21"/>
+        <v>1462</v>
+      </c>
+      <c r="C8" s="21" t="s">
+        <v>1463</v>
+      </c>
+      <c r="E8" s="9"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="9"/>
+      <c r="I8" s="9"/>
+      <c r="J8" s="9"/>
+      <c r="K8" s="9"/>
+      <c r="L8" s="9"/>
+      <c r="M8" s="9"/>
+      <c r="N8" s="9"/>
+      <c r="O8" s="9"/>
     </row>
     <row r="9" spans="1:15" ht="24">
       <c r="A9" s="21" t="s">
-        <v>164</v>
+        <v>881</v>
       </c>
       <c r="B9" s="21" t="s">
-        <v>165</v>
+        <v>882</v>
       </c>
       <c r="C9" s="21"/>
-      <c r="D9" s="9"/>
       <c r="E9" s="9"/>
       <c r="F9" s="9"/>
       <c r="G9" s="9"/>
@@ -10300,12 +10339,13 @@
     </row>
     <row r="10" spans="1:15" ht="24">
       <c r="A10" s="21" t="s">
-        <v>784</v>
+        <v>181</v>
       </c>
       <c r="B10" s="21" t="s">
-        <v>785</v>
+        <v>171</v>
       </c>
       <c r="C10" s="21"/>
+      <c r="D10" s="9"/>
       <c r="E10" s="9"/>
       <c r="F10" s="9"/>
       <c r="G10" s="9"/>
@@ -10320,32 +10360,22 @@
     </row>
     <row r="11" spans="1:15" ht="24">
       <c r="A11" s="21" t="s">
-        <v>408</v>
+        <v>1135</v>
       </c>
       <c r="B11" s="21" t="s">
-        <v>409</v>
+        <v>1136</v>
       </c>
       <c r="C11" s="21"/>
-      <c r="E11" s="9"/>
-      <c r="F11" s="9"/>
-      <c r="G11" s="9"/>
-      <c r="H11" s="9"/>
-      <c r="I11" s="9"/>
-      <c r="J11" s="9"/>
-      <c r="K11" s="9"/>
-      <c r="L11" s="9"/>
-      <c r="M11" s="9"/>
-      <c r="N11" s="9"/>
-      <c r="O11" s="9"/>
     </row>
     <row r="12" spans="1:15" ht="24">
       <c r="A12" s="21" t="s">
-        <v>856</v>
+        <v>164</v>
       </c>
       <c r="B12" s="21" t="s">
-        <v>857</v>
+        <v>165</v>
       </c>
       <c r="C12" s="21"/>
+      <c r="D12" s="9"/>
       <c r="E12" s="9"/>
       <c r="F12" s="9"/>
       <c r="G12" s="9"/>
@@ -10360,10 +10390,10 @@
     </row>
     <row r="13" spans="1:15" ht="24">
       <c r="A13" s="21" t="s">
-        <v>803</v>
+        <v>783</v>
       </c>
       <c r="B13" s="21" t="s">
-        <v>804</v>
+        <v>784</v>
       </c>
       <c r="C13" s="21"/>
       <c r="E13" s="9"/>
@@ -10380,10 +10410,10 @@
     </row>
     <row r="14" spans="1:15" ht="24">
       <c r="A14" s="21" t="s">
-        <v>772</v>
+        <v>407</v>
       </c>
       <c r="B14" s="21" t="s">
-        <v>773</v>
+        <v>408</v>
       </c>
       <c r="C14" s="21"/>
       <c r="E14" s="9"/>
@@ -10400,13 +10430,12 @@
     </row>
     <row r="15" spans="1:15" ht="24">
       <c r="A15" s="21" t="s">
-        <v>998</v>
+        <v>855</v>
       </c>
       <c r="B15" s="21" t="s">
-        <v>999</v>
+        <v>856</v>
       </c>
       <c r="C15" s="21"/>
-      <c r="D15" s="9"/>
       <c r="E15" s="9"/>
       <c r="F15" s="9"/>
       <c r="G15" s="9"/>
@@ -10421,10 +10450,10 @@
     </row>
     <row r="16" spans="1:15" ht="24">
       <c r="A16" s="21" t="s">
-        <v>798</v>
+        <v>802</v>
       </c>
       <c r="B16" s="21" t="s">
-        <v>284</v>
+        <v>803</v>
       </c>
       <c r="C16" s="21"/>
       <c r="E16" s="9"/>
@@ -10441,13 +10470,12 @@
     </row>
     <row r="17" spans="1:15" ht="24">
       <c r="A17" s="21" t="s">
-        <v>992</v>
+        <v>1454</v>
       </c>
       <c r="B17" s="21" t="s">
-        <v>993</v>
+        <v>1455</v>
       </c>
       <c r="C17" s="21"/>
-      <c r="D17" s="9"/>
       <c r="E17" s="9"/>
       <c r="F17" s="9"/>
       <c r="G17" s="9"/>
@@ -10462,10 +10490,10 @@
     </row>
     <row r="18" spans="1:15" ht="24">
       <c r="A18" s="21" t="s">
-        <v>860</v>
+        <v>771</v>
       </c>
       <c r="B18" s="21" t="s">
-        <v>861</v>
+        <v>772</v>
       </c>
       <c r="C18" s="21"/>
       <c r="E18" s="9"/>
@@ -10482,10 +10510,10 @@
     </row>
     <row r="19" spans="1:15" ht="24">
       <c r="A19" s="21" t="s">
-        <v>601</v>
+        <v>997</v>
       </c>
       <c r="B19" s="21" t="s">
-        <v>602</v>
+        <v>998</v>
       </c>
       <c r="C19" s="21"/>
       <c r="D19" s="9"/>
@@ -10503,10 +10531,10 @@
     </row>
     <row r="20" spans="1:15" ht="24">
       <c r="A20" s="21" t="s">
-        <v>922</v>
+        <v>797</v>
       </c>
       <c r="B20" s="21" t="s">
-        <v>923</v>
+        <v>283</v>
       </c>
       <c r="C20" s="21"/>
       <c r="E20" s="9"/>
@@ -10523,10 +10551,10 @@
     </row>
     <row r="21" spans="1:15" ht="24">
       <c r="A21" s="21" t="s">
-        <v>1130</v>
+        <v>991</v>
       </c>
       <c r="B21" s="21" t="s">
-        <v>1138</v>
+        <v>992</v>
       </c>
       <c r="C21" s="21"/>
       <c r="D21" s="9"/>
@@ -10544,10 +10572,10 @@
     </row>
     <row r="22" spans="1:15" ht="24">
       <c r="A22" s="21" t="s">
-        <v>178</v>
+        <v>859</v>
       </c>
       <c r="B22" s="21" t="s">
-        <v>196</v>
+        <v>860</v>
       </c>
       <c r="C22" s="21"/>
       <c r="E22" s="9"/>
@@ -10564,10 +10592,10 @@
     </row>
     <row r="23" spans="1:15" ht="24">
       <c r="A23" s="21" t="s">
-        <v>205</v>
+        <v>600</v>
       </c>
       <c r="B23" s="21" t="s">
-        <v>933</v>
+        <v>601</v>
       </c>
       <c r="C23" s="21"/>
       <c r="D23" s="9"/>
@@ -10585,10 +10613,10 @@
     </row>
     <row r="24" spans="1:15" ht="24">
       <c r="A24" s="21" t="s">
-        <v>201</v>
+        <v>921</v>
       </c>
       <c r="B24" s="21" t="s">
-        <v>219</v>
+        <v>922</v>
       </c>
       <c r="C24" s="21"/>
       <c r="E24" s="9"/>
@@ -10605,10 +10633,10 @@
     </row>
     <row r="25" spans="1:15" ht="24">
       <c r="A25" s="21" t="s">
-        <v>926</v>
+        <v>1129</v>
       </c>
       <c r="B25" s="21" t="s">
-        <v>927</v>
+        <v>1137</v>
       </c>
       <c r="C25" s="21"/>
       <c r="D25" s="9"/>
@@ -10626,10 +10654,10 @@
     </row>
     <row r="26" spans="1:15" ht="24">
       <c r="A26" s="21" t="s">
-        <v>1165</v>
+        <v>178</v>
       </c>
       <c r="B26" s="21" t="s">
-        <v>1166</v>
+        <v>196</v>
       </c>
       <c r="C26" s="21"/>
       <c r="E26" s="9"/>
@@ -10646,10 +10674,10 @@
     </row>
     <row r="27" spans="1:15" ht="24">
       <c r="A27" s="21" t="s">
-        <v>179</v>
+        <v>205</v>
       </c>
       <c r="B27" s="21" t="s">
-        <v>169</v>
+        <v>932</v>
       </c>
       <c r="C27" s="21"/>
       <c r="D27" s="9"/>
@@ -10667,10 +10695,10 @@
     </row>
     <row r="28" spans="1:15" ht="24">
       <c r="A28" s="21" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="B28" s="21" t="s">
-        <v>198</v>
+        <v>219</v>
       </c>
       <c r="C28" s="21"/>
       <c r="E28" s="9"/>
@@ -10687,10 +10715,10 @@
     </row>
     <row r="29" spans="1:15" ht="24">
       <c r="A29" s="21" t="s">
-        <v>591</v>
+        <v>925</v>
       </c>
       <c r="B29" s="21" t="s">
-        <v>592</v>
+        <v>926</v>
       </c>
       <c r="C29" s="21"/>
       <c r="D29" s="9"/>
@@ -10708,10 +10736,10 @@
     </row>
     <row r="30" spans="1:15" ht="24">
       <c r="A30" s="21" t="s">
-        <v>580</v>
+        <v>1164</v>
       </c>
       <c r="B30" s="21" t="s">
-        <v>581</v>
+        <v>1165</v>
       </c>
       <c r="C30" s="21"/>
       <c r="E30" s="9"/>
@@ -10728,14 +10756,12 @@
     </row>
     <row r="31" spans="1:15" ht="24">
       <c r="A31" s="21" t="s">
-        <v>1139</v>
+        <v>179</v>
       </c>
       <c r="B31" s="21" t="s">
-        <v>1140</v>
-      </c>
-      <c r="C31" s="21" t="s">
-        <v>1141</v>
-      </c>
+        <v>169</v>
+      </c>
+      <c r="C31" s="21"/>
       <c r="D31" s="9"/>
       <c r="E31" s="9"/>
       <c r="F31" s="9"/>
@@ -10751,10 +10777,10 @@
     </row>
     <row r="32" spans="1:15" ht="24">
       <c r="A32" s="21" t="s">
-        <v>249</v>
+        <v>197</v>
       </c>
       <c r="B32" s="21" t="s">
-        <v>250</v>
+        <v>198</v>
       </c>
       <c r="C32" s="21"/>
       <c r="E32" s="9"/>
@@ -10771,10 +10797,10 @@
     </row>
     <row r="33" spans="1:15" ht="24">
       <c r="A33" s="21" t="s">
-        <v>188</v>
+        <v>590</v>
       </c>
       <c r="B33" s="21" t="s">
-        <v>1001</v>
+        <v>591</v>
       </c>
       <c r="C33" s="21"/>
       <c r="D33" s="9"/>
@@ -10790,23 +10816,36 @@
       <c r="N33" s="9"/>
       <c r="O33" s="9"/>
     </row>
-    <row r="34" spans="1:15" ht="25" customHeight="1">
+    <row r="34" spans="1:15" ht="24">
       <c r="A34" s="21" t="s">
-        <v>572</v>
+        <v>579</v>
       </c>
       <c r="B34" s="21" t="s">
-        <v>573</v>
+        <v>580</v>
       </c>
       <c r="C34" s="21"/>
+      <c r="E34" s="9"/>
+      <c r="F34" s="9"/>
+      <c r="G34" s="9"/>
+      <c r="H34" s="9"/>
+      <c r="I34" s="9"/>
+      <c r="J34" s="9"/>
+      <c r="K34" s="9"/>
+      <c r="L34" s="9"/>
+      <c r="M34" s="9"/>
+      <c r="N34" s="9"/>
+      <c r="O34" s="9"/>
     </row>
     <row r="35" spans="1:15" ht="24">
       <c r="A35" s="21" t="s">
-        <v>1142</v>
+        <v>1138</v>
       </c>
       <c r="B35" s="21" t="s">
-        <v>1143</v>
-      </c>
-      <c r="C35" s="21"/>
+        <v>1139</v>
+      </c>
+      <c r="C35" s="21" t="s">
+        <v>1140</v>
+      </c>
       <c r="D35" s="9"/>
       <c r="E35" s="9"/>
       <c r="F35" s="9"/>
@@ -10822,10 +10861,10 @@
     </row>
     <row r="36" spans="1:15" ht="24">
       <c r="A36" s="21" t="s">
-        <v>184</v>
+        <v>248</v>
       </c>
       <c r="B36" s="21" t="s">
-        <v>183</v>
+        <v>249</v>
       </c>
       <c r="C36" s="21"/>
       <c r="E36" s="9"/>
@@ -10842,14 +10881,13 @@
     </row>
     <row r="37" spans="1:15" ht="24">
       <c r="A37" s="21" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="B37" s="21" t="s">
-        <v>172</v>
-      </c>
-      <c r="C37" s="21" t="s">
-        <v>235</v>
-      </c>
+        <v>1000</v>
+      </c>
+      <c r="C37" s="21"/>
+      <c r="D37" s="9"/>
       <c r="E37" s="9"/>
       <c r="F37" s="9"/>
       <c r="G37" s="9"/>
@@ -10862,35 +10900,24 @@
       <c r="N37" s="9"/>
       <c r="O37" s="9"/>
     </row>
-    <row r="38" spans="1:15" ht="24">
+    <row r="38" spans="1:15" ht="25" customHeight="1">
       <c r="A38" s="21" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="B38" s="21" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="C38" s="21"/>
-      <c r="D38" s="9"/>
-      <c r="E38" s="9"/>
-      <c r="F38" s="9"/>
-      <c r="G38" s="9"/>
-      <c r="H38" s="9"/>
-      <c r="I38" s="9"/>
-      <c r="J38" s="9"/>
-      <c r="K38" s="9"/>
-      <c r="L38" s="9"/>
-      <c r="M38" s="9"/>
-      <c r="N38" s="9"/>
-      <c r="O38" s="9"/>
     </row>
     <row r="39" spans="1:15" ht="24">
       <c r="A39" s="21" t="s">
-        <v>404</v>
+        <v>1141</v>
       </c>
       <c r="B39" s="21" t="s">
-        <v>405</v>
+        <v>1142</v>
       </c>
       <c r="C39" s="21"/>
+      <c r="D39" s="9"/>
       <c r="E39" s="9"/>
       <c r="F39" s="9"/>
       <c r="G39" s="9"/>
@@ -10905,13 +10932,12 @@
     </row>
     <row r="40" spans="1:15" ht="24">
       <c r="A40" s="21" t="s">
-        <v>724</v>
+        <v>184</v>
       </c>
       <c r="B40" s="21" t="s">
-        <v>725</v>
+        <v>183</v>
       </c>
       <c r="C40" s="21"/>
-      <c r="D40" s="9"/>
       <c r="E40" s="9"/>
       <c r="F40" s="9"/>
       <c r="G40" s="9"/>
@@ -10926,12 +10952,14 @@
     </row>
     <row r="41" spans="1:15" ht="24">
       <c r="A41" s="21" t="s">
-        <v>932</v>
+        <v>182</v>
       </c>
       <c r="B41" s="21" t="s">
-        <v>1330</v>
-      </c>
-      <c r="C41" s="21"/>
+        <v>172</v>
+      </c>
+      <c r="C41" s="21" t="s">
+        <v>235</v>
+      </c>
       <c r="E41" s="9"/>
       <c r="F41" s="9"/>
       <c r="G41" s="9"/>
@@ -10946,10 +10974,10 @@
     </row>
     <row r="42" spans="1:15" ht="24">
       <c r="A42" s="21" t="s">
-        <v>189</v>
+        <v>569</v>
       </c>
       <c r="B42" s="21" t="s">
-        <v>1331</v>
+        <v>570</v>
       </c>
       <c r="C42" s="21"/>
       <c r="D42" s="9"/>
@@ -10967,10 +10995,10 @@
     </row>
     <row r="43" spans="1:15" ht="24">
       <c r="A43" s="21" t="s">
-        <v>1144</v>
+        <v>403</v>
       </c>
       <c r="B43" s="21" t="s">
-        <v>1145</v>
+        <v>404</v>
       </c>
       <c r="C43" s="21"/>
       <c r="E43" s="9"/>
@@ -10987,10 +11015,10 @@
     </row>
     <row r="44" spans="1:15" ht="24">
       <c r="A44" s="21" t="s">
-        <v>322</v>
+        <v>723</v>
       </c>
       <c r="B44" s="21" t="s">
-        <v>323</v>
+        <v>724</v>
       </c>
       <c r="C44" s="21"/>
       <c r="D44" s="9"/>
@@ -11008,10 +11036,10 @@
     </row>
     <row r="45" spans="1:15" ht="24">
       <c r="A45" s="21" t="s">
-        <v>782</v>
+        <v>931</v>
       </c>
       <c r="B45" s="21" t="s">
-        <v>783</v>
+        <v>1329</v>
       </c>
       <c r="C45" s="21"/>
       <c r="E45" s="9"/>
@@ -11028,12 +11056,13 @@
     </row>
     <row r="46" spans="1:15" ht="24">
       <c r="A46" s="21" t="s">
-        <v>778</v>
+        <v>189</v>
       </c>
       <c r="B46" s="21" t="s">
-        <v>779</v>
+        <v>1330</v>
       </c>
       <c r="C46" s="21"/>
+      <c r="D46" s="9"/>
       <c r="E46" s="9"/>
       <c r="F46" s="9"/>
       <c r="G46" s="9"/>
@@ -11048,931 +11077,996 @@
     </row>
     <row r="47" spans="1:15" ht="24">
       <c r="A47" s="21" t="s">
-        <v>1146</v>
+        <v>1143</v>
       </c>
       <c r="B47" s="21" t="s">
-        <v>246</v>
+        <v>1144</v>
       </c>
       <c r="C47" s="21"/>
-      <c r="D47" s="9"/>
+      <c r="E47" s="9"/>
+      <c r="F47" s="9"/>
+      <c r="G47" s="9"/>
+      <c r="H47" s="9"/>
+      <c r="I47" s="9"/>
+      <c r="J47" s="9"/>
+      <c r="K47" s="9"/>
+      <c r="L47" s="9"/>
+      <c r="M47" s="9"/>
+      <c r="N47" s="9"/>
+      <c r="O47" s="9"/>
     </row>
     <row r="48" spans="1:15" ht="24">
       <c r="A48" s="21" t="s">
-        <v>1147</v>
+        <v>321</v>
       </c>
       <c r="B48" s="21" t="s">
-        <v>1148</v>
+        <v>322</v>
       </c>
       <c r="C48" s="21"/>
+      <c r="D48" s="9"/>
+      <c r="E48" s="9"/>
+      <c r="F48" s="9"/>
+      <c r="G48" s="9"/>
+      <c r="H48" s="9"/>
+      <c r="I48" s="9"/>
+      <c r="J48" s="9"/>
+      <c r="K48" s="9"/>
+      <c r="L48" s="9"/>
+      <c r="M48" s="9"/>
+      <c r="N48" s="9"/>
+      <c r="O48" s="9"/>
     </row>
     <row r="49" spans="1:15" ht="24">
       <c r="A49" s="21" t="s">
-        <v>162</v>
+        <v>781</v>
       </c>
       <c r="B49" s="21" t="s">
-        <v>163</v>
+        <v>782</v>
       </c>
       <c r="C49" s="21"/>
-      <c r="D49" s="9"/>
+      <c r="E49" s="9"/>
+      <c r="F49" s="9"/>
+      <c r="G49" s="9"/>
+      <c r="H49" s="9"/>
+      <c r="I49" s="9"/>
+      <c r="J49" s="9"/>
+      <c r="K49" s="9"/>
+      <c r="L49" s="9"/>
+      <c r="M49" s="9"/>
+      <c r="N49" s="9"/>
+      <c r="O49" s="9"/>
     </row>
     <row r="50" spans="1:15" ht="24">
       <c r="A50" s="21" t="s">
-        <v>202</v>
+        <v>777</v>
       </c>
       <c r="B50" s="21" t="s">
-        <v>220</v>
+        <v>778</v>
       </c>
       <c r="C50" s="21"/>
+      <c r="E50" s="9"/>
+      <c r="F50" s="9"/>
+      <c r="G50" s="9"/>
+      <c r="H50" s="9"/>
+      <c r="I50" s="9"/>
+      <c r="J50" s="9"/>
+      <c r="K50" s="9"/>
+      <c r="L50" s="9"/>
+      <c r="M50" s="9"/>
+      <c r="N50" s="9"/>
+      <c r="O50" s="9"/>
     </row>
     <row r="51" spans="1:15" ht="24">
       <c r="A51" s="21" t="s">
-        <v>229</v>
+        <v>1145</v>
       </c>
       <c r="B51" s="21" t="s">
-        <v>230</v>
+        <v>245</v>
       </c>
       <c r="C51" s="21"/>
       <c r="D51" s="9"/>
     </row>
     <row r="52" spans="1:15" ht="24">
       <c r="A52" s="21" t="s">
-        <v>192</v>
+        <v>1146</v>
       </c>
       <c r="B52" s="21" t="s">
-        <v>193</v>
+        <v>1147</v>
       </c>
       <c r="C52" s="21"/>
     </row>
     <row r="53" spans="1:15" ht="24">
       <c r="A53" s="21" t="s">
-        <v>194</v>
+        <v>162</v>
       </c>
       <c r="B53" s="21" t="s">
-        <v>195</v>
+        <v>163</v>
       </c>
       <c r="C53" s="21"/>
       <c r="D53" s="9"/>
-      <c r="E53" s="9"/>
-      <c r="F53" s="9"/>
-      <c r="G53" s="9"/>
-      <c r="H53" s="9"/>
-      <c r="I53" s="9"/>
-      <c r="J53" s="9"/>
-      <c r="K53" s="9"/>
-      <c r="L53" s="9"/>
-      <c r="M53" s="9"/>
-      <c r="N53" s="9"/>
-      <c r="O53" s="9"/>
     </row>
     <row r="54" spans="1:15" ht="24">
       <c r="A54" s="21" t="s">
-        <v>796</v>
+        <v>202</v>
       </c>
       <c r="B54" s="21" t="s">
-        <v>797</v>
+        <v>220</v>
       </c>
       <c r="C54" s="21"/>
     </row>
     <row r="55" spans="1:15" ht="24">
       <c r="A55" s="21" t="s">
-        <v>203</v>
+        <v>229</v>
       </c>
       <c r="B55" s="21" t="s">
-        <v>221</v>
+        <v>230</v>
       </c>
       <c r="C55" s="21"/>
+      <c r="D55" s="9"/>
     </row>
     <row r="56" spans="1:15" ht="24">
       <c r="A56" s="21" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="B56" s="21" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="C56" s="21"/>
-      <c r="D56" s="9"/>
     </row>
     <row r="57" spans="1:15" ht="24">
       <c r="A57" s="21" t="s">
-        <v>726</v>
+        <v>194</v>
       </c>
       <c r="B57" s="21" t="s">
-        <v>727</v>
+        <v>195</v>
       </c>
       <c r="C57" s="21"/>
+      <c r="D57" s="9"/>
+      <c r="E57" s="9"/>
+      <c r="F57" s="9"/>
+      <c r="G57" s="9"/>
+      <c r="H57" s="9"/>
+      <c r="I57" s="9"/>
+      <c r="J57" s="9"/>
+      <c r="K57" s="9"/>
+      <c r="L57" s="9"/>
+      <c r="M57" s="9"/>
+      <c r="N57" s="9"/>
+      <c r="O57" s="9"/>
     </row>
     <row r="58" spans="1:15" ht="24">
       <c r="A58" s="21" t="s">
-        <v>233</v>
+        <v>795</v>
       </c>
       <c r="B58" s="21" t="s">
-        <v>241</v>
+        <v>796</v>
       </c>
       <c r="C58" s="21"/>
-      <c r="D58" s="9"/>
     </row>
     <row r="59" spans="1:15" ht="24">
       <c r="A59" s="21" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B59" s="21" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="C59" s="21"/>
     </row>
     <row r="60" spans="1:15" ht="24">
       <c r="A60" s="21" t="s">
-        <v>850</v>
+        <v>190</v>
       </c>
       <c r="B60" s="21" t="s">
-        <v>851</v>
+        <v>191</v>
       </c>
       <c r="C60" s="21"/>
       <c r="D60" s="9"/>
     </row>
     <row r="61" spans="1:15" ht="24">
       <c r="A61" s="21" t="s">
-        <v>1149</v>
+        <v>725</v>
       </c>
       <c r="B61" s="21" t="s">
-        <v>564</v>
+        <v>726</v>
       </c>
       <c r="C61" s="21"/>
     </row>
     <row r="62" spans="1:15" ht="24">
       <c r="A62" s="21" t="s">
-        <v>858</v>
+        <v>233</v>
       </c>
       <c r="B62" s="21" t="s">
-        <v>859</v>
-      </c>
-      <c r="C62" s="23"/>
+        <v>240</v>
+      </c>
+      <c r="C62" s="21"/>
+      <c r="D62" s="9"/>
     </row>
     <row r="63" spans="1:15" ht="24">
       <c r="A63" s="21" t="s">
-        <v>1129</v>
+        <v>204</v>
       </c>
       <c r="B63" s="21" t="s">
-        <v>1128</v>
+        <v>217</v>
       </c>
       <c r="C63" s="21"/>
-      <c r="D63" s="9"/>
     </row>
     <row r="64" spans="1:15" ht="24">
       <c r="A64" s="21" t="s">
-        <v>200</v>
+        <v>849</v>
       </c>
       <c r="B64" s="21" t="s">
-        <v>218</v>
+        <v>850</v>
       </c>
       <c r="C64" s="21"/>
+      <c r="D64" s="9"/>
     </row>
     <row r="65" spans="1:4" ht="24">
       <c r="A65" s="21" t="s">
-        <v>1161</v>
+        <v>1148</v>
       </c>
       <c r="B65" s="21" t="s">
-        <v>1162</v>
+        <v>563</v>
       </c>
       <c r="C65" s="21"/>
-      <c r="D65" s="9"/>
     </row>
     <row r="66" spans="1:4" ht="24">
       <c r="A66" s="21" t="s">
-        <v>251</v>
+        <v>857</v>
       </c>
       <c r="B66" s="21" t="s">
-        <v>252</v>
-      </c>
-      <c r="C66" s="21"/>
+        <v>858</v>
+      </c>
+      <c r="C66" s="23"/>
     </row>
     <row r="67" spans="1:4" ht="24">
       <c r="A67" s="21" t="s">
-        <v>805</v>
+        <v>1128</v>
       </c>
       <c r="B67" s="21" t="s">
-        <v>806</v>
+        <v>1127</v>
       </c>
       <c r="C67" s="21"/>
       <c r="D67" s="9"/>
     </row>
     <row r="68" spans="1:4" ht="24">
       <c r="A68" s="21" t="s">
-        <v>800</v>
+        <v>200</v>
       </c>
       <c r="B68" s="21" t="s">
-        <v>1108</v>
+        <v>218</v>
       </c>
       <c r="C68" s="21"/>
     </row>
     <row r="69" spans="1:4" ht="24">
       <c r="A69" s="21" t="s">
-        <v>1163</v>
+        <v>1160</v>
       </c>
       <c r="B69" s="21" t="s">
-        <v>1164</v>
+        <v>1161</v>
       </c>
       <c r="C69" s="21"/>
+      <c r="D69" s="9"/>
     </row>
     <row r="70" spans="1:4" ht="24">
       <c r="A70" s="21" t="s">
-        <v>918</v>
+        <v>250</v>
       </c>
       <c r="B70" s="21" t="s">
-        <v>575</v>
+        <v>251</v>
       </c>
       <c r="C70" s="21"/>
     </row>
     <row r="71" spans="1:4" ht="24">
       <c r="A71" s="21" t="s">
-        <v>920</v>
+        <v>804</v>
       </c>
       <c r="B71" s="21" t="s">
-        <v>921</v>
+        <v>805</v>
       </c>
       <c r="C71" s="21"/>
       <c r="D71" s="9"/>
     </row>
     <row r="72" spans="1:4" ht="24">
       <c r="A72" s="21" t="s">
-        <v>207</v>
+        <v>799</v>
       </c>
       <c r="B72" s="21" t="s">
-        <v>224</v>
-      </c>
-      <c r="C72" s="21" t="s">
-        <v>919</v>
-      </c>
+        <v>1107</v>
+      </c>
+      <c r="C72" s="21"/>
     </row>
     <row r="73" spans="1:4" ht="24">
       <c r="A73" s="21" t="s">
-        <v>801</v>
+        <v>1162</v>
       </c>
       <c r="B73" s="21" t="s">
-        <v>802</v>
+        <v>1163</v>
       </c>
       <c r="C73" s="21"/>
-      <c r="D73" s="9"/>
     </row>
     <row r="74" spans="1:4" ht="24">
       <c r="A74" s="21" t="s">
-        <v>995</v>
+        <v>917</v>
       </c>
       <c r="B74" s="21" t="s">
-        <v>994</v>
+        <v>574</v>
       </c>
       <c r="C74" s="21"/>
     </row>
     <row r="75" spans="1:4" ht="24">
       <c r="A75" s="21" t="s">
-        <v>285</v>
+        <v>919</v>
       </c>
       <c r="B75" s="21" t="s">
-        <v>286</v>
+        <v>920</v>
       </c>
       <c r="C75" s="21"/>
       <c r="D75" s="9"/>
     </row>
     <row r="76" spans="1:4" ht="24">
       <c r="A76" s="21" t="s">
-        <v>928</v>
+        <v>207</v>
       </c>
       <c r="B76" s="21" t="s">
-        <v>930</v>
-      </c>
-      <c r="C76" s="21"/>
+        <v>224</v>
+      </c>
+      <c r="C76" s="21" t="s">
+        <v>918</v>
+      </c>
     </row>
     <row r="77" spans="1:4" ht="24">
       <c r="A77" s="21" t="s">
-        <v>929</v>
+        <v>800</v>
       </c>
       <c r="B77" s="21" t="s">
-        <v>931</v>
+        <v>801</v>
       </c>
       <c r="C77" s="21"/>
+      <c r="D77" s="9"/>
     </row>
     <row r="78" spans="1:4" ht="24">
       <c r="A78" s="21" t="s">
-        <v>924</v>
+        <v>994</v>
       </c>
       <c r="B78" s="21" t="s">
-        <v>925</v>
+        <v>993</v>
       </c>
       <c r="C78" s="21"/>
     </row>
     <row r="79" spans="1:4" ht="24">
       <c r="A79" s="21" t="s">
-        <v>578</v>
+        <v>1457</v>
       </c>
       <c r="B79" s="21" t="s">
-        <v>579</v>
+        <v>1458</v>
       </c>
       <c r="C79" s="21"/>
-      <c r="D79" s="9"/>
     </row>
     <row r="80" spans="1:4" ht="24">
       <c r="A80" s="21" t="s">
-        <v>589</v>
+        <v>284</v>
       </c>
       <c r="B80" s="21" t="s">
-        <v>590</v>
+        <v>285</v>
       </c>
       <c r="C80" s="21"/>
+      <c r="D80" s="9"/>
     </row>
     <row r="81" spans="1:4" ht="24">
       <c r="A81" s="21" t="s">
-        <v>337</v>
+        <v>927</v>
       </c>
       <c r="B81" s="21" t="s">
-        <v>244</v>
+        <v>929</v>
       </c>
       <c r="C81" s="21"/>
-      <c r="D81" s="9"/>
     </row>
     <row r="82" spans="1:4" ht="24">
       <c r="A82" s="21" t="s">
-        <v>215</v>
+        <v>928</v>
       </c>
       <c r="B82" s="21" t="s">
-        <v>216</v>
+        <v>930</v>
       </c>
       <c r="C82" s="21"/>
     </row>
     <row r="83" spans="1:4" ht="24">
       <c r="A83" s="21" t="s">
-        <v>594</v>
+        <v>923</v>
       </c>
       <c r="B83" s="21" t="s">
-        <v>595</v>
+        <v>924</v>
       </c>
       <c r="C83" s="21"/>
     </row>
     <row r="84" spans="1:4" ht="24">
       <c r="A84" s="21" t="s">
-        <v>582</v>
+        <v>577</v>
       </c>
       <c r="B84" s="21" t="s">
-        <v>583</v>
+        <v>578</v>
       </c>
       <c r="C84" s="21"/>
       <c r="D84" s="9"/>
     </row>
     <row r="85" spans="1:4" ht="24">
       <c r="A85" s="21" t="s">
-        <v>854</v>
+        <v>588</v>
       </c>
       <c r="B85" s="21" t="s">
-        <v>855</v>
+        <v>589</v>
       </c>
       <c r="C85" s="21"/>
     </row>
     <row r="86" spans="1:4" ht="24">
       <c r="A86" s="21" t="s">
-        <v>1150</v>
+        <v>336</v>
       </c>
       <c r="B86" s="21" t="s">
-        <v>1151</v>
+        <v>243</v>
       </c>
       <c r="C86" s="21"/>
       <c r="D86" s="9"/>
     </row>
     <row r="87" spans="1:4" ht="24">
       <c r="A87" s="21" t="s">
-        <v>722</v>
+        <v>215</v>
       </c>
       <c r="B87" s="21" t="s">
-        <v>723</v>
+        <v>216</v>
       </c>
       <c r="C87" s="21"/>
     </row>
     <row r="88" spans="1:4" ht="24">
       <c r="A88" s="21" t="s">
-        <v>231</v>
+        <v>593</v>
       </c>
       <c r="B88" s="21" t="s">
-        <v>232</v>
+        <v>594</v>
       </c>
       <c r="C88" s="21"/>
-      <c r="D88" s="9"/>
     </row>
     <row r="89" spans="1:4" ht="24">
       <c r="A89" s="21" t="s">
-        <v>253</v>
+        <v>581</v>
       </c>
       <c r="B89" s="21" t="s">
-        <v>254</v>
+        <v>582</v>
       </c>
       <c r="C89" s="21"/>
+      <c r="D89" s="9"/>
     </row>
     <row r="90" spans="1:4" ht="24">
       <c r="A90" s="21" t="s">
-        <v>209</v>
+        <v>853</v>
       </c>
       <c r="B90" s="21" t="s">
-        <v>226</v>
+        <v>854</v>
       </c>
       <c r="C90" s="21"/>
-      <c r="D90" s="9"/>
     </row>
     <row r="91" spans="1:4" ht="24">
       <c r="A91" s="21" t="s">
-        <v>568</v>
+        <v>1149</v>
       </c>
       <c r="B91" s="21" t="s">
-        <v>569</v>
+        <v>1150</v>
       </c>
       <c r="C91" s="21"/>
+      <c r="D91" s="9"/>
     </row>
     <row r="92" spans="1:4" ht="24">
       <c r="A92" s="21" t="s">
-        <v>770</v>
+        <v>721</v>
       </c>
       <c r="B92" s="21" t="s">
-        <v>771</v>
+        <v>722</v>
       </c>
       <c r="C92" s="21"/>
-      <c r="D92" s="9"/>
     </row>
     <row r="93" spans="1:4" ht="24">
       <c r="A93" s="21" t="s">
-        <v>990</v>
+        <v>231</v>
       </c>
       <c r="B93" s="21" t="s">
-        <v>991</v>
+        <v>232</v>
       </c>
       <c r="C93" s="21"/>
+      <c r="D93" s="9"/>
     </row>
     <row r="94" spans="1:4" ht="24">
       <c r="A94" s="21" t="s">
-        <v>1167</v>
+        <v>252</v>
       </c>
       <c r="B94" s="21" t="s">
-        <v>588</v>
+        <v>253</v>
       </c>
       <c r="C94" s="21"/>
-      <c r="D94" s="9"/>
     </row>
     <row r="95" spans="1:4" ht="24">
       <c r="A95" s="21" t="s">
-        <v>584</v>
+        <v>209</v>
       </c>
       <c r="B95" s="21" t="s">
-        <v>585</v>
+        <v>226</v>
       </c>
       <c r="C95" s="21"/>
+      <c r="D95" s="9"/>
     </row>
     <row r="96" spans="1:4" ht="24">
       <c r="A96" s="21" t="s">
-        <v>794</v>
+        <v>567</v>
       </c>
       <c r="B96" s="21" t="s">
-        <v>795</v>
+        <v>568</v>
       </c>
       <c r="C96" s="21"/>
-      <c r="D96" s="9"/>
     </row>
     <row r="97" spans="1:4" ht="24">
       <c r="A97" s="21" t="s">
-        <v>243</v>
+        <v>769</v>
       </c>
       <c r="B97" s="21" t="s">
-        <v>245</v>
+        <v>770</v>
       </c>
       <c r="C97" s="21"/>
+      <c r="D97" s="9"/>
     </row>
     <row r="98" spans="1:4" ht="24">
       <c r="A98" s="21" t="s">
-        <v>1168</v>
+        <v>989</v>
       </c>
       <c r="B98" s="21" t="s">
-        <v>1158</v>
+        <v>990</v>
       </c>
       <c r="C98" s="21"/>
     </row>
     <row r="99" spans="1:4" ht="24">
       <c r="A99" s="21" t="s">
-        <v>315</v>
+        <v>1166</v>
       </c>
       <c r="B99" s="21" t="s">
-        <v>596</v>
+        <v>587</v>
       </c>
       <c r="C99" s="21"/>
+      <c r="D99" s="9"/>
     </row>
     <row r="100" spans="1:4" ht="24">
       <c r="A100" s="21" t="s">
-        <v>728</v>
+        <v>583</v>
       </c>
       <c r="B100" s="21" t="s">
-        <v>729</v>
+        <v>584</v>
       </c>
       <c r="C100" s="21"/>
     </row>
     <row r="101" spans="1:4" ht="24">
       <c r="A101" s="21" t="s">
-        <v>208</v>
+        <v>793</v>
       </c>
       <c r="B101" s="21" t="s">
-        <v>225</v>
+        <v>794</v>
       </c>
       <c r="C101" s="21"/>
+      <c r="D101" s="9"/>
     </row>
     <row r="102" spans="1:4" ht="24">
       <c r="A102" s="21" t="s">
-        <v>1152</v>
+        <v>242</v>
       </c>
       <c r="B102" s="21" t="s">
-        <v>1153</v>
+        <v>244</v>
       </c>
       <c r="C102" s="21"/>
     </row>
     <row r="103" spans="1:4" ht="24">
       <c r="A103" s="21" t="s">
-        <v>1154</v>
+        <v>1167</v>
       </c>
       <c r="B103" s="21" t="s">
-        <v>1155</v>
+        <v>1157</v>
       </c>
       <c r="C103" s="21"/>
     </row>
     <row r="104" spans="1:4" ht="24">
       <c r="A104" s="21" t="s">
-        <v>1156</v>
+        <v>314</v>
       </c>
       <c r="B104" s="21" t="s">
-        <v>1157</v>
+        <v>595</v>
       </c>
       <c r="C104" s="21"/>
     </row>
     <row r="105" spans="1:4" ht="24">
       <c r="A105" s="21" t="s">
-        <v>599</v>
+        <v>727</v>
       </c>
       <c r="B105" s="21" t="s">
-        <v>600</v>
+        <v>728</v>
       </c>
       <c r="C105" s="21"/>
     </row>
     <row r="106" spans="1:4" ht="24">
       <c r="A106" s="21" t="s">
-        <v>242</v>
+        <v>208</v>
       </c>
       <c r="B106" s="21" t="s">
-        <v>244</v>
+        <v>225</v>
       </c>
       <c r="C106" s="21"/>
     </row>
     <row r="107" spans="1:4" ht="24">
       <c r="A107" s="21" t="s">
-        <v>790</v>
+        <v>1151</v>
       </c>
       <c r="B107" s="21" t="s">
-        <v>791</v>
+        <v>1152</v>
       </c>
       <c r="C107" s="21"/>
     </row>
     <row r="108" spans="1:4" ht="24">
       <c r="A108" s="21" t="s">
-        <v>788</v>
+        <v>1153</v>
       </c>
       <c r="B108" s="21" t="s">
-        <v>789</v>
+        <v>1154</v>
       </c>
       <c r="C108" s="21"/>
     </row>
     <row r="109" spans="1:4" ht="24">
       <c r="A109" s="21" t="s">
-        <v>852</v>
+        <v>1155</v>
       </c>
       <c r="B109" s="21" t="s">
-        <v>853</v>
+        <v>1156</v>
       </c>
       <c r="C109" s="21"/>
     </row>
     <row r="110" spans="1:4" ht="24">
       <c r="A110" s="21" t="s">
-        <v>792</v>
+        <v>598</v>
       </c>
       <c r="B110" s="21" t="s">
-        <v>793</v>
+        <v>599</v>
       </c>
       <c r="C110" s="21"/>
     </row>
     <row r="111" spans="1:4" ht="24">
       <c r="A111" s="21" t="s">
-        <v>576</v>
+        <v>241</v>
       </c>
       <c r="B111" s="21" t="s">
-        <v>577</v>
+        <v>243</v>
       </c>
       <c r="C111" s="21"/>
-      <c r="D111" s="9"/>
     </row>
     <row r="112" spans="1:4" ht="24">
       <c r="A112" s="21" t="s">
+        <v>789</v>
+      </c>
+      <c r="B112" s="21" t="s">
+        <v>790</v>
+      </c>
+      <c r="C112" s="21"/>
+    </row>
+    <row r="113" spans="1:4" ht="24">
+      <c r="A113" s="21" t="s">
+        <v>787</v>
+      </c>
+      <c r="B113" s="21" t="s">
+        <v>788</v>
+      </c>
+      <c r="C113" s="21"/>
+    </row>
+    <row r="114" spans="1:4" ht="24">
+      <c r="A114" s="21" t="s">
+        <v>851</v>
+      </c>
+      <c r="B114" s="21" t="s">
+        <v>852</v>
+      </c>
+      <c r="C114" s="21"/>
+    </row>
+    <row r="115" spans="1:4" ht="24">
+      <c r="A115" s="21" t="s">
+        <v>791</v>
+      </c>
+      <c r="B115" s="21" t="s">
+        <v>792</v>
+      </c>
+      <c r="C115" s="21"/>
+    </row>
+    <row r="116" spans="1:4" ht="24">
+      <c r="A116" s="21" t="s">
+        <v>575</v>
+      </c>
+      <c r="B116" s="21" t="s">
+        <v>576</v>
+      </c>
+      <c r="C116" s="21"/>
+      <c r="D116" s="9"/>
+    </row>
+    <row r="117" spans="1:4" ht="24">
+      <c r="A117" s="21" t="s">
         <v>206</v>
       </c>
-      <c r="B112" s="21" t="s">
+      <c r="B117" s="21" t="s">
         <v>222</v>
       </c>
-      <c r="C112" s="21" t="s">
+      <c r="C117" s="21" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="113" spans="1:3" ht="24">
-      <c r="A113" s="21" t="s">
+    <row r="118" spans="1:4" ht="24">
+      <c r="A118" s="21" t="s">
+        <v>246</v>
+      </c>
+      <c r="B118" s="21" t="s">
         <v>247</v>
       </c>
-      <c r="B113" s="21" t="s">
-        <v>248</v>
-      </c>
-      <c r="C113" s="21"/>
-    </row>
-    <row r="114" spans="1:3" ht="24">
-      <c r="A114" s="21" t="s">
+      <c r="C118" s="21"/>
+    </row>
+    <row r="119" spans="1:4" ht="24">
+      <c r="A119" s="21" t="s">
+        <v>995</v>
+      </c>
+      <c r="B119" s="21" t="s">
         <v>996</v>
       </c>
-      <c r="B114" s="21" t="s">
-        <v>997</v>
-      </c>
-      <c r="C114" s="21"/>
-    </row>
-    <row r="115" spans="1:3" ht="24">
-      <c r="A115" s="21" t="s">
+      <c r="C119" s="21"/>
+    </row>
+    <row r="120" spans="1:4" ht="24">
+      <c r="A120" s="21" t="s">
+        <v>775</v>
+      </c>
+      <c r="B120" s="21" t="s">
         <v>776</v>
       </c>
-      <c r="B115" s="21" t="s">
-        <v>777</v>
-      </c>
-      <c r="C115" s="21"/>
-    </row>
-    <row r="116" spans="1:3" ht="24">
-      <c r="A116" s="21" t="s">
+      <c r="C120" s="21"/>
+    </row>
+    <row r="121" spans="1:4" ht="24">
+      <c r="A121" s="21" t="s">
+        <v>585</v>
+      </c>
+      <c r="B121" s="21" t="s">
         <v>586</v>
       </c>
-      <c r="B116" s="21" t="s">
-        <v>587</v>
-      </c>
-      <c r="C116" s="21"/>
-    </row>
-    <row r="117" spans="1:3" ht="24">
-      <c r="A117" s="21" t="s">
+      <c r="C121" s="21"/>
+    </row>
+    <row r="122" spans="1:4" ht="24">
+      <c r="A122" s="21" t="s">
         <v>186</v>
       </c>
-      <c r="B117" s="21" t="s">
+      <c r="B122" s="21" t="s">
         <v>187</v>
       </c>
-      <c r="C117" s="21"/>
-    </row>
-    <row r="118" spans="1:3" ht="24">
-      <c r="A118" s="21" t="s">
+      <c r="C122" s="21"/>
+    </row>
+    <row r="123" spans="1:4" ht="24">
+      <c r="A123" s="21" t="s">
         <v>227</v>
       </c>
-      <c r="B118" s="21" t="s">
+      <c r="B123" s="21" t="s">
         <v>228</v>
       </c>
-      <c r="C118" s="21"/>
-    </row>
-    <row r="119" spans="1:3" ht="24">
-      <c r="A119" s="21" t="s">
-        <v>240</v>
-      </c>
-      <c r="B119" s="21" t="s">
+      <c r="C123" s="21"/>
+    </row>
+    <row r="124" spans="1:4" ht="24">
+      <c r="A124" s="21" t="s">
         <v>239</v>
       </c>
-      <c r="C119" s="21"/>
-    </row>
-    <row r="120" spans="1:3" ht="24">
-      <c r="A120" s="21" t="s">
+      <c r="B124" s="21" t="s">
+        <v>238</v>
+      </c>
+      <c r="C124" s="21"/>
+    </row>
+    <row r="125" spans="1:4" ht="24">
+      <c r="A125" s="21" t="s">
+        <v>236</v>
+      </c>
+      <c r="B125" s="21" t="s">
         <v>237</v>
       </c>
-      <c r="B120" s="21" t="s">
-        <v>238</v>
-      </c>
-      <c r="C120" s="21"/>
-    </row>
-    <row r="121" spans="1:3" ht="24">
-      <c r="A121" s="21" t="s">
+      <c r="C125" s="21"/>
+    </row>
+    <row r="126" spans="1:4" ht="24">
+      <c r="A126" s="21" t="s">
+        <v>861</v>
+      </c>
+      <c r="B126" s="21" t="s">
         <v>862</v>
       </c>
-      <c r="B121" s="21" t="s">
-        <v>863</v>
-      </c>
-      <c r="C121" s="21"/>
-    </row>
-    <row r="122" spans="1:3" ht="24">
-      <c r="A122" s="21" t="s">
+      <c r="C126" s="21"/>
+    </row>
+    <row r="127" spans="1:4" ht="24">
+      <c r="A127" s="21" t="s">
+        <v>785</v>
+      </c>
+      <c r="B127" s="21" t="s">
         <v>786</v>
       </c>
-      <c r="B122" s="21" t="s">
-        <v>787</v>
-      </c>
-      <c r="C122" s="21"/>
-    </row>
-    <row r="123" spans="1:3" ht="24">
-      <c r="A123" s="21" t="s">
-        <v>745</v>
-      </c>
-      <c r="B123" s="21" t="s">
-        <v>1000</v>
-      </c>
-      <c r="C123" s="21"/>
-    </row>
-    <row r="124" spans="1:3" ht="24">
-      <c r="A124" s="21" t="s">
-        <v>185</v>
-      </c>
-      <c r="B124" s="21" t="s">
-        <v>173</v>
-      </c>
-      <c r="C124" s="21"/>
-    </row>
-    <row r="125" spans="1:3" ht="24">
-      <c r="A125" s="21" t="s">
-        <v>210</v>
-      </c>
-      <c r="B125" s="21" t="s">
-        <v>211</v>
-      </c>
-      <c r="C125" s="21"/>
-    </row>
-    <row r="126" spans="1:3" ht="24">
-      <c r="A126" s="21" t="s">
-        <v>180</v>
-      </c>
-      <c r="B126" s="21" t="s">
-        <v>170</v>
-      </c>
-      <c r="C126" s="21"/>
-    </row>
-    <row r="127" spans="1:3" ht="24">
-      <c r="A127" s="21" t="s">
-        <v>389</v>
-      </c>
-      <c r="B127" s="21" t="s">
-        <v>401</v>
-      </c>
       <c r="C127" s="21"/>
     </row>
-    <row r="128" spans="1:3" ht="24">
+    <row r="128" spans="1:4" ht="24">
       <c r="A128" s="21" t="s">
-        <v>1169</v>
+        <v>744</v>
       </c>
       <c r="B128" s="21" t="s">
-        <v>593</v>
+        <v>999</v>
       </c>
       <c r="C128" s="21"/>
     </row>
     <row r="129" spans="1:3" ht="24">
       <c r="A129" s="21" t="s">
-        <v>799</v>
+        <v>185</v>
       </c>
       <c r="B129" s="21" t="s">
-        <v>288</v>
+        <v>173</v>
       </c>
       <c r="C129" s="21"/>
     </row>
     <row r="130" spans="1:3" ht="24">
       <c r="A130" s="21" t="s">
-        <v>1002</v>
+        <v>210</v>
       </c>
       <c r="B130" s="21" t="s">
-        <v>1003</v>
+        <v>211</v>
       </c>
       <c r="C130" s="21"/>
     </row>
     <row r="131" spans="1:3" ht="24">
       <c r="A131" s="21" t="s">
-        <v>1159</v>
+        <v>180</v>
       </c>
       <c r="B131" s="21" t="s">
-        <v>1160</v>
+        <v>170</v>
       </c>
       <c r="C131" s="21"/>
     </row>
     <row r="132" spans="1:3" ht="24">
       <c r="A132" s="21" t="s">
-        <v>166</v>
+        <v>388</v>
       </c>
       <c r="B132" s="21" t="s">
-        <v>167</v>
+        <v>400</v>
       </c>
       <c r="C132" s="21"/>
     </row>
     <row r="133" spans="1:3" ht="24">
       <c r="A133" s="21" t="s">
-        <v>410</v>
+        <v>1168</v>
       </c>
       <c r="B133" s="21" t="s">
-        <v>721</v>
+        <v>592</v>
       </c>
       <c r="C133" s="21"/>
     </row>
     <row r="134" spans="1:3" ht="24">
       <c r="A134" s="21" t="s">
-        <v>212</v>
+        <v>798</v>
       </c>
       <c r="B134" s="21" t="s">
-        <v>213</v>
+        <v>287</v>
       </c>
       <c r="C134" s="21"/>
     </row>
     <row r="135" spans="1:3" ht="24">
       <c r="A135" s="21" t="s">
-        <v>1107</v>
+        <v>1001</v>
       </c>
       <c r="B135" s="21" t="s">
-        <v>1004</v>
+        <v>1002</v>
       </c>
       <c r="C135" s="21"/>
     </row>
     <row r="136" spans="1:3" ht="24">
       <c r="A136" s="21" t="s">
-        <v>780</v>
+        <v>1158</v>
       </c>
       <c r="B136" s="21" t="s">
-        <v>781</v>
+        <v>1159</v>
       </c>
       <c r="C136" s="21"/>
     </row>
     <row r="137" spans="1:3" ht="24">
       <c r="A137" s="21" t="s">
-        <v>199</v>
+        <v>166</v>
       </c>
       <c r="B137" s="21" t="s">
-        <v>214</v>
+        <v>167</v>
       </c>
       <c r="C137" s="21"/>
     </row>
     <row r="138" spans="1:3" ht="24">
       <c r="A138" s="21" t="s">
-        <v>176</v>
+        <v>409</v>
       </c>
       <c r="B138" s="21" t="s">
-        <v>177</v>
+        <v>720</v>
       </c>
       <c r="C138" s="21"/>
     </row>
     <row r="139" spans="1:3" ht="24">
       <c r="A139" s="21" t="s">
-        <v>175</v>
+        <v>212</v>
       </c>
       <c r="B139" s="21" t="s">
-        <v>174</v>
+        <v>213</v>
       </c>
       <c r="C139" s="21"/>
     </row>
     <row r="140" spans="1:3" ht="24">
       <c r="A140" s="21" t="s">
-        <v>1322</v>
+        <v>1106</v>
       </c>
       <c r="B140" s="21" t="s">
-        <v>1323</v>
+        <v>1003</v>
       </c>
       <c r="C140" s="21"/>
     </row>
     <row r="141" spans="1:3" ht="24">
       <c r="A141" s="21" t="s">
-        <v>1326</v>
+        <v>779</v>
       </c>
       <c r="B141" s="21" t="s">
-        <v>1328</v>
-      </c>
-      <c r="C141" s="21" t="s">
-        <v>1329</v>
-      </c>
+        <v>780</v>
+      </c>
+      <c r="C141" s="21"/>
     </row>
     <row r="142" spans="1:3" ht="24">
       <c r="A142" s="21" t="s">
+        <v>199</v>
+      </c>
+      <c r="B142" s="21" t="s">
+        <v>214</v>
+      </c>
+      <c r="C142" s="21"/>
+    </row>
+    <row r="143" spans="1:3" ht="24">
+      <c r="A143" s="21" t="s">
+        <v>176</v>
+      </c>
+      <c r="B143" s="21" t="s">
+        <v>177</v>
+      </c>
+      <c r="C143" s="21"/>
+    </row>
+    <row r="144" spans="1:3" ht="24">
+      <c r="A144" s="21" t="s">
+        <v>175</v>
+      </c>
+      <c r="B144" s="21" t="s">
+        <v>174</v>
+      </c>
+      <c r="C144" s="21"/>
+    </row>
+    <row r="145" spans="1:3" ht="24">
+      <c r="A145" s="21" t="s">
+        <v>1321</v>
+      </c>
+      <c r="B145" s="21" t="s">
+        <v>1322</v>
+      </c>
+      <c r="C145" s="21"/>
+    </row>
+    <row r="146" spans="1:3" ht="24">
+      <c r="A146" s="21" t="s">
+        <v>1325</v>
+      </c>
+      <c r="B146" s="21" t="s">
         <v>1327</v>
       </c>
-      <c r="B142" s="21" t="s">
-        <v>239</v>
-      </c>
-      <c r="C142" s="21"/>
-    </row>
-    <row r="143" spans="1:3" ht="24">
-      <c r="A143" s="21"/>
-      <c r="B143" s="21"/>
-      <c r="C143" s="21"/>
-    </row>
-    <row r="144" spans="1:3" ht="24">
-      <c r="A144" s="21"/>
-      <c r="B144" s="21"/>
-      <c r="C144" s="21"/>
-    </row>
-    <row r="145" spans="1:3" ht="24">
-      <c r="A145" s="21"/>
-      <c r="B145" s="21"/>
-      <c r="C145" s="21"/>
-    </row>
-    <row r="146" spans="1:3" ht="24">
-      <c r="A146" s="21"/>
-      <c r="B146" s="21"/>
-      <c r="C146" s="21"/>
+      <c r="C146" s="21" t="s">
+        <v>1328</v>
+      </c>
     </row>
     <row r="147" spans="1:3" ht="24">
-      <c r="A147" s="21"/>
-      <c r="B147" s="21"/>
+      <c r="A147" s="21" t="s">
+        <v>1326</v>
+      </c>
+      <c r="B147" s="21" t="s">
+        <v>238</v>
+      </c>
       <c r="C147" s="21"/>
     </row>
     <row r="148" spans="1:3" ht="24">
@@ -11988,7 +12082,7 @@
     <row r="150" spans="1:3" ht="24">
       <c r="A150" s="21"/>
       <c r="B150" s="21"/>
-      <c r="C150" s="9"/>
+      <c r="C150" s="21"/>
     </row>
     <row r="151" spans="1:3" ht="24">
       <c r="A151" s="21"/>
@@ -12013,7 +12107,7 @@
     <row r="155" spans="1:3" ht="24">
       <c r="A155" s="21"/>
       <c r="B155" s="21"/>
-      <c r="C155" s="21"/>
+      <c r="C155" s="9"/>
     </row>
     <row r="156" spans="1:3" ht="24">
       <c r="A156" s="21"/>
@@ -12078,7 +12172,7 @@
     <row r="168" spans="1:3" ht="24">
       <c r="A168" s="21"/>
       <c r="B168" s="21"/>
-      <c r="C168" s="23"/>
+      <c r="C168" s="21"/>
     </row>
     <row r="169" spans="1:3" ht="24">
       <c r="A169" s="21"/>
@@ -12093,7 +12187,7 @@
     <row r="171" spans="1:3" ht="24">
       <c r="A171" s="21"/>
       <c r="B171" s="21"/>
-      <c r="C171" s="9"/>
+      <c r="C171" s="21"/>
     </row>
     <row r="172" spans="1:3" ht="24">
       <c r="A172" s="21"/>
@@ -12103,7 +12197,7 @@
     <row r="173" spans="1:3" ht="24">
       <c r="A173" s="21"/>
       <c r="B173" s="21"/>
-      <c r="C173" s="21"/>
+      <c r="C173" s="23"/>
     </row>
     <row r="174" spans="1:3" ht="24">
       <c r="A174" s="21"/>
@@ -12118,7 +12212,7 @@
     <row r="176" spans="1:3" ht="24">
       <c r="A176" s="21"/>
       <c r="B176" s="21"/>
-      <c r="C176" s="21"/>
+      <c r="C176" s="9"/>
     </row>
     <row r="177" spans="1:3" ht="24">
       <c r="A177" s="21"/>
@@ -12203,7 +12297,7 @@
     <row r="193" spans="1:3" ht="24">
       <c r="A193" s="21"/>
       <c r="B193" s="21"/>
-      <c r="C193" s="9"/>
+      <c r="C193" s="21"/>
     </row>
     <row r="194" spans="1:3" ht="24">
       <c r="A194" s="21"/>
@@ -12228,7 +12322,7 @@
     <row r="198" spans="1:3" ht="24">
       <c r="A198" s="21"/>
       <c r="B198" s="21"/>
-      <c r="C198" s="21"/>
+      <c r="C198" s="9"/>
     </row>
     <row r="199" spans="1:3" ht="24">
       <c r="A199" s="21"/>
@@ -12238,7 +12332,7 @@
     <row r="200" spans="1:3" ht="24">
       <c r="A200" s="21"/>
       <c r="B200" s="21"/>
-      <c r="C200" s="9"/>
+      <c r="C200" s="21"/>
     </row>
     <row r="201" spans="1:3" ht="24">
       <c r="A201" s="21"/>
@@ -12263,7 +12357,7 @@
     <row r="205" spans="1:3" ht="24">
       <c r="A205" s="21"/>
       <c r="B205" s="21"/>
-      <c r="C205" s="21"/>
+      <c r="C205" s="9"/>
     </row>
     <row r="206" spans="1:3" ht="24">
       <c r="A206" s="21"/>
@@ -12293,7 +12387,7 @@
     <row r="211" spans="1:3" ht="24">
       <c r="A211" s="21"/>
       <c r="B211" s="21"/>
-      <c r="C211" s="23"/>
+      <c r="C211" s="21"/>
     </row>
     <row r="212" spans="1:3" ht="24">
       <c r="A212" s="21"/>
@@ -12318,12 +12412,12 @@
     <row r="216" spans="1:3" ht="24">
       <c r="A216" s="21"/>
       <c r="B216" s="21"/>
-      <c r="C216" s="9"/>
+      <c r="C216" s="23"/>
     </row>
     <row r="217" spans="1:3" ht="24">
       <c r="A217" s="21"/>
       <c r="B217" s="21"/>
-      <c r="C217" s="23"/>
+      <c r="C217" s="21"/>
     </row>
     <row r="218" spans="1:3" ht="24">
       <c r="A218" s="21"/>
@@ -12338,17 +12432,17 @@
     <row r="220" spans="1:3" ht="24">
       <c r="A220" s="21"/>
       <c r="B220" s="21"/>
-      <c r="C220" s="23"/>
+      <c r="C220" s="21"/>
     </row>
     <row r="221" spans="1:3" ht="24">
       <c r="A221" s="21"/>
       <c r="B221" s="21"/>
-      <c r="C221" s="21"/>
+      <c r="C221" s="9"/>
     </row>
     <row r="222" spans="1:3" ht="24">
       <c r="A222" s="21"/>
       <c r="B222" s="21"/>
-      <c r="C222" s="21"/>
+      <c r="C222" s="23"/>
     </row>
     <row r="223" spans="1:3" ht="24">
       <c r="A223" s="21"/>
@@ -12363,7 +12457,7 @@
     <row r="225" spans="1:3" ht="24">
       <c r="A225" s="21"/>
       <c r="B225" s="21"/>
-      <c r="C225" s="21"/>
+      <c r="C225" s="23"/>
     </row>
     <row r="226" spans="1:3" ht="24">
       <c r="A226" s="21"/>
@@ -12403,7 +12497,7 @@
     <row r="233" spans="1:3" ht="24">
       <c r="A233" s="21"/>
       <c r="B233" s="21"/>
-      <c r="C233" s="23"/>
+      <c r="C233" s="21"/>
     </row>
     <row r="234" spans="1:3" ht="24">
       <c r="A234" s="21"/>
@@ -12428,7 +12522,7 @@
     <row r="238" spans="1:3" ht="24">
       <c r="A238" s="21"/>
       <c r="B238" s="21"/>
-      <c r="C238" s="21"/>
+      <c r="C238" s="23"/>
     </row>
     <row r="239" spans="1:3" ht="24">
       <c r="A239" s="21"/>
@@ -12525,9 +12619,34 @@
       <c r="B257" s="21"/>
       <c r="C257" s="21"/>
     </row>
+    <row r="258" spans="1:3" ht="24">
+      <c r="A258" s="21"/>
+      <c r="B258" s="21"/>
+      <c r="C258" s="21"/>
+    </row>
+    <row r="259" spans="1:3" ht="24">
+      <c r="A259" s="21"/>
+      <c r="B259" s="21"/>
+      <c r="C259" s="21"/>
+    </row>
+    <row r="260" spans="1:3" ht="24">
+      <c r="A260" s="21"/>
+      <c r="B260" s="21"/>
+      <c r="C260" s="21"/>
+    </row>
+    <row r="261" spans="1:3" ht="24">
+      <c r="A261" s="21"/>
+      <c r="B261" s="21"/>
+      <c r="C261" s="21"/>
+    </row>
+    <row r="262" spans="1:3" ht="24">
+      <c r="A262" s="21"/>
+      <c r="B262" s="21"/>
+      <c r="C262" s="21"/>
+    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A5:C257">
-    <sortCondition ref="A5:A257"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A5:C262">
+    <sortCondition ref="A5:A262"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -12552,7 +12671,7 @@
   <sheetData>
     <row r="2" spans="1:3" ht="31">
       <c r="A2" s="16" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B2" s="9"/>
       <c r="C2" s="9"/>
@@ -12570,170 +12689,170 @@
         <v>78</v>
       </c>
       <c r="C4" s="22" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="24">
       <c r="A5" s="21" t="s">
+        <v>1335</v>
+      </c>
+      <c r="B5" s="21" t="s">
         <v>1336</v>
-      </c>
-      <c r="B5" s="21" t="s">
-        <v>1337</v>
       </c>
       <c r="C5" s="22"/>
     </row>
     <row r="6" spans="1:3" ht="24">
       <c r="A6" s="21" t="s">
+        <v>329</v>
+      </c>
+      <c r="B6" s="21" t="s">
         <v>330</v>
-      </c>
-      <c r="B6" s="21" t="s">
-        <v>331</v>
       </c>
       <c r="C6" s="21"/>
     </row>
     <row r="7" spans="1:3" ht="24">
       <c r="A7" s="21" t="s">
-        <v>1354</v>
+        <v>1353</v>
       </c>
       <c r="B7" s="21" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C7" s="21"/>
     </row>
     <row r="8" spans="1:3" ht="24">
       <c r="A8" s="21" t="s">
+        <v>1354</v>
+      </c>
+      <c r="B8" s="21" t="s">
         <v>1355</v>
-      </c>
-      <c r="B8" s="21" t="s">
-        <v>1356</v>
       </c>
       <c r="C8" s="21"/>
     </row>
     <row r="9" spans="1:3" ht="24">
       <c r="A9" s="21" t="s">
+        <v>339</v>
+      </c>
+      <c r="B9" s="21" t="s">
         <v>340</v>
-      </c>
-      <c r="B9" s="21" t="s">
-        <v>341</v>
       </c>
       <c r="C9" s="21"/>
     </row>
     <row r="10" spans="1:3" ht="24">
       <c r="A10" s="21" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B10" s="21" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C10" s="21"/>
     </row>
     <row r="11" spans="1:3" ht="24">
       <c r="A11" s="21" t="s">
+        <v>341</v>
+      </c>
+      <c r="B11" s="21" t="s">
         <v>342</v>
-      </c>
-      <c r="B11" s="21" t="s">
-        <v>343</v>
       </c>
       <c r="C11" s="21"/>
     </row>
     <row r="12" spans="1:3" ht="24">
       <c r="A12" s="21" t="s">
+        <v>323</v>
+      </c>
+      <c r="B12" s="21" t="s">
         <v>324</v>
-      </c>
-      <c r="B12" s="21" t="s">
-        <v>325</v>
       </c>
       <c r="C12" s="21"/>
     </row>
     <row r="13" spans="1:3" ht="24">
       <c r="A13" s="21" t="s">
+        <v>278</v>
+      </c>
+      <c r="B13" s="21" t="s">
         <v>279</v>
-      </c>
-      <c r="B13" s="21" t="s">
-        <v>280</v>
       </c>
       <c r="C13" s="21"/>
     </row>
     <row r="14" spans="1:3" ht="24">
       <c r="A14" s="21" t="s">
+        <v>1359</v>
+      </c>
+      <c r="B14" s="21" t="s">
         <v>1360</v>
-      </c>
-      <c r="B14" s="21" t="s">
-        <v>1361</v>
       </c>
       <c r="C14" s="21"/>
     </row>
     <row r="15" spans="1:3" ht="24">
       <c r="A15" s="21" t="s">
+        <v>1356</v>
+      </c>
+      <c r="B15" s="21" t="s">
         <v>1357</v>
       </c>
-      <c r="B15" s="21" t="s">
+      <c r="C15" s="21" t="s">
         <v>1358</v>
-      </c>
-      <c r="C15" s="21" t="s">
-        <v>1359</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="24">
       <c r="A16" s="21" t="s">
+        <v>1361</v>
+      </c>
+      <c r="B16" s="21" t="s">
         <v>1362</v>
-      </c>
-      <c r="B16" s="21" t="s">
-        <v>1363</v>
       </c>
       <c r="C16" s="21"/>
     </row>
     <row r="17" spans="1:3" ht="24">
       <c r="A17" s="21" t="s">
-        <v>1364</v>
+        <v>1363</v>
       </c>
       <c r="B17" s="21" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C17" s="21"/>
     </row>
     <row r="18" spans="1:3" ht="24">
       <c r="A18" s="21" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="B18" s="21" t="s">
-        <v>1365</v>
+        <v>1364</v>
       </c>
       <c r="C18" s="21"/>
     </row>
     <row r="19" spans="1:3" ht="24">
       <c r="A19" s="21" t="s">
+        <v>1365</v>
+      </c>
+      <c r="B19" s="21" t="s">
         <v>1366</v>
-      </c>
-      <c r="B19" s="21" t="s">
-        <v>1367</v>
       </c>
       <c r="C19" s="21"/>
     </row>
     <row r="20" spans="1:3" ht="24">
       <c r="A20" s="21" t="s">
+        <v>1367</v>
+      </c>
+      <c r="B20" s="21" t="s">
         <v>1368</v>
-      </c>
-      <c r="B20" s="21" t="s">
-        <v>1369</v>
       </c>
       <c r="C20" s="21"/>
     </row>
     <row r="21" spans="1:3" ht="24">
       <c r="A21" s="21" t="s">
+        <v>1369</v>
+      </c>
+      <c r="B21" s="21" t="s">
         <v>1370</v>
-      </c>
-      <c r="B21" s="21" t="s">
-        <v>1371</v>
       </c>
       <c r="C21" s="21"/>
     </row>
     <row r="22" spans="1:3" ht="24">
       <c r="A22" s="21" t="s">
+        <v>1371</v>
+      </c>
+      <c r="B22" s="21" t="s">
         <v>1372</v>
-      </c>
-      <c r="B22" s="21" t="s">
-        <v>1373</v>
       </c>
       <c r="C22" s="21"/>
     </row>
@@ -12742,127 +12861,127 @@
         <v>189</v>
       </c>
       <c r="B23" s="21" t="s">
-        <v>1374</v>
+        <v>1373</v>
       </c>
       <c r="C23" s="21"/>
     </row>
     <row r="24" spans="1:3" ht="24">
       <c r="A24" s="21" t="s">
+        <v>321</v>
+      </c>
+      <c r="B24" s="21" t="s">
         <v>322</v>
-      </c>
-      <c r="B24" s="21" t="s">
-        <v>323</v>
       </c>
       <c r="C24" s="21"/>
     </row>
     <row r="25" spans="1:3" ht="24">
       <c r="A25" s="21" t="s">
-        <v>1375</v>
+        <v>1374</v>
       </c>
       <c r="B25" s="21" t="s">
-        <v>1377</v>
+        <v>1376</v>
       </c>
       <c r="C25" s="21"/>
     </row>
     <row r="26" spans="1:3" ht="24">
       <c r="A26" s="21" t="s">
+        <v>1378</v>
+      </c>
+      <c r="B26" s="21" t="s">
         <v>1379</v>
-      </c>
-      <c r="B26" s="21" t="s">
-        <v>1380</v>
       </c>
       <c r="C26" s="21"/>
     </row>
     <row r="27" spans="1:3" ht="24">
       <c r="A27" s="21" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="B27" s="21" t="s">
-        <v>1381</v>
+        <v>1380</v>
       </c>
       <c r="C27" s="21"/>
     </row>
     <row r="28" spans="1:3" ht="24">
       <c r="A28" s="21" t="s">
-        <v>1376</v>
+        <v>1375</v>
       </c>
       <c r="B28" s="21" t="s">
-        <v>1378</v>
+        <v>1377</v>
       </c>
       <c r="C28" s="21"/>
     </row>
     <row r="29" spans="1:3" ht="24">
       <c r="A29" s="21" t="s">
+        <v>270</v>
+      </c>
+      <c r="B29" s="21" t="s">
         <v>271</v>
-      </c>
-      <c r="B29" s="21" t="s">
-        <v>272</v>
       </c>
       <c r="C29" s="21"/>
     </row>
     <row r="30" spans="1:3" ht="24">
       <c r="A30" s="21" t="s">
+        <v>276</v>
+      </c>
+      <c r="B30" s="21" t="s">
         <v>277</v>
-      </c>
-      <c r="B30" s="21" t="s">
-        <v>278</v>
       </c>
       <c r="C30" s="21"/>
     </row>
     <row r="31" spans="1:3" ht="24">
       <c r="A31" s="21" t="s">
+        <v>1381</v>
+      </c>
+      <c r="B31" s="21" t="s">
         <v>1382</v>
-      </c>
-      <c r="B31" s="21" t="s">
-        <v>1383</v>
       </c>
       <c r="C31" s="21"/>
     </row>
     <row r="32" spans="1:3" ht="24">
       <c r="A32" s="21" t="s">
+        <v>1383</v>
+      </c>
+      <c r="B32" s="21" t="s">
         <v>1384</v>
-      </c>
-      <c r="B32" s="21" t="s">
-        <v>1385</v>
       </c>
       <c r="C32" s="21"/>
     </row>
     <row r="33" spans="1:3" ht="24">
       <c r="A33" s="21" t="s">
-        <v>1386</v>
+        <v>1385</v>
       </c>
       <c r="B33" s="21" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="C33" s="21"/>
     </row>
     <row r="34" spans="1:3" ht="24">
       <c r="A34" s="21" t="s">
+        <v>1337</v>
+      </c>
+      <c r="B34" s="21" t="s">
         <v>1338</v>
-      </c>
-      <c r="B34" s="21" t="s">
-        <v>1339</v>
       </c>
       <c r="C34" s="21"/>
     </row>
     <row r="35" spans="1:3" ht="24">
       <c r="A35" s="21" t="s">
+        <v>1386</v>
+      </c>
+      <c r="B35" s="21" t="s">
         <v>1387</v>
-      </c>
-      <c r="B35" s="21" t="s">
-        <v>1388</v>
       </c>
       <c r="C35" s="21"/>
     </row>
     <row r="36" spans="1:3" ht="24">
       <c r="A36" s="21" t="s">
+        <v>288</v>
+      </c>
+      <c r="B36" s="21" t="s">
         <v>289</v>
       </c>
-      <c r="B36" s="21" t="s">
-        <v>290</v>
-      </c>
       <c r="C36" s="21" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="24">
@@ -12870,105 +12989,105 @@
         <v>200</v>
       </c>
       <c r="B37" s="21" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C37" s="21"/>
     </row>
     <row r="38" spans="1:3" ht="24">
       <c r="A38" s="21" t="s">
+        <v>327</v>
+      </c>
+      <c r="B38" s="21" t="s">
         <v>328</v>
-      </c>
-      <c r="B38" s="21" t="s">
-        <v>329</v>
       </c>
       <c r="C38" s="21"/>
     </row>
     <row r="39" spans="1:3" ht="24">
       <c r="A39" s="21" t="s">
+        <v>1388</v>
+      </c>
+      <c r="B39" s="21" t="s">
         <v>1389</v>
-      </c>
-      <c r="B39" s="21" t="s">
-        <v>1390</v>
       </c>
       <c r="C39" s="21"/>
     </row>
     <row r="40" spans="1:3" ht="24">
       <c r="A40" s="21" t="s">
+        <v>1390</v>
+      </c>
+      <c r="B40" s="21" t="s">
         <v>1391</v>
-      </c>
-      <c r="B40" s="21" t="s">
-        <v>1392</v>
       </c>
       <c r="C40" s="21"/>
     </row>
     <row r="41" spans="1:3" ht="24">
       <c r="A41" s="21" t="s">
+        <v>1333</v>
+      </c>
+      <c r="B41" s="21" t="s">
         <v>1334</v>
-      </c>
-      <c r="B41" s="21" t="s">
-        <v>1335</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="24">
       <c r="A42" s="21" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
       <c r="B42" s="21" t="s">
-        <v>1393</v>
+        <v>1392</v>
       </c>
       <c r="C42" s="21"/>
     </row>
     <row r="43" spans="1:3" ht="24">
       <c r="A43" s="21" t="s">
+        <v>290</v>
+      </c>
+      <c r="B43" s="21" t="s">
         <v>291</v>
-      </c>
-      <c r="B43" s="21" t="s">
-        <v>292</v>
       </c>
       <c r="C43" s="21"/>
     </row>
     <row r="44" spans="1:3" ht="24">
       <c r="A44" s="21" t="s">
+        <v>1393</v>
+      </c>
+      <c r="B44" s="21" t="s">
         <v>1394</v>
-      </c>
-      <c r="B44" s="21" t="s">
-        <v>1395</v>
       </c>
       <c r="C44" s="21"/>
     </row>
     <row r="45" spans="1:3" ht="24">
       <c r="A45" s="21" t="s">
+        <v>1395</v>
+      </c>
+      <c r="B45" s="21" t="s">
         <v>1396</v>
-      </c>
-      <c r="B45" s="21" t="s">
-        <v>1397</v>
       </c>
       <c r="C45" s="21"/>
     </row>
     <row r="46" spans="1:3" ht="24">
       <c r="A46" s="21" t="s">
+        <v>307</v>
+      </c>
+      <c r="B46" s="21" t="s">
         <v>308</v>
-      </c>
-      <c r="B46" s="21" t="s">
-        <v>309</v>
       </c>
       <c r="C46" s="21"/>
     </row>
     <row r="47" spans="1:3" ht="24">
       <c r="A47" s="21" t="s">
+        <v>1397</v>
+      </c>
+      <c r="B47" s="21" t="s">
         <v>1398</v>
-      </c>
-      <c r="B47" s="21" t="s">
-        <v>1399</v>
       </c>
       <c r="C47" s="21"/>
     </row>
     <row r="48" spans="1:3" ht="24">
       <c r="A48" s="21" t="s">
+        <v>1331</v>
+      </c>
+      <c r="B48" s="21" t="s">
         <v>1332</v>
-      </c>
-      <c r="B48" s="21" t="s">
-        <v>1333</v>
       </c>
       <c r="C48" s="21"/>
     </row>
@@ -12977,173 +13096,173 @@
         <v>207</v>
       </c>
       <c r="B49" s="21" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C49" s="21"/>
     </row>
     <row r="50" spans="1:3" ht="24">
       <c r="A50" s="21" t="s">
+        <v>1399</v>
+      </c>
+      <c r="B50" s="21" t="s">
         <v>1400</v>
-      </c>
-      <c r="B50" s="21" t="s">
-        <v>1401</v>
       </c>
       <c r="C50" s="21"/>
     </row>
     <row r="51" spans="1:3" ht="24">
       <c r="A51" s="21" t="s">
+        <v>274</v>
+      </c>
+      <c r="B51" s="21" t="s">
         <v>275</v>
-      </c>
-      <c r="B51" s="21" t="s">
-        <v>276</v>
       </c>
       <c r="C51" s="21"/>
     </row>
     <row r="52" spans="1:3" ht="24">
       <c r="A52" s="21" t="s">
+        <v>1401</v>
+      </c>
+      <c r="B52" s="21" t="s">
         <v>1402</v>
       </c>
-      <c r="B52" s="21" t="s">
+      <c r="C52" s="21" t="s">
         <v>1403</v>
-      </c>
-      <c r="C52" s="21" t="s">
-        <v>1404</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="24">
       <c r="A53" s="21" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="B53" s="21" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="C53" s="21"/>
     </row>
     <row r="54" spans="1:3" ht="24">
       <c r="A54" s="21" t="s">
+        <v>1404</v>
+      </c>
+      <c r="B54" s="21" t="s">
         <v>1405</v>
-      </c>
-      <c r="B54" s="21" t="s">
-        <v>1406</v>
       </c>
       <c r="C54" s="21"/>
     </row>
     <row r="55" spans="1:3" ht="24">
       <c r="A55" s="21" t="s">
+        <v>950</v>
+      </c>
+      <c r="B55" s="21" t="s">
         <v>951</v>
-      </c>
-      <c r="B55" s="21" t="s">
-        <v>952</v>
       </c>
       <c r="C55" s="21"/>
     </row>
     <row r="56" spans="1:3" ht="24">
       <c r="A56" s="21" t="s">
+        <v>1406</v>
+      </c>
+      <c r="B56" s="21" t="s">
         <v>1407</v>
-      </c>
-      <c r="B56" s="21" t="s">
-        <v>1408</v>
       </c>
       <c r="C56" s="21"/>
     </row>
     <row r="57" spans="1:3" ht="24">
       <c r="A57" s="21" t="s">
+        <v>958</v>
+      </c>
+      <c r="B57" s="21" t="s">
         <v>959</v>
-      </c>
-      <c r="B57" s="21" t="s">
-        <v>960</v>
       </c>
       <c r="C57" s="21"/>
     </row>
     <row r="58" spans="1:3" ht="24">
       <c r="A58" s="21" t="s">
+        <v>956</v>
+      </c>
+      <c r="B58" s="21" t="s">
         <v>957</v>
-      </c>
-      <c r="B58" s="21" t="s">
-        <v>958</v>
       </c>
       <c r="C58" s="21"/>
     </row>
     <row r="59" spans="1:3" ht="24">
       <c r="A59" s="21" t="s">
+        <v>334</v>
+      </c>
+      <c r="B59" s="21" t="s">
         <v>335</v>
-      </c>
-      <c r="B59" s="21" t="s">
-        <v>336</v>
       </c>
       <c r="C59" s="21"/>
     </row>
     <row r="60" spans="1:3" ht="24">
       <c r="A60" s="21" t="s">
+        <v>284</v>
+      </c>
+      <c r="B60" s="21" t="s">
         <v>285</v>
-      </c>
-      <c r="B60" s="21" t="s">
-        <v>286</v>
       </c>
       <c r="C60" s="21"/>
     </row>
     <row r="61" spans="1:3" ht="24">
       <c r="A61" s="21" t="s">
+        <v>332</v>
+      </c>
+      <c r="B61" s="21" t="s">
         <v>333</v>
-      </c>
-      <c r="B61" s="21" t="s">
-        <v>334</v>
       </c>
       <c r="C61" s="21"/>
     </row>
     <row r="62" spans="1:3" ht="24">
       <c r="A62" s="21" t="s">
+        <v>962</v>
+      </c>
+      <c r="B62" s="21" t="s">
         <v>963</v>
-      </c>
-      <c r="B62" s="21" t="s">
-        <v>964</v>
       </c>
       <c r="C62" s="21"/>
     </row>
     <row r="63" spans="1:3" ht="24">
       <c r="A63" s="21" t="s">
+        <v>952</v>
+      </c>
+      <c r="B63" s="21" t="s">
         <v>953</v>
       </c>
-      <c r="B63" s="21" t="s">
-        <v>954</v>
-      </c>
       <c r="C63" s="21" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="64" spans="1:3" ht="24">
       <c r="A64" s="21" t="s">
+        <v>345</v>
+      </c>
+      <c r="B64" s="21" t="s">
         <v>346</v>
-      </c>
-      <c r="B64" s="21" t="s">
-        <v>347</v>
       </c>
       <c r="C64" s="21"/>
     </row>
     <row r="65" spans="1:3" ht="24">
       <c r="A65" s="21" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B65" s="21" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C65" s="21"/>
     </row>
     <row r="66" spans="1:3" ht="24">
       <c r="A66" s="21" t="s">
+        <v>960</v>
+      </c>
+      <c r="B66" s="21" t="s">
         <v>961</v>
-      </c>
-      <c r="B66" s="21" t="s">
-        <v>962</v>
       </c>
       <c r="C66" s="21"/>
     </row>
     <row r="67" spans="1:3" ht="24">
       <c r="A67" s="21" t="s">
-        <v>1446</v>
+        <v>1445</v>
       </c>
       <c r="B67" s="21" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C67" s="21"/>
     </row>
@@ -13158,115 +13277,115 @@
     </row>
     <row r="69" spans="1:3" ht="24">
       <c r="A69" s="21" t="s">
+        <v>1351</v>
+      </c>
+      <c r="B69" s="21" t="s">
         <v>1352</v>
-      </c>
-      <c r="B69" s="21" t="s">
-        <v>1353</v>
       </c>
       <c r="C69" s="21"/>
     </row>
     <row r="70" spans="1:3" ht="24">
       <c r="A70" s="21" t="s">
+        <v>1408</v>
+      </c>
+      <c r="B70" s="21" t="s">
         <v>1409</v>
-      </c>
-      <c r="B70" s="21" t="s">
-        <v>1410</v>
       </c>
       <c r="C70" s="21"/>
     </row>
     <row r="71" spans="1:3" ht="24">
       <c r="A71" s="21" t="s">
+        <v>319</v>
+      </c>
+      <c r="B71" s="21" t="s">
         <v>320</v>
-      </c>
-      <c r="B71" s="21" t="s">
-        <v>321</v>
       </c>
       <c r="C71" s="21"/>
     </row>
     <row r="72" spans="1:3" ht="24">
       <c r="A72" s="21" t="s">
+        <v>1410</v>
+      </c>
+      <c r="B72" s="21" t="s">
         <v>1411</v>
-      </c>
-      <c r="B72" s="21" t="s">
-        <v>1412</v>
       </c>
       <c r="C72" s="21"/>
     </row>
     <row r="73" spans="1:3" ht="24">
       <c r="A73" s="21" t="s">
+        <v>1412</v>
+      </c>
+      <c r="B73" s="21" t="s">
         <v>1413</v>
-      </c>
-      <c r="B73" s="21" t="s">
-        <v>1414</v>
       </c>
       <c r="C73" s="21"/>
     </row>
     <row r="74" spans="1:3" ht="24">
       <c r="A74" s="21" t="s">
+        <v>1340</v>
+      </c>
+      <c r="B74" s="21" t="s">
         <v>1341</v>
-      </c>
-      <c r="B74" s="21" t="s">
-        <v>1342</v>
       </c>
       <c r="C74" s="21"/>
     </row>
     <row r="75" spans="1:3" ht="24">
       <c r="A75" s="21" t="s">
+        <v>1414</v>
+      </c>
+      <c r="B75" s="21" t="s">
         <v>1415</v>
-      </c>
-      <c r="B75" s="21" t="s">
-        <v>1416</v>
       </c>
       <c r="C75" s="21"/>
     </row>
     <row r="76" spans="1:3" ht="24">
       <c r="A76" s="21" t="s">
+        <v>1416</v>
+      </c>
+      <c r="B76" s="21" t="s">
         <v>1417</v>
-      </c>
-      <c r="B76" s="21" t="s">
-        <v>1418</v>
       </c>
       <c r="C76" s="21"/>
     </row>
     <row r="77" spans="1:3" ht="24">
       <c r="A77" s="21" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="B77" s="21" t="s">
-        <v>1340</v>
+        <v>1339</v>
       </c>
       <c r="C77" s="21"/>
     </row>
     <row r="78" spans="1:3" ht="24">
       <c r="A78" s="21" t="s">
-        <v>1181</v>
+        <v>1180</v>
       </c>
       <c r="B78" s="21" t="s">
-        <v>1420</v>
+        <v>1419</v>
       </c>
       <c r="C78" s="21"/>
     </row>
     <row r="79" spans="1:3" ht="24">
       <c r="A79" s="21" t="s">
+        <v>1420</v>
+      </c>
+      <c r="B79" s="21" t="s">
         <v>1421</v>
-      </c>
-      <c r="B79" s="21" t="s">
-        <v>1422</v>
       </c>
       <c r="C79" s="21"/>
     </row>
     <row r="80" spans="1:3" ht="24">
       <c r="A80" s="21" t="s">
+        <v>1342</v>
+      </c>
+      <c r="B80" s="21" t="s">
         <v>1343</v>
-      </c>
-      <c r="B80" s="21" t="s">
-        <v>1344</v>
       </c>
       <c r="C80" s="21"/>
     </row>
     <row r="81" spans="1:3" ht="24">
       <c r="A81" s="21" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
       <c r="B81" s="21" t="s">
         <v>232</v>
@@ -13275,235 +13394,235 @@
     </row>
     <row r="82" spans="1:3" ht="24">
       <c r="A82" s="21" t="s">
+        <v>316</v>
+      </c>
+      <c r="B82" s="21" t="s">
         <v>317</v>
-      </c>
-      <c r="B82" s="21" t="s">
-        <v>318</v>
       </c>
       <c r="C82" s="21"/>
     </row>
     <row r="83" spans="1:3" ht="24">
       <c r="A83" s="21" t="s">
-        <v>1189</v>
+        <v>1188</v>
       </c>
       <c r="B83" s="21" t="s">
-        <v>1423</v>
+        <v>1422</v>
       </c>
       <c r="C83" s="21"/>
     </row>
     <row r="84" spans="1:3" ht="24">
       <c r="A84" s="21" t="s">
+        <v>954</v>
+      </c>
+      <c r="B84" s="21" t="s">
         <v>955</v>
-      </c>
-      <c r="B84" s="21" t="s">
-        <v>956</v>
       </c>
       <c r="C84" s="21"/>
     </row>
     <row r="85" spans="1:3" ht="24">
       <c r="A85" s="21" t="s">
+        <v>1344</v>
+      </c>
+      <c r="B85" s="21" t="s">
         <v>1345</v>
-      </c>
-      <c r="B85" s="21" t="s">
-        <v>1346</v>
       </c>
       <c r="C85" s="21"/>
     </row>
     <row r="86" spans="1:3" ht="24">
       <c r="A86" s="21" t="s">
+        <v>311</v>
+      </c>
+      <c r="B86" s="21" t="s">
         <v>312</v>
-      </c>
-      <c r="B86" s="21" t="s">
-        <v>313</v>
       </c>
       <c r="C86" s="21"/>
     </row>
     <row r="87" spans="1:3" ht="24">
       <c r="A87" s="21" t="s">
+        <v>309</v>
+      </c>
+      <c r="B87" s="21" t="s">
         <v>310</v>
-      </c>
-      <c r="B87" s="21" t="s">
-        <v>311</v>
       </c>
       <c r="C87" s="21"/>
     </row>
     <row r="88" spans="1:3" ht="24">
       <c r="A88" s="21" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
       <c r="B88" s="21" t="s">
-        <v>1424</v>
+        <v>1423</v>
       </c>
       <c r="C88" s="21"/>
     </row>
     <row r="89" spans="1:3" ht="24">
       <c r="A89" s="21" t="s">
+        <v>1424</v>
+      </c>
+      <c r="B89" s="21" t="s">
         <v>1425</v>
-      </c>
-      <c r="B89" s="21" t="s">
-        <v>1426</v>
       </c>
       <c r="C89" s="21"/>
     </row>
     <row r="90" spans="1:3" ht="24">
       <c r="A90" s="21" t="s">
+        <v>314</v>
+      </c>
+      <c r="B90" s="21" t="s">
         <v>315</v>
-      </c>
-      <c r="B90" s="21" t="s">
-        <v>316</v>
       </c>
       <c r="C90" s="21"/>
     </row>
     <row r="91" spans="1:3" ht="24">
       <c r="A91" s="21" t="s">
+        <v>1426</v>
+      </c>
+      <c r="B91" s="21" t="s">
         <v>1427</v>
-      </c>
-      <c r="B91" s="21" t="s">
-        <v>1428</v>
       </c>
       <c r="C91" s="21"/>
     </row>
     <row r="92" spans="1:3" ht="24">
       <c r="A92" s="21" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="B92" s="21" t="s">
-        <v>1429</v>
+        <v>1428</v>
       </c>
       <c r="C92" s="21"/>
     </row>
     <row r="93" spans="1:3" ht="24">
       <c r="A93" s="21" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B93" s="21" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C93" s="21"/>
     </row>
     <row r="94" spans="1:3" ht="24">
       <c r="A94" s="21" t="s">
+        <v>1429</v>
+      </c>
+      <c r="B94" s="21" t="s">
         <v>1430</v>
-      </c>
-      <c r="B94" s="21" t="s">
-        <v>1431</v>
       </c>
       <c r="C94" s="21"/>
     </row>
     <row r="95" spans="1:3" ht="24">
       <c r="A95" s="21" t="s">
-        <v>1432</v>
+        <v>1431</v>
       </c>
       <c r="B95" s="21" t="s">
-        <v>1436</v>
+        <v>1435</v>
       </c>
       <c r="C95" s="21"/>
     </row>
     <row r="96" spans="1:3" ht="24">
       <c r="A96" s="21" t="s">
+        <v>1433</v>
+      </c>
+      <c r="B96" s="21" t="s">
         <v>1434</v>
-      </c>
-      <c r="B96" s="21" t="s">
-        <v>1435</v>
       </c>
       <c r="C96" s="21"/>
     </row>
     <row r="97" spans="1:3" ht="24">
       <c r="A97" s="21" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="B97" s="21" t="s">
-        <v>1433</v>
+        <v>1432</v>
       </c>
       <c r="C97" s="21"/>
     </row>
     <row r="98" spans="1:3" ht="24">
       <c r="A98" s="21" t="s">
+        <v>1436</v>
+      </c>
+      <c r="B98" s="21" t="s">
         <v>1437</v>
-      </c>
-      <c r="B98" s="21" t="s">
-        <v>1438</v>
       </c>
       <c r="C98" s="21"/>
     </row>
     <row r="99" spans="1:3" ht="24">
       <c r="A99" s="21" t="s">
+        <v>325</v>
+      </c>
+      <c r="B99" s="21" t="s">
         <v>326</v>
-      </c>
-      <c r="B99" s="21" t="s">
-        <v>327</v>
       </c>
       <c r="C99" s="21"/>
     </row>
     <row r="100" spans="1:3" ht="24">
       <c r="A100" s="21" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="B100" s="21" t="s">
-        <v>1439</v>
+        <v>1438</v>
       </c>
       <c r="C100" s="21"/>
     </row>
     <row r="101" spans="1:3" ht="24">
       <c r="A101" s="21" t="s">
+        <v>1439</v>
+      </c>
+      <c r="B101" s="21" t="s">
         <v>1440</v>
-      </c>
-      <c r="B101" s="21" t="s">
-        <v>1441</v>
       </c>
       <c r="C101" s="21"/>
     </row>
     <row r="102" spans="1:3" ht="24">
       <c r="A102" s="21" t="s">
+        <v>1441</v>
+      </c>
+      <c r="B102" s="21" t="s">
         <v>1442</v>
-      </c>
-      <c r="B102" s="21" t="s">
-        <v>1443</v>
       </c>
       <c r="C102" s="21"/>
     </row>
     <row r="103" spans="1:3" ht="24">
       <c r="A103" s="21" t="s">
+        <v>1443</v>
+      </c>
+      <c r="B103" s="21" t="s">
         <v>1444</v>
-      </c>
-      <c r="B103" s="21" t="s">
-        <v>1445</v>
       </c>
       <c r="C103" s="21"/>
     </row>
     <row r="104" spans="1:3" ht="24">
       <c r="A104" s="21" t="s">
+        <v>280</v>
+      </c>
+      <c r="B104" s="21" t="s">
         <v>281</v>
-      </c>
-      <c r="B104" s="21" t="s">
-        <v>282</v>
       </c>
       <c r="C104" s="21"/>
     </row>
     <row r="105" spans="1:3" ht="24">
       <c r="A105" s="21" t="s">
+        <v>286</v>
+      </c>
+      <c r="B105" s="21" t="s">
         <v>287</v>
-      </c>
-      <c r="B105" s="21" t="s">
-        <v>288</v>
       </c>
       <c r="C105" s="21"/>
     </row>
     <row r="106" spans="1:3" ht="24">
       <c r="A106" s="21" t="s">
+        <v>1446</v>
+      </c>
+      <c r="B106" s="21" t="s">
         <v>1447</v>
-      </c>
-      <c r="B106" s="21" t="s">
-        <v>1448</v>
       </c>
       <c r="C106" s="21"/>
     </row>
     <row r="107" spans="1:3" ht="24">
       <c r="A107" s="21" t="s">
+        <v>272</v>
+      </c>
+      <c r="B107" s="21" t="s">
         <v>273</v>
-      </c>
-      <c r="B107" s="21" t="s">
-        <v>274</v>
       </c>
       <c r="C107" s="21"/>
     </row>
@@ -13533,7 +13652,7 @@
   <sheetData>
     <row r="2" spans="1:3" ht="31">
       <c r="A2" s="19" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="22" thickBot="1"/>
@@ -13545,7 +13664,7 @@
         <v>78</v>
       </c>
       <c r="C4" s="20" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="25" thickBot="1">
@@ -13553,82 +13672,82 @@
         <v>233</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C5" s="15"/>
     </row>
     <row r="6" spans="1:3" ht="25" thickBot="1">
       <c r="A6" s="15" t="s">
+        <v>254</v>
+      </c>
+      <c r="B6" s="15" t="s">
         <v>255</v>
-      </c>
-      <c r="B6" s="15" t="s">
-        <v>256</v>
       </c>
       <c r="C6" s="15"/>
     </row>
     <row r="7" spans="1:3" ht="25" thickBot="1">
       <c r="A7" s="15" t="s">
+        <v>264</v>
+      </c>
+      <c r="B7" s="15" t="s">
         <v>265</v>
-      </c>
-      <c r="B7" s="15" t="s">
-        <v>266</v>
       </c>
       <c r="C7" s="15"/>
     </row>
     <row r="8" spans="1:3" ht="25" thickBot="1">
       <c r="A8" s="15" t="s">
+        <v>262</v>
+      </c>
+      <c r="B8" s="15" t="s">
         <v>263</v>
-      </c>
-      <c r="B8" s="15" t="s">
-        <v>264</v>
       </c>
       <c r="C8" s="15"/>
     </row>
     <row r="9" spans="1:3" ht="25" thickBot="1">
       <c r="A9" s="15" t="s">
+        <v>266</v>
+      </c>
+      <c r="B9" s="15" t="s">
         <v>267</v>
-      </c>
-      <c r="B9" s="15" t="s">
-        <v>268</v>
       </c>
       <c r="C9" s="15"/>
     </row>
     <row r="10" spans="1:3" ht="25" thickBot="1">
       <c r="A10" s="15" t="s">
+        <v>260</v>
+      </c>
+      <c r="B10" s="15" t="s">
         <v>261</v>
-      </c>
-      <c r="B10" s="15" t="s">
-        <v>262</v>
       </c>
       <c r="C10" s="15"/>
     </row>
     <row r="11" spans="1:3" ht="25" thickBot="1">
       <c r="A11" s="15" t="s">
+        <v>256</v>
+      </c>
+      <c r="B11" s="15" t="s">
         <v>257</v>
-      </c>
-      <c r="B11" s="15" t="s">
-        <v>258</v>
       </c>
       <c r="C11" s="15"/>
     </row>
     <row r="12" spans="1:3" ht="25" thickBot="1">
       <c r="A12" s="15" t="s">
+        <v>258</v>
+      </c>
+      <c r="B12" s="15" t="s">
         <v>259</v>
-      </c>
-      <c r="B12" s="15" t="s">
-        <v>260</v>
       </c>
       <c r="C12" s="15"/>
     </row>
     <row r="13" spans="1:3" ht="25" thickBot="1">
       <c r="A13" s="15" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="B13" s="15" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C13" s="15" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="25" thickBot="1">
@@ -13661,7 +13780,7 @@
   <sheetData>
     <row r="3" spans="1:3" ht="31">
       <c r="A3" s="19" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="24">
@@ -13672,75 +13791,75 @@
         <v>78</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="24">
       <c r="A6" s="21" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="B6" s="21" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="C6" s="21"/>
     </row>
     <row r="7" spans="1:3" ht="24">
       <c r="A7" s="21" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="B7" s="21" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="C7" s="21"/>
     </row>
     <row r="8" spans="1:3" ht="24">
       <c r="A8" s="21" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="B8" s="21" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="C8" s="21"/>
     </row>
     <row r="9" spans="1:3" ht="24">
       <c r="A9" s="21" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="B9" s="21" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="C9" s="21"/>
     </row>
     <row r="10" spans="1:3" ht="24">
       <c r="A10" s="21" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="B10" s="21" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="C10" s="21"/>
     </row>
     <row r="11" spans="1:3" ht="24">
       <c r="A11" s="21" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="B11" s="21" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="C11" s="21"/>
     </row>
     <row r="12" spans="1:3" ht="24">
       <c r="A12" s="21" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="B12" s="21" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="C12" s="21"/>
     </row>
     <row r="15" spans="1:3" ht="31">
       <c r="A15" s="19" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="24">
@@ -13751,114 +13870,114 @@
         <v>78</v>
       </c>
       <c r="C17" s="12" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="24">
       <c r="A18" s="21" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="B18" s="21" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="C18" s="21"/>
     </row>
     <row r="19" spans="1:3" ht="24">
       <c r="A19" s="21" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="B19" s="21" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="C19" s="21"/>
     </row>
     <row r="20" spans="1:3" ht="24">
       <c r="A20" s="21" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="B20" s="21" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="C20" s="21"/>
     </row>
     <row r="21" spans="1:3" ht="24">
       <c r="A21" s="21" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="B21" s="21" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="C21" s="21"/>
     </row>
     <row r="22" spans="1:3" ht="24">
       <c r="A22" s="21" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="B22" s="21" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="C22" s="21"/>
     </row>
     <row r="23" spans="1:3" ht="24">
       <c r="A23" s="21" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="B23" s="21" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="C23" s="21"/>
     </row>
     <row r="24" spans="1:3" ht="24">
       <c r="A24" s="21" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="B24" s="21" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="C24" s="21"/>
     </row>
     <row r="25" spans="1:3" ht="24">
       <c r="A25" s="21" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="B25" s="21" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
       <c r="C25" s="21"/>
     </row>
     <row r="26" spans="1:3" ht="24">
       <c r="A26" s="21" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="B26" s="21" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="C26" s="21"/>
     </row>
     <row r="27" spans="1:3" ht="24">
       <c r="A27" s="21" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="B27" s="21" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="C27" s="21"/>
     </row>
     <row r="28" spans="1:3" ht="24">
       <c r="A28" s="21" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="B28" s="21" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="C28" s="21"/>
     </row>
     <row r="29" spans="1:3" ht="24">
       <c r="A29" s="21" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="B29" s="21" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="C29" s="21"/>
     </row>
@@ -13884,7 +14003,7 @@
   <sheetData>
     <row r="2" spans="1:3" ht="31">
       <c r="A2" s="26" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="B2" s="27"/>
       <c r="C2" s="27"/>
@@ -13902,240 +14021,240 @@
         <v>78</v>
       </c>
       <c r="C4" s="29" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="24">
       <c r="A5" s="30" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="B5" s="31" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="C5" s="12"/>
     </row>
     <row r="6" spans="1:3" ht="24">
       <c r="A6" s="13" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="C6" s="14"/>
     </row>
     <row r="7" spans="1:3" ht="24">
       <c r="A7" s="13" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="C7" s="14"/>
     </row>
     <row r="8" spans="1:3" ht="24">
       <c r="A8" s="13" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="C8" s="14"/>
     </row>
     <row r="9" spans="1:3" ht="24">
       <c r="A9" s="13" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="C9" s="14"/>
     </row>
     <row r="10" spans="1:3" ht="24">
       <c r="A10" s="13" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="C10" s="14"/>
     </row>
     <row r="11" spans="1:3" ht="24">
       <c r="A11" s="13" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="C11" s="14"/>
     </row>
     <row r="12" spans="1:3" ht="24">
       <c r="A12" s="13" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="B12" s="14" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="C12" s="14"/>
     </row>
     <row r="13" spans="1:3" ht="24">
       <c r="A13" s="13" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="B13" s="14" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="C13" s="14"/>
     </row>
     <row r="14" spans="1:3" ht="24">
       <c r="A14" s="13" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="B14" s="14" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="C14" s="14"/>
     </row>
     <row r="15" spans="1:3" ht="24">
       <c r="A15" s="13" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="B15" s="14" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="C15" s="14"/>
     </row>
     <row r="16" spans="1:3" ht="24">
       <c r="A16" s="13" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="B16" s="14" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="C16" s="14"/>
     </row>
     <row r="17" spans="1:3" ht="24">
       <c r="A17" s="13" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="B17" s="14" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="C17" s="32"/>
     </row>
     <row r="18" spans="1:3" ht="24">
       <c r="A18" s="13" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="B18" s="14" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="C18" s="32"/>
     </row>
     <row r="19" spans="1:3" ht="24">
       <c r="A19" s="13" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B19" s="14" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="C19" s="14"/>
     </row>
     <row r="20" spans="1:3" ht="24">
       <c r="A20" s="13" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="B20" s="14" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="C20" s="14"/>
     </row>
     <row r="21" spans="1:3" ht="24">
       <c r="A21" s="13" t="s">
+        <v>863</v>
+      </c>
+      <c r="B21" s="14" t="s">
         <v>864</v>
-      </c>
-      <c r="B21" s="14" t="s">
-        <v>865</v>
       </c>
       <c r="C21" s="14"/>
     </row>
     <row r="22" spans="1:3" ht="24">
       <c r="A22" s="13" t="s">
+        <v>865</v>
+      </c>
+      <c r="B22" s="14" t="s">
         <v>866</v>
-      </c>
-      <c r="B22" s="14" t="s">
-        <v>867</v>
       </c>
       <c r="C22" s="14"/>
     </row>
     <row r="23" spans="1:3" ht="24">
       <c r="A23" s="13" t="s">
+        <v>867</v>
+      </c>
+      <c r="B23" s="14" t="s">
         <v>868</v>
-      </c>
-      <c r="B23" s="14" t="s">
-        <v>869</v>
       </c>
       <c r="C23" s="32"/>
     </row>
     <row r="24" spans="1:3" ht="24">
       <c r="A24" s="13" t="s">
+        <v>869</v>
+      </c>
+      <c r="B24" s="14" t="s">
         <v>870</v>
-      </c>
-      <c r="B24" s="14" t="s">
-        <v>871</v>
       </c>
       <c r="C24" s="32"/>
     </row>
     <row r="25" spans="1:3" ht="24">
       <c r="A25" s="13" t="s">
+        <v>871</v>
+      </c>
+      <c r="B25" s="14" t="s">
         <v>872</v>
-      </c>
-      <c r="B25" s="14" t="s">
-        <v>873</v>
       </c>
       <c r="C25" s="32"/>
     </row>
     <row r="26" spans="1:3" ht="24">
       <c r="A26" s="13" t="s">
+        <v>873</v>
+      </c>
+      <c r="B26" s="14" t="s">
         <v>874</v>
-      </c>
-      <c r="B26" s="14" t="s">
-        <v>875</v>
       </c>
       <c r="C26" s="14"/>
     </row>
     <row r="27" spans="1:3" ht="24">
       <c r="A27" s="13" t="s">
+        <v>875</v>
+      </c>
+      <c r="B27" s="14" t="s">
         <v>876</v>
-      </c>
-      <c r="B27" s="14" t="s">
-        <v>877</v>
       </c>
       <c r="C27" s="14"/>
     </row>
     <row r="28" spans="1:3" ht="24">
       <c r="A28" s="13" t="s">
+        <v>877</v>
+      </c>
+      <c r="B28" s="14" t="s">
         <v>878</v>
-      </c>
-      <c r="B28" s="14" t="s">
-        <v>879</v>
       </c>
       <c r="C28" s="14"/>
     </row>
     <row r="29" spans="1:3" ht="24">
       <c r="A29" s="13" t="s">
+        <v>879</v>
+      </c>
+      <c r="B29" s="14" t="s">
         <v>880</v>
-      </c>
-      <c r="B29" s="14" t="s">
-        <v>881</v>
       </c>
       <c r="C29" s="14"/>
     </row>
     <row r="30" spans="1:3" ht="24">
       <c r="A30" s="13" t="s">
+        <v>881</v>
+      </c>
+      <c r="B30" s="14" t="s">
         <v>882</v>
-      </c>
-      <c r="B30" s="14" t="s">
-        <v>883</v>
       </c>
       <c r="C30" s="14"/>
     </row>
@@ -14205,7 +14324,7 @@
   <sheetData>
     <row r="1" spans="1:5" ht="31">
       <c r="A1" s="16" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B1" s="2"/>
     </row>
@@ -14220,18 +14339,18 @@
         <v>78</v>
       </c>
       <c r="C3" s="29" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="E3" s="35" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="24">
       <c r="A4" s="5" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C4" s="21"/>
     </row>
@@ -14240,11 +14359,11 @@
         <v>181</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C5" s="21"/>
       <c r="E5" s="35" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="24">
@@ -14252,7 +14371,7 @@
         <v>164</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C6" s="21"/>
     </row>
@@ -14261,40 +14380,40 @@
         <v>168</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C7" s="21" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="24">
       <c r="A8" s="5" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C8" s="21"/>
     </row>
     <row r="9" spans="1:5" ht="25" thickBot="1">
       <c r="A9" s="5" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C9" s="21"/>
     </row>
     <row r="10" spans="1:5" ht="26" thickTop="1" thickBot="1">
       <c r="A10" s="5" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C10" s="21"/>
       <c r="E10" s="37" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="25" thickTop="1">
@@ -14308,10 +14427,10 @@
     </row>
     <row r="12" spans="1:5" ht="24">
       <c r="A12" s="5" t="s">
+        <v>746</v>
+      </c>
+      <c r="B12" s="5" t="s">
         <v>747</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>748</v>
       </c>
       <c r="C12" s="21"/>
     </row>
@@ -14320,63 +14439,63 @@
         <v>188</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C13" s="21"/>
     </row>
     <row r="14" spans="1:5" ht="24">
       <c r="A14" s="5" t="s">
+        <v>250</v>
+      </c>
+      <c r="B14" s="5" t="s">
         <v>251</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>252</v>
       </c>
       <c r="C14" s="21"/>
     </row>
     <row r="15" spans="1:5" ht="24">
       <c r="A15" s="5" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C15" s="21"/>
     </row>
     <row r="16" spans="1:5" ht="24">
       <c r="A16" s="5" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C16" s="21"/>
     </row>
     <row r="17" spans="1:3" ht="24">
       <c r="A17" s="5" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="C17" s="21" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="24">
       <c r="A18" s="5" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="C18" s="21"/>
     </row>
     <row r="19" spans="1:3" ht="24">
       <c r="A19" s="5" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C19" s="21"/>
     </row>
@@ -14385,63 +14504,63 @@
         <v>179</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="C20" s="21"/>
     </row>
     <row r="21" spans="1:3" ht="24">
       <c r="A21" s="5" t="s">
+        <v>590</v>
+      </c>
+      <c r="B21" s="5" t="s">
         <v>591</v>
-      </c>
-      <c r="B21" s="5" t="s">
-        <v>592</v>
       </c>
       <c r="C21" s="21"/>
     </row>
     <row r="22" spans="1:3" ht="24">
       <c r="A22" s="5" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="C22" s="21"/>
     </row>
     <row r="23" spans="1:3" ht="24">
       <c r="A23" s="36" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="B23" s="5" t="s">
+        <v>766</v>
+      </c>
+      <c r="C23" s="5" t="s">
         <v>767</v>
-      </c>
-      <c r="C23" s="5" t="s">
-        <v>768</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="24">
       <c r="A24" s="5" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="C24" s="21"/>
     </row>
     <row r="25" spans="1:3" ht="24">
       <c r="A25" s="30" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="C25" s="23"/>
     </row>
     <row r="26" spans="1:3" ht="24">
       <c r="A26" s="30" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="C26" s="23"/>
     </row>
@@ -14468,7 +14587,7 @@
   <sheetData>
     <row r="2" spans="1:3" ht="31">
       <c r="A2" s="19" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="24">
@@ -14482,123 +14601,123 @@
         <v>78</v>
       </c>
       <c r="C4" s="29" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="24">
       <c r="A5" s="21" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="B5" s="23" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="C5" s="23"/>
     </row>
     <row r="6" spans="1:3" ht="24">
       <c r="A6" s="21" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="B6" s="23" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="C6" s="23"/>
     </row>
     <row r="7" spans="1:3" ht="24">
       <c r="A7" s="21" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="B7" s="23" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="C7" s="23"/>
     </row>
     <row r="8" spans="1:3" ht="24">
       <c r="A8" s="21" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="B8" s="23" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="C8" s="23"/>
     </row>
     <row r="9" spans="1:3" ht="24">
       <c r="A9" s="21" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="B9" s="23" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="C9" s="23"/>
     </row>
     <row r="10" spans="1:3" ht="24">
       <c r="A10" s="21" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="B10" s="23" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="C10" s="23"/>
     </row>
     <row r="11" spans="1:3" ht="24">
       <c r="A11" s="21" t="s">
+        <v>424</v>
+      </c>
+      <c r="B11" s="23" t="s">
         <v>425</v>
-      </c>
-      <c r="B11" s="23" t="s">
-        <v>426</v>
       </c>
       <c r="C11" s="23"/>
     </row>
     <row r="12" spans="1:3" ht="24">
       <c r="A12" s="21" t="s">
+        <v>353</v>
+      </c>
+      <c r="B12" s="23" t="s">
         <v>354</v>
-      </c>
-      <c r="B12" s="23" t="s">
-        <v>355</v>
       </c>
       <c r="C12" s="23"/>
     </row>
     <row r="13" spans="1:3" ht="24">
       <c r="A13" s="21" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="B13" s="23" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="C13" s="23"/>
     </row>
     <row r="14" spans="1:3" ht="24">
       <c r="A14" s="21" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="B14" s="23" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="C14" s="23"/>
     </row>
     <row r="15" spans="1:3" ht="24">
       <c r="A15" s="21" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="B15" s="23" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="C15" s="23"/>
     </row>
     <row r="16" spans="1:3" ht="24">
       <c r="A16" s="21" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="B16" s="23" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="C16" s="23"/>
     </row>
     <row r="17" spans="1:8" ht="24">
       <c r="A17" s="21" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="B17" s="23" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C17" s="23"/>
       <c r="D17" s="9"/>
@@ -14609,10 +14728,10 @@
     </row>
     <row r="18" spans="1:8" ht="24">
       <c r="A18" s="21" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="B18" s="23" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C18" s="23"/>
       <c r="D18" s="9"/>
@@ -14623,10 +14742,10 @@
     </row>
     <row r="19" spans="1:8" ht="24">
       <c r="A19" s="21" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="B19" s="23" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="C19" s="23"/>
       <c r="D19" s="9"/>
@@ -14637,10 +14756,10 @@
     </row>
     <row r="20" spans="1:8" ht="24">
       <c r="A20" s="21" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B20" s="23" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="C20" s="23"/>
       <c r="D20" s="9"/>
@@ -14651,10 +14770,10 @@
     </row>
     <row r="21" spans="1:8" ht="24">
       <c r="A21" s="21" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="B21" s="23" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="C21" s="23"/>
       <c r="D21" s="9"/>
@@ -14665,10 +14784,10 @@
     </row>
     <row r="22" spans="1:8" ht="24">
       <c r="A22" s="21" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="B22" s="23" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="C22" s="23"/>
       <c r="D22" s="9"/>
@@ -14679,10 +14798,10 @@
     </row>
     <row r="23" spans="1:8" ht="24">
       <c r="A23" s="21" t="s">
+        <v>1109</v>
+      </c>
+      <c r="B23" s="23" t="s">
         <v>1110</v>
-      </c>
-      <c r="B23" s="23" t="s">
-        <v>1111</v>
       </c>
       <c r="C23" s="23"/>
       <c r="D23" s="9"/>
@@ -14693,10 +14812,10 @@
     </row>
     <row r="24" spans="1:8" ht="24">
       <c r="A24" s="21" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B24" s="23" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="C24" s="23"/>
       <c r="D24" s="9"/>
@@ -14707,10 +14826,10 @@
     </row>
     <row r="25" spans="1:8" ht="24">
       <c r="A25" s="21" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="B25" s="23" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="C25" s="23"/>
       <c r="D25" s="9"/>
@@ -14721,334 +14840,334 @@
     </row>
     <row r="26" spans="1:8" ht="24">
       <c r="A26" s="21" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="B26" s="23" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="C26" s="23"/>
     </row>
     <row r="27" spans="1:8" ht="24">
       <c r="A27" s="21" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="B27" s="23" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="C27" s="23"/>
     </row>
     <row r="28" spans="1:8" ht="24">
       <c r="A28" s="21" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="B28" s="23" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="C28" s="23"/>
     </row>
     <row r="29" spans="1:8" ht="24">
       <c r="A29" s="21" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="B29" s="23" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="C29" s="23"/>
     </row>
     <row r="30" spans="1:8" ht="24">
       <c r="A30" s="21" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="B30" s="23" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="C30" s="23"/>
     </row>
     <row r="31" spans="1:8" ht="24">
       <c r="A31" s="21" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="B31" s="23" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="C31" s="23"/>
     </row>
     <row r="32" spans="1:8" ht="24">
       <c r="A32" s="21" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="B32" s="23" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="C32" s="23"/>
     </row>
     <row r="33" spans="1:3" ht="24">
       <c r="A33" s="21" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B33" s="23" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="C33" s="23"/>
     </row>
     <row r="34" spans="1:3" ht="24">
       <c r="A34" s="21" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B34" s="23" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="C34" s="23"/>
     </row>
     <row r="35" spans="1:3" ht="24">
       <c r="A35" s="21" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B35" s="23" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C35" s="23"/>
     </row>
     <row r="36" spans="1:3" ht="24">
       <c r="A36" s="21" t="s">
+        <v>361</v>
+      </c>
+      <c r="B36" s="23" t="s">
         <v>362</v>
-      </c>
-      <c r="B36" s="23" t="s">
-        <v>363</v>
       </c>
       <c r="C36" s="23"/>
     </row>
     <row r="37" spans="1:3" ht="24">
       <c r="A37" s="21" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="B37" s="23" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="C37" s="23"/>
     </row>
     <row r="38" spans="1:3" ht="24">
       <c r="A38" s="21" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
       <c r="B38" s="23" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="C38" s="23"/>
     </row>
     <row r="39" spans="1:3" ht="24">
       <c r="A39" s="21" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="B39" s="23" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="C39" s="23"/>
     </row>
     <row r="40" spans="1:3" ht="24">
       <c r="A40" s="21" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="B40" s="23" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="C40" s="23"/>
     </row>
     <row r="41" spans="1:3" ht="24">
       <c r="A41" s="21" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="B41" s="23" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C41" s="23"/>
     </row>
     <row r="42" spans="1:3" ht="24">
       <c r="A42" s="21" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="B42" s="23" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="C42" s="23"/>
     </row>
     <row r="43" spans="1:3" ht="24">
       <c r="A43" s="21" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="B43" s="23" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="C43" s="23"/>
     </row>
     <row r="44" spans="1:3" ht="24">
       <c r="A44" s="21" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="B44" s="23" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="C44" s="23"/>
     </row>
     <row r="45" spans="1:3" ht="24">
       <c r="A45" s="21" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="B45" s="23" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="C45" s="23"/>
     </row>
     <row r="46" spans="1:3" ht="24">
       <c r="A46" s="21" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="B46" s="23" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="C46" s="23"/>
     </row>
     <row r="47" spans="1:3" ht="24">
       <c r="A47" s="21" t="s">
+        <v>355</v>
+      </c>
+      <c r="B47" s="23" t="s">
         <v>356</v>
-      </c>
-      <c r="B47" s="23" t="s">
-        <v>357</v>
       </c>
       <c r="C47" s="23"/>
     </row>
     <row r="48" spans="1:3" ht="24">
       <c r="A48" s="21" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B48" s="23" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C48" s="23"/>
     </row>
     <row r="49" spans="1:3" ht="24">
       <c r="A49" s="21" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="B49" s="23" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="C49" s="23"/>
     </row>
     <row r="50" spans="1:3" ht="24">
       <c r="A50" s="21" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="B50" s="23" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="C50" s="23"/>
     </row>
     <row r="51" spans="1:3" ht="24">
       <c r="A51" s="21" t="s">
+        <v>357</v>
+      </c>
+      <c r="B51" s="23" t="s">
         <v>358</v>
-      </c>
-      <c r="B51" s="23" t="s">
-        <v>359</v>
       </c>
       <c r="C51" s="23"/>
     </row>
     <row r="52" spans="1:3" ht="24">
       <c r="A52" s="21" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="B52" s="23" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="C52" s="23"/>
     </row>
     <row r="53" spans="1:3" ht="24">
       <c r="A53" s="21" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="B53" s="23" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="C53" s="23"/>
     </row>
     <row r="54" spans="1:3" ht="24">
       <c r="A54" s="21" t="s">
+        <v>363</v>
+      </c>
+      <c r="B54" s="23" t="s">
         <v>364</v>
-      </c>
-      <c r="B54" s="23" t="s">
-        <v>365</v>
       </c>
       <c r="C54" s="23"/>
     </row>
     <row r="55" spans="1:3" ht="24">
       <c r="A55" s="21" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="B55" s="23" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="C55" s="23"/>
     </row>
     <row r="56" spans="1:3" ht="24">
       <c r="A56" s="21" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="B56" s="23" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C56" s="23"/>
     </row>
     <row r="57" spans="1:3" ht="24">
       <c r="A57" s="21" t="s">
+        <v>347</v>
+      </c>
+      <c r="B57" s="23" t="s">
         <v>348</v>
-      </c>
-      <c r="B57" s="23" t="s">
-        <v>349</v>
       </c>
       <c r="C57" s="23"/>
     </row>
     <row r="58" spans="1:3" ht="24">
       <c r="A58" s="21" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="B58" s="23" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="C58" s="23"/>
     </row>
     <row r="59" spans="1:3" ht="24">
       <c r="A59" s="21" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B59" s="23" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="C59" s="23"/>
     </row>
     <row r="60" spans="1:3" ht="24">
       <c r="A60" s="21" t="s">
+        <v>349</v>
+      </c>
+      <c r="B60" s="23" t="s">
         <v>350</v>
-      </c>
-      <c r="B60" s="23" t="s">
-        <v>351</v>
       </c>
       <c r="C60" s="23"/>
     </row>
     <row r="61" spans="1:3" ht="24">
       <c r="A61" s="21" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="B61" s="23" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="C61" s="23"/>
     </row>
     <row r="62" spans="1:3" ht="24">
       <c r="A62" s="21" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B62" s="23" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C62" s="23"/>
     </row>
@@ -15057,268 +15176,268 @@
         <v>215</v>
       </c>
       <c r="B63" s="23" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="C63" s="23"/>
     </row>
     <row r="64" spans="1:3" ht="24">
       <c r="A64" s="21" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B64" s="23" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="C64" s="23"/>
     </row>
     <row r="65" spans="1:3" ht="24">
       <c r="A65" s="21" t="s">
+        <v>351</v>
+      </c>
+      <c r="B65" s="23" t="s">
         <v>352</v>
-      </c>
-      <c r="B65" s="23" t="s">
-        <v>353</v>
       </c>
       <c r="C65" s="23"/>
     </row>
     <row r="66" spans="1:3" ht="24">
       <c r="A66" s="21" t="s">
+        <v>460</v>
+      </c>
+      <c r="B66" s="23" t="s">
         <v>461</v>
-      </c>
-      <c r="B66" s="23" t="s">
-        <v>462</v>
       </c>
       <c r="C66" s="23"/>
     </row>
     <row r="67" spans="1:3" ht="24">
       <c r="A67" s="21" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="B67" s="23" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="C67" s="23"/>
     </row>
     <row r="68" spans="1:3" ht="24">
       <c r="A68" s="21" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="B68" s="23" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="C68" s="23"/>
     </row>
     <row r="69" spans="1:3" ht="24">
       <c r="A69" s="21" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="B69" s="23" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="C69" s="23"/>
     </row>
     <row r="70" spans="1:3" ht="24">
       <c r="A70" s="21" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="B70" s="23" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="C70" s="23"/>
     </row>
     <row r="71" spans="1:3" ht="24">
       <c r="A71" s="21" t="s">
+        <v>661</v>
+      </c>
+      <c r="B71" s="23" t="s">
         <v>662</v>
-      </c>
-      <c r="B71" s="23" t="s">
-        <v>663</v>
       </c>
       <c r="C71" s="23"/>
     </row>
     <row r="72" spans="1:3" ht="24">
       <c r="A72" s="21" t="s">
+        <v>1133</v>
+      </c>
+      <c r="B72" s="21" t="s">
         <v>1134</v>
-      </c>
-      <c r="B72" s="21" t="s">
-        <v>1135</v>
       </c>
       <c r="C72" s="21"/>
     </row>
     <row r="73" spans="1:3" ht="24">
       <c r="A73" s="21" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="B73" s="23" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="C73" s="23"/>
     </row>
     <row r="74" spans="1:3" ht="24">
       <c r="A74" s="21" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B74" s="23" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="C74" s="23"/>
     </row>
     <row r="75" spans="1:3" ht="24">
       <c r="A75" s="21" t="s">
+        <v>421</v>
+      </c>
+      <c r="B75" s="23" t="s">
         <v>422</v>
-      </c>
-      <c r="B75" s="23" t="s">
-        <v>423</v>
       </c>
       <c r="C75" s="23"/>
     </row>
     <row r="76" spans="1:3" ht="24">
       <c r="A76" s="21" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="B76" s="23" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="C76" s="23"/>
     </row>
     <row r="77" spans="1:3" ht="24">
       <c r="A77" s="21" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="B77" s="23" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="C77" s="23"/>
     </row>
     <row r="78" spans="1:3" ht="24">
       <c r="A78" s="21" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="B78" s="23" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="C78" s="23"/>
     </row>
     <row r="79" spans="1:3" ht="24">
       <c r="A79" s="21" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="B79" s="23" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="C79" s="23"/>
     </row>
     <row r="80" spans="1:3" ht="24">
       <c r="A80" s="21" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="B80" s="23" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="C80" s="23"/>
     </row>
     <row r="81" spans="1:4" ht="24">
       <c r="A81" s="21" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="B81" s="23" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="C81" s="23"/>
     </row>
     <row r="82" spans="1:4" ht="24">
       <c r="A82" s="21" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="B82" s="23" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="C82" s="23"/>
     </row>
     <row r="83" spans="1:4" ht="24">
       <c r="A83" s="21" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="B83" s="23" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="C83" s="23"/>
     </row>
     <row r="84" spans="1:4" ht="24">
       <c r="A84" s="21" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="B84" s="23" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="C84" s="23"/>
     </row>
     <row r="85" spans="1:4" ht="24">
       <c r="A85" s="21" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="B85" s="23" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="C85" s="23"/>
     </row>
     <row r="86" spans="1:4" ht="24">
       <c r="A86" s="21" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="B86" s="23" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="C86" s="23"/>
     </row>
     <row r="87" spans="1:4" ht="24">
       <c r="A87" s="21" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="B87" s="23" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="C87" s="23"/>
     </row>
     <row r="88" spans="1:4" ht="24">
       <c r="A88" s="21" t="s">
+        <v>426</v>
+      </c>
+      <c r="B88" s="23" t="s">
         <v>427</v>
-      </c>
-      <c r="B88" s="23" t="s">
-        <v>428</v>
       </c>
       <c r="C88" s="23"/>
     </row>
     <row r="89" spans="1:4" ht="24">
       <c r="A89" s="21" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="B89" s="23" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="C89" s="23"/>
     </row>
     <row r="90" spans="1:4" ht="24">
       <c r="A90" s="21" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="B90" s="23" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="C90" s="23"/>
     </row>
     <row r="91" spans="1:4" ht="24">
       <c r="A91" s="21" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="B91" s="23" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="C91" s="23"/>
     </row>
     <row r="92" spans="1:4" ht="24">
       <c r="A92" s="21" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="B92" s="23" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="C92" s="23"/>
     </row>
@@ -15327,34 +15446,34 @@
         <v>234</v>
       </c>
       <c r="B93" s="23" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="C93" s="23"/>
     </row>
     <row r="94" spans="1:4" ht="24">
       <c r="A94" s="21" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="B94" s="23" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="C94" s="23"/>
     </row>
     <row r="95" spans="1:4" ht="24">
       <c r="A95" s="21" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="B95" s="23" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="C95" s="23"/>
     </row>
     <row r="96" spans="1:4" ht="24">
       <c r="A96" s="21" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="B96" s="23" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="C96" s="23"/>
       <c r="D96" s="9"/>

--- a/chinuk_vocab_gold.xlsx
+++ b/chinuk_vocab_gold.xlsx
@@ -8,33 +8,34 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/connor/Desktop/chinuk_repos/chinuk_vocab_repo/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAD93A92-4E88-854A-BC23-765651FA3DA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{812D9A36-0EEB-AA4D-A5CE-3EDE96D035E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-45220" yWindow="2160" windowWidth="42140" windowHeight="26680" activeTab="2" xr2:uid="{7DFB5DAA-41FE-8F4C-ADA0-7B74441B15D5}"/>
+    <workbookView xWindow="-64760" yWindow="2040" windowWidth="34880" windowHeight="26700" activeTab="4" xr2:uid="{7DFB5DAA-41FE-8F4C-ADA0-7B74441B15D5}"/>
   </bookViews>
   <sheets>
     <sheet name="question_words" sheetId="8" r:id="rId1"/>
     <sheet name="Learning" sheetId="25" r:id="rId2"/>
     <sheet name="vocab" sheetId="2" r:id="rId3"/>
     <sheet name="verbs" sheetId="6" r:id="rId4"/>
-    <sheet name="parts of day" sheetId="5" r:id="rId5"/>
-    <sheet name="Days of Week" sheetId="18" r:id="rId6"/>
-    <sheet name="adjectives" sheetId="15" r:id="rId7"/>
-    <sheet name="adverbs" sheetId="7" r:id="rId8"/>
-    <sheet name="misc" sheetId="4" r:id="rId9"/>
-    <sheet name="x̣əlel-ikta" sheetId="1" r:id="rId10"/>
-    <sheet name="qʰata mayka" sheetId="20" r:id="rId11"/>
-    <sheet name="House " sheetId="23" r:id="rId12"/>
-    <sheet name="bathroom" sheetId="9" r:id="rId13"/>
-    <sheet name="body_parts" sheetId="19" r:id="rId14"/>
-    <sheet name="foods" sheetId="12" r:id="rId15"/>
-    <sheet name="plants" sheetId="11" r:id="rId16"/>
-    <sheet name="Directions" sheetId="22" r:id="rId17"/>
-    <sheet name="PlaceNames" sheetId="24" r:id="rId18"/>
-    <sheet name="tilixam" sheetId="13" r:id="rId19"/>
-    <sheet name="colors" sheetId="16" r:id="rId20"/>
-    <sheet name="plant_pres_vocab" sheetId="17" r:id="rId21"/>
-    <sheet name="template" sheetId="14" r:id="rId22"/>
+    <sheet name="Auxilary Words" sheetId="26" r:id="rId5"/>
+    <sheet name="parts of day" sheetId="5" r:id="rId6"/>
+    <sheet name="Days of Week" sheetId="18" r:id="rId7"/>
+    <sheet name="adjectives" sheetId="15" r:id="rId8"/>
+    <sheet name="adverbs" sheetId="7" r:id="rId9"/>
+    <sheet name="misc" sheetId="4" r:id="rId10"/>
+    <sheet name="x̣əlel-ikta" sheetId="1" r:id="rId11"/>
+    <sheet name="qʰata mayka" sheetId="20" r:id="rId12"/>
+    <sheet name="House " sheetId="23" r:id="rId13"/>
+    <sheet name="bathroom" sheetId="9" r:id="rId14"/>
+    <sheet name="body_parts" sheetId="19" r:id="rId15"/>
+    <sheet name="foods" sheetId="12" r:id="rId16"/>
+    <sheet name="plants" sheetId="11" r:id="rId17"/>
+    <sheet name="Directions" sheetId="22" r:id="rId18"/>
+    <sheet name="PlaceNames" sheetId="24" r:id="rId19"/>
+    <sheet name="tilixam" sheetId="13" r:id="rId20"/>
+    <sheet name="colors" sheetId="16" r:id="rId21"/>
+    <sheet name="plant_pres_vocab" sheetId="17" r:id="rId22"/>
+    <sheet name="template" sheetId="14" r:id="rId23"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -57,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1756" uniqueCount="1464">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2068" uniqueCount="1716">
   <si>
     <t>tʼsiqʰwaʔ</t>
   </si>
@@ -4451,13 +4452,777 @@
   </si>
   <si>
     <t>alta-aɬqi nayka məkʰmək. Now will I eat.</t>
+  </si>
+  <si>
+    <t>get strong</t>
+  </si>
+  <si>
+    <t>bastan-wawa</t>
+  </si>
+  <si>
+    <t>basten-wawa</t>
+  </si>
+  <si>
+    <t>hilu</t>
+  </si>
+  <si>
+    <t>(adj)</t>
+  </si>
+  <si>
+    <t>gone,</t>
+  </si>
+  <si>
+    <t>lacking</t>
+  </si>
+  <si>
+    <t>munk-hilu</t>
+  </si>
+  <si>
+    <t>get</t>
+  </si>
+  <si>
+    <t>rid</t>
+  </si>
+  <si>
+    <t>of</t>
+  </si>
+  <si>
+    <t>it,</t>
+  </si>
+  <si>
+    <t>use</t>
+  </si>
+  <si>
+    <t>up</t>
+  </si>
+  <si>
+    <t>chaku-hilu:</t>
+  </si>
+  <si>
+    <t>used</t>
+  </si>
+  <si>
+    <t>up,</t>
+  </si>
+  <si>
+    <t>kikwali</t>
+  </si>
+  <si>
+    <t>low,</t>
+  </si>
+  <si>
+    <t>below:</t>
+  </si>
+  <si>
+    <t>munk-kikwali:!</t>
+  </si>
+  <si>
+    <t>lower</t>
+  </si>
+  <si>
+    <t>it</t>
+  </si>
+  <si>
+    <t>chaku-kikwali</t>
+  </si>
+  <si>
+    <t>come</t>
+  </si>
+  <si>
+    <t>down:</t>
+  </si>
+  <si>
+    <t>skukum</t>
+  </si>
+  <si>
+    <t>strong,</t>
+  </si>
+  <si>
+    <t>munk-skukum</t>
+  </si>
+  <si>
+    <t>strengthen</t>
+  </si>
+  <si>
+    <t>chaku-skukum</t>
+  </si>
+  <si>
+    <t>strong</t>
+  </si>
+  <si>
+    <t>tush</t>
+  </si>
+  <si>
+    <t>(adi)</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>munk-tush</t>
+  </si>
+  <si>
+    <t>make</t>
+  </si>
+  <si>
+    <t>good,</t>
+  </si>
+  <si>
+    <t>i</t>
+  </si>
+  <si>
+    <t>chaku-tush:</t>
+  </si>
+  <si>
+    <t>better,</t>
+  </si>
+  <si>
+    <t>recover</t>
+  </si>
+  <si>
+    <t>xluyma</t>
+  </si>
+  <si>
+    <t>otlother,</t>
+  </si>
+  <si>
+    <t>differemunk-xluyma</t>
+  </si>
+  <si>
+    <t>change</t>
+  </si>
+  <si>
+    <t>chaku-xluyma</t>
+  </si>
+  <si>
+    <t>¡becoming</t>
+  </si>
+  <si>
+    <t>different</t>
+  </si>
+  <si>
+    <t>lixpuy</t>
+  </si>
+  <si>
+    <t>covered</t>
+  </si>
+  <si>
+    <t>munk-ixpuy</t>
+  </si>
+  <si>
+    <t>to</t>
+  </si>
+  <si>
+    <t>close,</t>
+  </si>
+  <si>
+    <t>cover:</t>
+  </si>
+  <si>
+    <t>chaku-ixpuy</t>
+  </si>
+  <si>
+    <t>become</t>
+  </si>
+  <si>
+    <t>covered,</t>
+  </si>
+  <si>
+    <t>burie</t>
+  </si>
+  <si>
+    <t>xalaqt</t>
+  </si>
+  <si>
+    <t>munk-</t>
+  </si>
+  <si>
+    <t>toapen</t>
+  </si>
+  <si>
+    <t>chaku-xalaqt</t>
+  </si>
+  <si>
+    <t>saliks</t>
+  </si>
+  <si>
+    <t>angry:</t>
+  </si>
+  <si>
+    <t>munk-saliks</t>
+  </si>
+  <si>
+    <t>chaku-saliks</t>
+  </si>
+  <si>
+    <t>piltan</t>
+  </si>
+  <si>
+    <t>(adj),</t>
+  </si>
+  <si>
+    <t>munk-piltan</t>
+  </si>
+  <si>
+    <t>chaku-piltan:</t>
+  </si>
+  <si>
+    <t>q'</t>
+  </si>
+  <si>
+    <t>wett</t>
+  </si>
+  <si>
+    <t>munk-q'wett</t>
+  </si>
+  <si>
+    <t>chaku-q'wett</t>
+  </si>
+  <si>
+    <t>t'wax</t>
+  </si>
+  <si>
+    <t>munk-t'</t>
+  </si>
+  <si>
+    <t>wax</t>
+  </si>
+  <si>
+    <t>chaku-t'</t>
+  </si>
+  <si>
+    <t>t'sam</t>
+  </si>
+  <si>
+    <t>(n).</t>
+  </si>
+  <si>
+    <t>mark</t>
+  </si>
+  <si>
+    <t>munk-t'sam</t>
+  </si>
+  <si>
+    <t>write,</t>
+  </si>
+  <si>
+    <t>draw</t>
+  </si>
+  <si>
+    <t>chaku-t'sam</t>
+  </si>
+  <si>
+    <t>got</t>
+  </si>
+  <si>
+    <t>marked</t>
+  </si>
+  <si>
+    <t>Jakamas</t>
+  </si>
+  <si>
+    <t>(n)</t>
+  </si>
+  <si>
+    <t>camals:</t>
+  </si>
+  <si>
+    <t>munk-lakamas</t>
+  </si>
+  <si>
+    <t>dig</t>
+  </si>
+  <si>
+    <t>roots</t>
+  </si>
+  <si>
+    <t>p"lum.</t>
+  </si>
+  <si>
+    <t>munk-p"lum.</t>
+  </si>
+  <si>
+    <t>g'walan</t>
+  </si>
+  <si>
+    <t>ear.</t>
+  </si>
+  <si>
+    <t>munk-q'walan</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>hear</t>
+  </si>
+  <si>
+    <t>win</t>
+  </si>
+  <si>
+    <t>wind,</t>
+  </si>
+  <si>
+    <t>breath</t>
+  </si>
+  <si>
+    <t>munk-win</t>
+  </si>
+  <si>
+    <t>sniff,</t>
+  </si>
+  <si>
+    <t>breathe</t>
+  </si>
+  <si>
+    <t>chxi lax̣-san</t>
+  </si>
+  <si>
+    <t>early afternoon</t>
+  </si>
+  <si>
+    <t>to feed, give food to</t>
+  </si>
+  <si>
+    <t>chikʰəmin-lup</t>
+  </si>
+  <si>
+    <t>necklace</t>
+  </si>
+  <si>
+    <t>takta-tilixam</t>
+  </si>
+  <si>
+    <t>people with tʼəmanəwas power</t>
+  </si>
+  <si>
+    <t>kʰapa-ukuk…</t>
+  </si>
+  <si>
+    <t>at the time when... / at the same time as...</t>
+  </si>
+  <si>
+    <t>miməlust-lakaset</t>
+  </si>
+  <si>
+    <t>coffin</t>
+  </si>
+  <si>
+    <t>lames</t>
+  </si>
+  <si>
+    <t>church</t>
+  </si>
+  <si>
+    <t>lipʰret</t>
+  </si>
+  <si>
+    <t>priest, minister</t>
+  </si>
+  <si>
+    <t>pʰliye-tsəqw</t>
+  </si>
+  <si>
+    <t>holy water</t>
+  </si>
+  <si>
+    <t>wik-hilu</t>
+  </si>
+  <si>
+    <t>nothing at all, none whatsoever</t>
+  </si>
+  <si>
+    <t>tishis pi malax̣</t>
+  </si>
+  <si>
+    <t>dishes and kitchen-ware</t>
+  </si>
+  <si>
+    <t>iskam-lima</t>
+  </si>
+  <si>
+    <t>shake hands</t>
+  </si>
+  <si>
+    <t>makwst-t’əmanəwas</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Two Spirit (here used for a person who we could now describe as transgender)</t>
+    </r>
+  </si>
+  <si>
+    <t>tʼəmanəwas-takta</t>
+  </si>
+  <si>
+    <t>a traditional healer (shaman)</t>
+  </si>
+  <si>
+    <t>wam-ston</t>
+  </si>
+  <si>
+    <t>sweat-house</t>
+  </si>
+  <si>
+    <t>kəmtəks (v)</t>
+  </si>
+  <si>
+    <t>know</t>
+  </si>
+  <si>
+    <t>ɬax̣ (v)</t>
+  </si>
+  <si>
+    <t>come out</t>
+  </si>
+  <si>
+    <t>munk-ɬax̣</t>
+  </si>
+  <si>
+    <t>take it out</t>
+  </si>
+  <si>
+    <t>chaku-ɬax̣</t>
+  </si>
+  <si>
+    <t>This is compiled from cw201 Fall 2024 pipa 4.</t>
+  </si>
+  <si>
+    <t>ɬq’up (v)</t>
+  </si>
+  <si>
+    <t>cut</t>
+  </si>
+  <si>
+    <t>munk-ɬq’up</t>
+  </si>
+  <si>
+    <t>cut it</t>
+  </si>
+  <si>
+    <t>chaku-ɬq’up</t>
+  </si>
+  <si>
+    <t>get cut</t>
+  </si>
+  <si>
+    <t>nanich (v)</t>
+  </si>
+  <si>
+    <t>to look, to see, notice</t>
+  </si>
+  <si>
+    <t>munk-nanich</t>
+  </si>
+  <si>
+    <t>to show or reveal</t>
+  </si>
+  <si>
+    <t>chaku-nanich</t>
+  </si>
+  <si>
+    <t>get to see, realize, glipse</t>
+  </si>
+  <si>
+    <t>k’ilapay (v)</t>
+  </si>
+  <si>
+    <t>to come back, return, turn back, reverse</t>
+  </si>
+  <si>
+    <t>munk-k’ilapay</t>
+  </si>
+  <si>
+    <t>return it, bring it back, reverse it, turn it</t>
+  </si>
+  <si>
+    <t>chaku-k’ilapay</t>
+  </si>
+  <si>
+    <t>get back, return, to turn</t>
+  </si>
+  <si>
+    <t>kitap, gitəp (v)</t>
+  </si>
+  <si>
+    <t>to get up, arise</t>
+  </si>
+  <si>
+    <t>munk-kitap</t>
+  </si>
+  <si>
+    <t>awaken (somebody else), get them up</t>
+  </si>
+  <si>
+    <t>miɬayt (v)</t>
+  </si>
+  <si>
+    <t>to sit, stay, live, to be in or at</t>
+  </si>
+  <si>
+    <t>munk-miɬayt</t>
+  </si>
+  <si>
+    <t>to put or place it</t>
+  </si>
+  <si>
+    <t>chaku-miɬayt</t>
+  </si>
+  <si>
+    <t>come to be</t>
+  </si>
+  <si>
+    <t>hihi (v)</t>
+  </si>
+  <si>
+    <t>to laugh, laugh at, play, playing (a game or with)</t>
+  </si>
+  <si>
+    <t>munk-hihi</t>
+  </si>
+  <si>
+    <t>make laugh, to make fun of</t>
+  </si>
+  <si>
+    <t>miməlust (v)</t>
+  </si>
+  <si>
+    <t>to die, dead</t>
+  </si>
+  <si>
+    <t>munk-miməlust</t>
+  </si>
+  <si>
+    <t>to kill</t>
+  </si>
+  <si>
+    <t>hilu (adj)</t>
+  </si>
+  <si>
+    <t>gone, lacking</t>
+  </si>
+  <si>
+    <t>get rid of it, use up</t>
+  </si>
+  <si>
+    <t>chaku-hilu</t>
+  </si>
+  <si>
+    <t>get used up, die</t>
+  </si>
+  <si>
+    <t>kikwəli (adj)</t>
+  </si>
+  <si>
+    <t>low, below</t>
+  </si>
+  <si>
+    <t>munk-kikwəli</t>
+  </si>
+  <si>
+    <t>lower it</t>
+  </si>
+  <si>
+    <t>chaku-kikwəli</t>
+  </si>
+  <si>
+    <t>come down</t>
+  </si>
+  <si>
+    <t>skukum (adj)</t>
+  </si>
+  <si>
+    <t>brave, strong</t>
+  </si>
+  <si>
+    <t>ɬush (adj)</t>
+  </si>
+  <si>
+    <t>munk-ɬush</t>
+  </si>
+  <si>
+    <t>make good, improve</t>
+  </si>
+  <si>
+    <t>chaku-ɬush</t>
+  </si>
+  <si>
+    <t>get better, recover</t>
+  </si>
+  <si>
+    <t>x̣luyma (adj)</t>
+  </si>
+  <si>
+    <t>other, different</t>
+  </si>
+  <si>
+    <t>munk-x̣luyma</t>
+  </si>
+  <si>
+    <t>change it</t>
+  </si>
+  <si>
+    <t>chaku-x̣luyma</t>
+  </si>
+  <si>
+    <t>to change</t>
+  </si>
+  <si>
+    <t>ix̣puy (adj)</t>
+  </si>
+  <si>
+    <t>munk-ix̣puy</t>
+  </si>
+  <si>
+    <t>chaku-ix̣puy</t>
+  </si>
+  <si>
+    <t>to become covered, buried</t>
+  </si>
+  <si>
+    <t>x̣alaqɬ (adj)</t>
+  </si>
+  <si>
+    <t>to open</t>
+  </si>
+  <si>
+    <t>chaku-x̣alaqɬ</t>
+  </si>
+  <si>
+    <t>to open up</t>
+  </si>
+  <si>
+    <t>saliks (adj)</t>
+  </si>
+  <si>
+    <t>to fight, to quarrel</t>
+  </si>
+  <si>
+    <t>to scold, to make angry</t>
+  </si>
+  <si>
+    <t>to get angry</t>
+  </si>
+  <si>
+    <t>piltən (adj)</t>
+  </si>
+  <si>
+    <t>foolish, crazy</t>
+  </si>
+  <si>
+    <t>to make a fool of someone, to drive someone crazy</t>
+  </si>
+  <si>
+    <t>chaku-piltən</t>
+  </si>
+  <si>
+    <t>become crazy</t>
+  </si>
+  <si>
+    <t>q’wetɬ (adj)</t>
+  </si>
+  <si>
+    <t>tight, secure, snug, stuck, hang on, hold tight to</t>
+  </si>
+  <si>
+    <t>munk-q’wetɬ</t>
+  </si>
+  <si>
+    <t>fasten it, tighten it, block it</t>
+  </si>
+  <si>
+    <t>chaku-q’wetɬ</t>
+  </si>
+  <si>
+    <t>get stuck, get tight, fuse together, snug, get lodged in, accrue to</t>
+  </si>
+  <si>
+    <t>t’wax̣ (adj)</t>
+  </si>
+  <si>
+    <t>light, bright, fiery</t>
+  </si>
+  <si>
+    <t>munk-t’wax̣</t>
+  </si>
+  <si>
+    <t>light it, to shine, beam, to polish</t>
+  </si>
+  <si>
+    <t>chaku-t’wax̣</t>
+  </si>
+  <si>
+    <t>to light up, get bright, flame up, revive, wake up, come to one's senses</t>
+  </si>
+  <si>
+    <t>t’səm (n)</t>
+  </si>
+  <si>
+    <t>munk-t’səm</t>
+  </si>
+  <si>
+    <t>write, draw</t>
+  </si>
+  <si>
+    <t>chaku-t’səm</t>
+  </si>
+  <si>
+    <t>got marked up</t>
+  </si>
+  <si>
+    <t>lakamas (n)</t>
+  </si>
+  <si>
+    <t>camas</t>
+  </si>
+  <si>
+    <t>dig roots</t>
+  </si>
+  <si>
+    <t>pʰlum (n)</t>
+  </si>
+  <si>
+    <t>broom</t>
+  </si>
+  <si>
+    <t>munk-pʰlum</t>
+  </si>
+  <si>
+    <t>to sweep it</t>
+  </si>
+  <si>
+    <t>q’wəlan (n)</t>
+  </si>
+  <si>
+    <t>ear</t>
+  </si>
+  <si>
+    <t>munk-q’wəlan</t>
+  </si>
+  <si>
+    <t>to hear, listen</t>
+  </si>
+  <si>
+    <t>win (n)</t>
+  </si>
+  <si>
+    <t>wind, breath</t>
+  </si>
+  <si>
+    <t>to sniff, to breathe</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="21">
+  <fonts count="25">
     <font>
       <sz val="16"/>
       <color theme="1"/>
@@ -4602,16 +5367,45 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="18"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD9D9D9"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="10">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -4736,11 +5530,63 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -4830,6 +5676,35 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -5443,6 +6318,922 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B3091FA-FA4D-C844-8EC8-A36691B6A574}">
+  <dimension ref="A2:H96"/>
+  <sheetViews>
+    <sheetView topLeftCell="A47" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="21"/>
+  <cols>
+    <col min="1" max="1" width="47.875" customWidth="1"/>
+    <col min="2" max="2" width="66.75" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:3" ht="31">
+      <c r="A2" s="19" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="24">
+      <c r="A3" s="9"/>
+    </row>
+    <row r="4" spans="1:3" ht="24">
+      <c r="A4" s="22" t="s">
+        <v>77</v>
+      </c>
+      <c r="B4" s="22" t="s">
+        <v>78</v>
+      </c>
+      <c r="C4" s="29" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="24">
+      <c r="A5" s="21" t="s">
+        <v>613</v>
+      </c>
+      <c r="B5" s="23" t="s">
+        <v>670</v>
+      </c>
+      <c r="C5" s="23"/>
+    </row>
+    <row r="6" spans="1:3" ht="24">
+      <c r="A6" s="21" t="s">
+        <v>617</v>
+      </c>
+      <c r="B6" s="23" t="s">
+        <v>674</v>
+      </c>
+      <c r="C6" s="23"/>
+    </row>
+    <row r="7" spans="1:3" ht="24">
+      <c r="A7" s="21" t="s">
+        <v>615</v>
+      </c>
+      <c r="B7" s="23" t="s">
+        <v>671</v>
+      </c>
+      <c r="C7" s="23"/>
+    </row>
+    <row r="8" spans="1:3" ht="24">
+      <c r="A8" s="21" t="s">
+        <v>636</v>
+      </c>
+      <c r="B8" s="23" t="s">
+        <v>694</v>
+      </c>
+      <c r="C8" s="23"/>
+    </row>
+    <row r="9" spans="1:3" ht="24">
+      <c r="A9" s="21" t="s">
+        <v>606</v>
+      </c>
+      <c r="B9" s="23" t="s">
+        <v>666</v>
+      </c>
+      <c r="C9" s="23"/>
+    </row>
+    <row r="10" spans="1:3" ht="24">
+      <c r="A10" s="21" t="s">
+        <v>640</v>
+      </c>
+      <c r="B10" s="23" t="s">
+        <v>689</v>
+      </c>
+      <c r="C10" s="23"/>
+    </row>
+    <row r="11" spans="1:3" ht="24">
+      <c r="A11" s="21" t="s">
+        <v>424</v>
+      </c>
+      <c r="B11" s="23" t="s">
+        <v>425</v>
+      </c>
+      <c r="C11" s="23"/>
+    </row>
+    <row r="12" spans="1:3" ht="24">
+      <c r="A12" s="21" t="s">
+        <v>353</v>
+      </c>
+      <c r="B12" s="23" t="s">
+        <v>354</v>
+      </c>
+      <c r="C12" s="23"/>
+    </row>
+    <row r="13" spans="1:3" ht="24">
+      <c r="A13" s="21" t="s">
+        <v>612</v>
+      </c>
+      <c r="B13" s="23" t="s">
+        <v>669</v>
+      </c>
+      <c r="C13" s="23"/>
+    </row>
+    <row r="14" spans="1:3" ht="24">
+      <c r="A14" s="21" t="s">
+        <v>604</v>
+      </c>
+      <c r="B14" s="23" t="s">
+        <v>602</v>
+      </c>
+      <c r="C14" s="23"/>
+    </row>
+    <row r="15" spans="1:3" ht="24">
+      <c r="A15" s="21" t="s">
+        <v>718</v>
+      </c>
+      <c r="B15" s="23" t="s">
+        <v>715</v>
+      </c>
+      <c r="C15" s="23"/>
+    </row>
+    <row r="16" spans="1:3" ht="24">
+      <c r="A16" s="21" t="s">
+        <v>650</v>
+      </c>
+      <c r="B16" s="23" t="s">
+        <v>683</v>
+      </c>
+      <c r="C16" s="23"/>
+    </row>
+    <row r="17" spans="1:8" ht="24">
+      <c r="A17" s="21" t="s">
+        <v>1131</v>
+      </c>
+      <c r="B17" s="23" t="s">
+        <v>464</v>
+      </c>
+      <c r="C17" s="23"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="9"/>
+      <c r="G17" s="9"/>
+      <c r="H17" s="9"/>
+    </row>
+    <row r="18" spans="1:8" ht="24">
+      <c r="A18" s="21" t="s">
+        <v>471</v>
+      </c>
+      <c r="B18" s="23" t="s">
+        <v>465</v>
+      </c>
+      <c r="C18" s="23"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="9"/>
+      <c r="G18" s="9"/>
+      <c r="H18" s="9"/>
+    </row>
+    <row r="19" spans="1:8" ht="24">
+      <c r="A19" s="21" t="s">
+        <v>652</v>
+      </c>
+      <c r="B19" s="23" t="s">
+        <v>681</v>
+      </c>
+      <c r="C19" s="23"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="9"/>
+      <c r="G19" s="9"/>
+      <c r="H19" s="9"/>
+    </row>
+    <row r="20" spans="1:8" ht="24">
+      <c r="A20" s="21" t="s">
+        <v>483</v>
+      </c>
+      <c r="B20" s="23" t="s">
+        <v>482</v>
+      </c>
+      <c r="C20" s="23"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="9"/>
+      <c r="G20" s="9"/>
+      <c r="H20" s="9"/>
+    </row>
+    <row r="21" spans="1:8" ht="24">
+      <c r="A21" s="21" t="s">
+        <v>641</v>
+      </c>
+      <c r="B21" s="23" t="s">
+        <v>686</v>
+      </c>
+      <c r="C21" s="23"/>
+      <c r="D21" s="9"/>
+      <c r="E21" s="9"/>
+      <c r="F21" s="9"/>
+      <c r="G21" s="9"/>
+      <c r="H21" s="9"/>
+    </row>
+    <row r="22" spans="1:8" ht="24">
+      <c r="A22" s="21" t="s">
+        <v>619</v>
+      </c>
+      <c r="B22" s="23" t="s">
+        <v>711</v>
+      </c>
+      <c r="C22" s="23"/>
+      <c r="D22" s="9"/>
+      <c r="E22" s="9"/>
+      <c r="F22" s="9"/>
+      <c r="G22" s="9"/>
+      <c r="H22" s="9"/>
+    </row>
+    <row r="23" spans="1:8" ht="24">
+      <c r="A23" s="21" t="s">
+        <v>1109</v>
+      </c>
+      <c r="B23" s="23" t="s">
+        <v>1110</v>
+      </c>
+      <c r="C23" s="23"/>
+      <c r="D23" s="9"/>
+      <c r="E23" s="9"/>
+      <c r="F23" s="9"/>
+      <c r="G23" s="9"/>
+      <c r="H23" s="9"/>
+    </row>
+    <row r="24" spans="1:8" ht="24">
+      <c r="A24" s="21" t="s">
+        <v>481</v>
+      </c>
+      <c r="B24" s="23" t="s">
+        <v>480</v>
+      </c>
+      <c r="C24" s="23"/>
+      <c r="D24" s="9"/>
+      <c r="E24" s="9"/>
+      <c r="F24" s="9"/>
+      <c r="G24" s="9"/>
+      <c r="H24" s="9"/>
+    </row>
+    <row r="25" spans="1:8" ht="24">
+      <c r="A25" s="21" t="s">
+        <v>634</v>
+      </c>
+      <c r="B25" s="23" t="s">
+        <v>696</v>
+      </c>
+      <c r="C25" s="23"/>
+      <c r="D25" s="9"/>
+      <c r="E25" s="9"/>
+      <c r="F25" s="9"/>
+      <c r="G25" s="9"/>
+      <c r="H25" s="9"/>
+    </row>
+    <row r="26" spans="1:8" ht="24">
+      <c r="A26" s="21" t="s">
+        <v>717</v>
+      </c>
+      <c r="B26" s="23" t="s">
+        <v>714</v>
+      </c>
+      <c r="C26" s="23"/>
+    </row>
+    <row r="27" spans="1:8" ht="24">
+      <c r="A27" s="21" t="s">
+        <v>716</v>
+      </c>
+      <c r="B27" s="23" t="s">
+        <v>713</v>
+      </c>
+      <c r="C27" s="23"/>
+    </row>
+    <row r="28" spans="1:8" ht="24">
+      <c r="A28" s="21" t="s">
+        <v>611</v>
+      </c>
+      <c r="B28" s="23" t="s">
+        <v>668</v>
+      </c>
+      <c r="C28" s="23"/>
+    </row>
+    <row r="29" spans="1:8" ht="24">
+      <c r="A29" s="21" t="s">
+        <v>651</v>
+      </c>
+      <c r="B29" s="23" t="s">
+        <v>682</v>
+      </c>
+      <c r="C29" s="23"/>
+    </row>
+    <row r="30" spans="1:8" ht="24">
+      <c r="A30" s="21" t="s">
+        <v>633</v>
+      </c>
+      <c r="B30" s="23" t="s">
+        <v>697</v>
+      </c>
+      <c r="C30" s="23"/>
+    </row>
+    <row r="31" spans="1:8" ht="24">
+      <c r="A31" s="21" t="s">
+        <v>607</v>
+      </c>
+      <c r="B31" s="23" t="s">
+        <v>665</v>
+      </c>
+      <c r="C31" s="23"/>
+    </row>
+    <row r="32" spans="1:8" ht="24">
+      <c r="A32" s="21" t="s">
+        <v>616</v>
+      </c>
+      <c r="B32" s="23" t="s">
+        <v>673</v>
+      </c>
+      <c r="C32" s="23"/>
+    </row>
+    <row r="33" spans="1:3" ht="24">
+      <c r="A33" s="21" t="s">
+        <v>493</v>
+      </c>
+      <c r="B33" s="23" t="s">
+        <v>492</v>
+      </c>
+      <c r="C33" s="23"/>
+    </row>
+    <row r="34" spans="1:3" ht="24">
+      <c r="A34" s="21" t="s">
+        <v>499</v>
+      </c>
+      <c r="B34" s="23" t="s">
+        <v>498</v>
+      </c>
+      <c r="C34" s="23"/>
+    </row>
+    <row r="35" spans="1:3" ht="24">
+      <c r="A35" s="21" t="s">
+        <v>487</v>
+      </c>
+      <c r="B35" s="23" t="s">
+        <v>486</v>
+      </c>
+      <c r="C35" s="23"/>
+    </row>
+    <row r="36" spans="1:3" ht="24">
+      <c r="A36" s="21" t="s">
+        <v>361</v>
+      </c>
+      <c r="B36" s="23" t="s">
+        <v>362</v>
+      </c>
+      <c r="C36" s="23"/>
+    </row>
+    <row r="37" spans="1:3" ht="24">
+      <c r="A37" s="21" t="s">
+        <v>479</v>
+      </c>
+      <c r="B37" s="23" t="s">
+        <v>478</v>
+      </c>
+      <c r="C37" s="23"/>
+    </row>
+    <row r="38" spans="1:3" ht="24">
+      <c r="A38" s="21" t="s">
+        <v>1132</v>
+      </c>
+      <c r="B38" s="23" t="s">
+        <v>685</v>
+      </c>
+      <c r="C38" s="23"/>
+    </row>
+    <row r="39" spans="1:3" ht="24">
+      <c r="A39" s="21" t="s">
+        <v>645</v>
+      </c>
+      <c r="B39" s="23" t="s">
+        <v>687</v>
+      </c>
+      <c r="C39" s="23"/>
+    </row>
+    <row r="40" spans="1:3" ht="24">
+      <c r="A40" s="21" t="s">
+        <v>638</v>
+      </c>
+      <c r="B40" s="23" t="s">
+        <v>691</v>
+      </c>
+      <c r="C40" s="23"/>
+    </row>
+    <row r="41" spans="1:3" ht="24">
+      <c r="A41" s="21" t="s">
+        <v>470</v>
+      </c>
+      <c r="B41" s="23" t="s">
+        <v>463</v>
+      </c>
+      <c r="C41" s="23"/>
+    </row>
+    <row r="42" spans="1:3" ht="24">
+      <c r="A42" s="21" t="s">
+        <v>489</v>
+      </c>
+      <c r="B42" s="23" t="s">
+        <v>488</v>
+      </c>
+      <c r="C42" s="23"/>
+    </row>
+    <row r="43" spans="1:3" ht="24">
+      <c r="A43" s="21" t="s">
+        <v>474</v>
+      </c>
+      <c r="B43" s="23" t="s">
+        <v>468</v>
+      </c>
+      <c r="C43" s="23"/>
+    </row>
+    <row r="44" spans="1:3" ht="24">
+      <c r="A44" s="21" t="s">
+        <v>495</v>
+      </c>
+      <c r="B44" s="23" t="s">
+        <v>494</v>
+      </c>
+      <c r="C44" s="23"/>
+    </row>
+    <row r="45" spans="1:3" ht="24">
+      <c r="A45" s="21" t="s">
+        <v>614</v>
+      </c>
+      <c r="B45" s="23" t="s">
+        <v>672</v>
+      </c>
+      <c r="C45" s="23"/>
+    </row>
+    <row r="46" spans="1:3" ht="24">
+      <c r="A46" s="21" t="s">
+        <v>491</v>
+      </c>
+      <c r="B46" s="23" t="s">
+        <v>490</v>
+      </c>
+      <c r="C46" s="23"/>
+    </row>
+    <row r="47" spans="1:3" ht="24">
+      <c r="A47" s="21" t="s">
+        <v>355</v>
+      </c>
+      <c r="B47" s="23" t="s">
+        <v>356</v>
+      </c>
+      <c r="C47" s="23"/>
+    </row>
+    <row r="48" spans="1:3" ht="24">
+      <c r="A48" s="21" t="s">
+        <v>473</v>
+      </c>
+      <c r="B48" s="23" t="s">
+        <v>467</v>
+      </c>
+      <c r="C48" s="23"/>
+    </row>
+    <row r="49" spans="1:3" ht="24">
+      <c r="A49" s="21" t="s">
+        <v>639</v>
+      </c>
+      <c r="B49" s="23" t="s">
+        <v>690</v>
+      </c>
+      <c r="C49" s="23"/>
+    </row>
+    <row r="50" spans="1:3" ht="24">
+      <c r="A50" s="21" t="s">
+        <v>637</v>
+      </c>
+      <c r="B50" s="23" t="s">
+        <v>693</v>
+      </c>
+      <c r="C50" s="23"/>
+    </row>
+    <row r="51" spans="1:3" ht="24">
+      <c r="A51" s="21" t="s">
+        <v>357</v>
+      </c>
+      <c r="B51" s="23" t="s">
+        <v>358</v>
+      </c>
+      <c r="C51" s="23"/>
+    </row>
+    <row r="52" spans="1:3" ht="24">
+      <c r="A52" s="21" t="s">
+        <v>630</v>
+      </c>
+      <c r="B52" s="23" t="s">
+        <v>700</v>
+      </c>
+      <c r="C52" s="23"/>
+    </row>
+    <row r="53" spans="1:3" ht="24">
+      <c r="A53" s="21" t="s">
+        <v>646</v>
+      </c>
+      <c r="B53" s="23" t="s">
+        <v>642</v>
+      </c>
+      <c r="C53" s="23"/>
+    </row>
+    <row r="54" spans="1:3" ht="24">
+      <c r="A54" s="21" t="s">
+        <v>363</v>
+      </c>
+      <c r="B54" s="23" t="s">
+        <v>364</v>
+      </c>
+      <c r="C54" s="23"/>
+    </row>
+    <row r="55" spans="1:3" ht="24">
+      <c r="A55" s="21" t="s">
+        <v>485</v>
+      </c>
+      <c r="B55" s="23" t="s">
+        <v>484</v>
+      </c>
+      <c r="C55" s="23"/>
+    </row>
+    <row r="56" spans="1:3" ht="24">
+      <c r="A56" s="21" t="s">
+        <v>469</v>
+      </c>
+      <c r="B56" s="23" t="s">
+        <v>462</v>
+      </c>
+      <c r="C56" s="23"/>
+    </row>
+    <row r="57" spans="1:3" ht="24">
+      <c r="A57" s="21" t="s">
+        <v>347</v>
+      </c>
+      <c r="B57" s="23" t="s">
+        <v>348</v>
+      </c>
+      <c r="C57" s="23"/>
+    </row>
+    <row r="58" spans="1:3" ht="24">
+      <c r="A58" s="21" t="s">
+        <v>657</v>
+      </c>
+      <c r="B58" s="23" t="s">
+        <v>676</v>
+      </c>
+      <c r="C58" s="23"/>
+    </row>
+    <row r="59" spans="1:3" ht="24">
+      <c r="A59" s="21" t="s">
+        <v>477</v>
+      </c>
+      <c r="B59" s="23" t="s">
+        <v>476</v>
+      </c>
+      <c r="C59" s="23"/>
+    </row>
+    <row r="60" spans="1:3" ht="24">
+      <c r="A60" s="21" t="s">
+        <v>349</v>
+      </c>
+      <c r="B60" s="23" t="s">
+        <v>350</v>
+      </c>
+      <c r="C60" s="23"/>
+    </row>
+    <row r="61" spans="1:3" ht="24">
+      <c r="A61" s="21" t="s">
+        <v>628</v>
+      </c>
+      <c r="B61" s="23" t="s">
+        <v>702</v>
+      </c>
+      <c r="C61" s="23"/>
+    </row>
+    <row r="62" spans="1:3" ht="24">
+      <c r="A62" s="21" t="s">
+        <v>360</v>
+      </c>
+      <c r="B62" s="23" t="s">
+        <v>359</v>
+      </c>
+      <c r="C62" s="23"/>
+    </row>
+    <row r="63" spans="1:3" ht="24">
+      <c r="A63" s="21" t="s">
+        <v>215</v>
+      </c>
+      <c r="B63" s="23" t="s">
+        <v>475</v>
+      </c>
+      <c r="C63" s="23"/>
+    </row>
+    <row r="64" spans="1:3" ht="24">
+      <c r="A64" s="21" t="s">
+        <v>497</v>
+      </c>
+      <c r="B64" s="23" t="s">
+        <v>496</v>
+      </c>
+      <c r="C64" s="23"/>
+    </row>
+    <row r="65" spans="1:3" ht="24">
+      <c r="A65" s="21" t="s">
+        <v>351</v>
+      </c>
+      <c r="B65" s="23" t="s">
+        <v>352</v>
+      </c>
+      <c r="C65" s="23"/>
+    </row>
+    <row r="66" spans="1:3" ht="24">
+      <c r="A66" s="21" t="s">
+        <v>460</v>
+      </c>
+      <c r="B66" s="23" t="s">
+        <v>461</v>
+      </c>
+      <c r="C66" s="23"/>
+    </row>
+    <row r="67" spans="1:3" ht="24">
+      <c r="A67" s="21" t="s">
+        <v>631</v>
+      </c>
+      <c r="B67" s="23" t="s">
+        <v>699</v>
+      </c>
+      <c r="C67" s="23"/>
+    </row>
+    <row r="68" spans="1:3" ht="24">
+      <c r="A68" s="21" t="s">
+        <v>658</v>
+      </c>
+      <c r="B68" s="23" t="s">
+        <v>675</v>
+      </c>
+      <c r="C68" s="23"/>
+    </row>
+    <row r="69" spans="1:3" ht="24">
+      <c r="A69" s="21" t="s">
+        <v>608</v>
+      </c>
+      <c r="B69" s="23" t="s">
+        <v>664</v>
+      </c>
+      <c r="C69" s="23"/>
+    </row>
+    <row r="70" spans="1:3" ht="24">
+      <c r="A70" s="21" t="s">
+        <v>609</v>
+      </c>
+      <c r="B70" s="23" t="s">
+        <v>663</v>
+      </c>
+      <c r="C70" s="23"/>
+    </row>
+    <row r="71" spans="1:3" ht="24">
+      <c r="A71" s="21" t="s">
+        <v>661</v>
+      </c>
+      <c r="B71" s="23" t="s">
+        <v>662</v>
+      </c>
+      <c r="C71" s="23"/>
+    </row>
+    <row r="72" spans="1:3" ht="24">
+      <c r="A72" s="21" t="s">
+        <v>1133</v>
+      </c>
+      <c r="B72" s="21" t="s">
+        <v>1134</v>
+      </c>
+      <c r="C72" s="21"/>
+    </row>
+    <row r="73" spans="1:3" ht="24">
+      <c r="A73" s="21" t="s">
+        <v>610</v>
+      </c>
+      <c r="B73" s="23" t="s">
+        <v>667</v>
+      </c>
+      <c r="C73" s="23"/>
+    </row>
+    <row r="74" spans="1:3" ht="24">
+      <c r="A74" s="21" t="s">
+        <v>423</v>
+      </c>
+      <c r="B74" s="23" t="s">
+        <v>500</v>
+      </c>
+      <c r="C74" s="23"/>
+    </row>
+    <row r="75" spans="1:3" ht="24">
+      <c r="A75" s="21" t="s">
+        <v>421</v>
+      </c>
+      <c r="B75" s="23" t="s">
+        <v>422</v>
+      </c>
+      <c r="C75" s="23"/>
+    </row>
+    <row r="76" spans="1:3" ht="24">
+      <c r="A76" s="21" t="s">
+        <v>632</v>
+      </c>
+      <c r="B76" s="23" t="s">
+        <v>698</v>
+      </c>
+      <c r="C76" s="23"/>
+    </row>
+    <row r="77" spans="1:3" ht="24">
+      <c r="A77" s="21" t="s">
+        <v>625</v>
+      </c>
+      <c r="B77" s="23" t="s">
+        <v>705</v>
+      </c>
+      <c r="C77" s="23"/>
+    </row>
+    <row r="78" spans="1:3" ht="24">
+      <c r="A78" s="21" t="s">
+        <v>605</v>
+      </c>
+      <c r="B78" s="23" t="s">
+        <v>603</v>
+      </c>
+      <c r="C78" s="23"/>
+    </row>
+    <row r="79" spans="1:3" ht="24">
+      <c r="A79" s="21" t="s">
+        <v>629</v>
+      </c>
+      <c r="B79" s="23" t="s">
+        <v>701</v>
+      </c>
+      <c r="C79" s="23"/>
+    </row>
+    <row r="80" spans="1:3" ht="24">
+      <c r="A80" s="21" t="s">
+        <v>654</v>
+      </c>
+      <c r="B80" s="23" t="s">
+        <v>679</v>
+      </c>
+      <c r="C80" s="23"/>
+    </row>
+    <row r="81" spans="1:4" ht="24">
+      <c r="A81" s="21" t="s">
+        <v>653</v>
+      </c>
+      <c r="B81" s="23" t="s">
+        <v>680</v>
+      </c>
+      <c r="C81" s="23"/>
+    </row>
+    <row r="82" spans="1:4" ht="24">
+      <c r="A82" s="21" t="s">
+        <v>644</v>
+      </c>
+      <c r="B82" s="23" t="s">
+        <v>688</v>
+      </c>
+      <c r="C82" s="23"/>
+    </row>
+    <row r="83" spans="1:4" ht="24">
+      <c r="A83" s="21" t="s">
+        <v>656</v>
+      </c>
+      <c r="B83" s="23" t="s">
+        <v>677</v>
+      </c>
+      <c r="C83" s="23"/>
+    </row>
+    <row r="84" spans="1:4" ht="24">
+      <c r="A84" s="21" t="s">
+        <v>660</v>
+      </c>
+      <c r="B84" s="23" t="s">
+        <v>659</v>
+      </c>
+      <c r="C84" s="23"/>
+    </row>
+    <row r="85" spans="1:4" ht="24">
+      <c r="A85" s="21" t="s">
+        <v>618</v>
+      </c>
+      <c r="B85" s="23" t="s">
+        <v>712</v>
+      </c>
+      <c r="C85" s="23"/>
+    </row>
+    <row r="86" spans="1:4" ht="24">
+      <c r="A86" s="21" t="s">
+        <v>626</v>
+      </c>
+      <c r="B86" s="23" t="s">
+        <v>704</v>
+      </c>
+      <c r="C86" s="23"/>
+    </row>
+    <row r="87" spans="1:4" ht="24">
+      <c r="A87" s="21" t="s">
+        <v>647</v>
+      </c>
+      <c r="B87" s="23" t="s">
+        <v>643</v>
+      </c>
+      <c r="C87" s="23"/>
+    </row>
+    <row r="88" spans="1:4" ht="24">
+      <c r="A88" s="21" t="s">
+        <v>426</v>
+      </c>
+      <c r="B88" s="23" t="s">
+        <v>427</v>
+      </c>
+      <c r="C88" s="23"/>
+    </row>
+    <row r="89" spans="1:4" ht="24">
+      <c r="A89" s="21" t="s">
+        <v>620</v>
+      </c>
+      <c r="B89" s="23" t="s">
+        <v>710</v>
+      </c>
+      <c r="C89" s="23"/>
+    </row>
+    <row r="90" spans="1:4" ht="24">
+      <c r="A90" s="21" t="s">
+        <v>621</v>
+      </c>
+      <c r="B90" s="23" t="s">
+        <v>709</v>
+      </c>
+      <c r="C90" s="23"/>
+    </row>
+    <row r="91" spans="1:4" ht="24">
+      <c r="A91" s="21" t="s">
+        <v>622</v>
+      </c>
+      <c r="B91" s="23" t="s">
+        <v>708</v>
+      </c>
+      <c r="C91" s="23"/>
+    </row>
+    <row r="92" spans="1:4" ht="24">
+      <c r="A92" s="21" t="s">
+        <v>624</v>
+      </c>
+      <c r="B92" s="23" t="s">
+        <v>706</v>
+      </c>
+      <c r="C92" s="23"/>
+    </row>
+    <row r="93" spans="1:4" ht="24">
+      <c r="A93" s="21" t="s">
+        <v>234</v>
+      </c>
+      <c r="B93" s="23" t="s">
+        <v>768</v>
+      </c>
+      <c r="C93" s="23"/>
+    </row>
+    <row r="94" spans="1:4" ht="24">
+      <c r="A94" s="21" t="s">
+        <v>623</v>
+      </c>
+      <c r="B94" s="23" t="s">
+        <v>707</v>
+      </c>
+      <c r="C94" s="23"/>
+    </row>
+    <row r="95" spans="1:4" ht="24">
+      <c r="A95" s="21" t="s">
+        <v>472</v>
+      </c>
+      <c r="B95" s="23" t="s">
+        <v>466</v>
+      </c>
+      <c r="C95" s="23"/>
+    </row>
+    <row r="96" spans="1:4" ht="24">
+      <c r="A96" s="21" t="s">
+        <v>627</v>
+      </c>
+      <c r="B96" s="23" t="s">
+        <v>703</v>
+      </c>
+      <c r="C96" s="23"/>
+      <c r="D96" s="9"/>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A5:C96">
+    <sortCondition ref="A5:A96"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE17E8DC-C5DA-1E49-AE1C-D1A03DE11DA3}">
   <dimension ref="A1:X37"/>
   <sheetViews>
@@ -6710,7 +8501,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE750D78-E2F3-B742-B882-1710CECA9C5E}">
   <dimension ref="A2:C20"/>
   <sheetViews>
@@ -6897,7 +8688,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B72F937A-4684-FC4D-BDC3-F85FA5A8BEEC}">
   <dimension ref="A2:C46"/>
   <sheetViews>
@@ -7320,7 +9111,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D371A750-118C-6F46-8EB6-D8BED82A7A0D}">
   <dimension ref="A2:D42"/>
   <sheetViews>
@@ -7614,7 +9405,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F683013-E274-BC4D-AA3D-D4742589A444}">
   <dimension ref="A2:C17"/>
   <sheetViews>
@@ -7777,7 +9568,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{986BFAB8-2551-5F4B-8E86-4BE2D8B7FB94}">
   <dimension ref="A2:E20"/>
   <sheetViews>
@@ -7992,7 +9783,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA7AA6E8-CA82-4143-AC8B-E58D08BD738E}">
   <dimension ref="A2:K31"/>
   <sheetViews>
@@ -8575,7 +10366,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{350DAC63-F1A9-8847-8991-89A792935208}">
   <dimension ref="A2:C18"/>
   <sheetViews>
@@ -8727,7 +10518,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A8189FA-8DE2-CE4D-844B-A846D91C12A6}">
   <dimension ref="A1:E16"/>
   <sheetViews>
@@ -8890,231 +10681,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F53271B7-0EAD-D94F-8AA6-BD76BFA13A48}">
-  <dimension ref="A2:C25"/>
-  <sheetViews>
-    <sheetView zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="21"/>
-  <cols>
-    <col min="1" max="1" width="21.625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="1:3" ht="31">
-      <c r="A2" s="19" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="24">
-      <c r="A4" s="28" t="s">
-        <v>77</v>
-      </c>
-      <c r="B4" s="29" t="s">
-        <v>78</v>
-      </c>
-      <c r="C4" s="29" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="24">
-      <c r="A5" s="30" t="s">
-        <v>816</v>
-      </c>
-      <c r="B5" s="31" t="s">
-        <v>817</v>
-      </c>
-      <c r="C5" s="12"/>
-    </row>
-    <row r="6" spans="1:3" ht="24">
-      <c r="A6" s="13" t="s">
-        <v>505</v>
-      </c>
-      <c r="B6" s="14" t="s">
-        <v>506</v>
-      </c>
-      <c r="C6" s="32"/>
-    </row>
-    <row r="7" spans="1:3" ht="24">
-      <c r="A7" s="13" t="s">
-        <v>507</v>
-      </c>
-      <c r="B7" s="14" t="s">
-        <v>508</v>
-      </c>
-      <c r="C7" s="14"/>
-    </row>
-    <row r="8" spans="1:3" ht="24">
-      <c r="A8" s="13" t="s">
-        <v>509</v>
-      </c>
-      <c r="B8" s="14" t="s">
-        <v>510</v>
-      </c>
-      <c r="C8" s="14"/>
-    </row>
-    <row r="9" spans="1:3" ht="24">
-      <c r="A9" s="13" t="s">
-        <v>810</v>
-      </c>
-      <c r="B9" s="14" t="s">
-        <v>811</v>
-      </c>
-      <c r="C9" s="14"/>
-    </row>
-    <row r="10" spans="1:3" ht="24">
-      <c r="A10" s="13" t="s">
-        <v>511</v>
-      </c>
-      <c r="B10" s="14" t="s">
-        <v>512</v>
-      </c>
-      <c r="C10" s="14"/>
-    </row>
-    <row r="11" spans="1:3" ht="24">
-      <c r="A11" s="13" t="s">
-        <v>812</v>
-      </c>
-      <c r="B11" s="14" t="s">
-        <v>813</v>
-      </c>
-      <c r="C11" s="14"/>
-    </row>
-    <row r="12" spans="1:3" ht="24">
-      <c r="A12" s="13" t="s">
-        <v>513</v>
-      </c>
-      <c r="B12" s="14" t="s">
-        <v>514</v>
-      </c>
-      <c r="C12" s="14"/>
-    </row>
-    <row r="13" spans="1:3" ht="24">
-      <c r="A13" s="14" t="s">
-        <v>818</v>
-      </c>
-      <c r="B13" s="14" t="s">
-        <v>820</v>
-      </c>
-      <c r="C13" s="14"/>
-    </row>
-    <row r="14" spans="1:3" ht="24">
-      <c r="A14" s="14" t="s">
-        <v>819</v>
-      </c>
-      <c r="B14" s="14" t="s">
-        <v>821</v>
-      </c>
-      <c r="C14" s="14"/>
-    </row>
-    <row r="15" spans="1:3" ht="24">
-      <c r="A15" s="13" t="s">
-        <v>515</v>
-      </c>
-      <c r="B15" s="14" t="s">
-        <v>516</v>
-      </c>
-      <c r="C15" s="14"/>
-    </row>
-    <row r="16" spans="1:3" ht="24">
-      <c r="A16" s="13" t="s">
-        <v>517</v>
-      </c>
-      <c r="B16" s="14" t="s">
-        <v>518</v>
-      </c>
-      <c r="C16" s="14"/>
-    </row>
-    <row r="17" spans="1:3" ht="24">
-      <c r="A17" s="13" t="s">
-        <v>519</v>
-      </c>
-      <c r="B17" s="14" t="s">
-        <v>520</v>
-      </c>
-      <c r="C17" s="14"/>
-    </row>
-    <row r="18" spans="1:3" ht="24">
-      <c r="A18" s="13" t="s">
-        <v>521</v>
-      </c>
-      <c r="B18" s="14" t="s">
-        <v>522</v>
-      </c>
-      <c r="C18" s="14"/>
-    </row>
-    <row r="19" spans="1:3" ht="24">
-      <c r="A19" s="30" t="s">
-        <v>806</v>
-      </c>
-      <c r="B19" s="31" t="s">
-        <v>807</v>
-      </c>
-      <c r="C19" s="14"/>
-    </row>
-    <row r="20" spans="1:3" ht="24">
-      <c r="A20" s="13" t="s">
-        <v>808</v>
-      </c>
-      <c r="B20" s="14" t="s">
-        <v>809</v>
-      </c>
-      <c r="C20" s="32"/>
-    </row>
-    <row r="21" spans="1:3" ht="24">
-      <c r="A21" s="13" t="s">
-        <v>814</v>
-      </c>
-      <c r="B21" s="14" t="s">
-        <v>815</v>
-      </c>
-      <c r="C21" s="32"/>
-    </row>
-    <row r="22" spans="1:3" ht="24">
-      <c r="A22" s="13" t="s">
-        <v>1450</v>
-      </c>
-      <c r="B22" s="14" t="s">
-        <v>1449</v>
-      </c>
-      <c r="C22" s="32"/>
-    </row>
-    <row r="23" spans="1:3" ht="24">
-      <c r="A23" s="13" t="s">
-        <v>822</v>
-      </c>
-      <c r="B23" s="14" t="s">
-        <v>823</v>
-      </c>
-      <c r="C23" s="32"/>
-    </row>
-    <row r="24" spans="1:3" ht="24">
-      <c r="A24" s="13" t="s">
-        <v>822</v>
-      </c>
-      <c r="B24" s="14" t="s">
-        <v>823</v>
-      </c>
-      <c r="C24" s="14"/>
-    </row>
-    <row r="25" spans="1:3" ht="24">
-      <c r="A25" s="13" t="s">
-        <v>1452</v>
-      </c>
-      <c r="B25" s="14" t="s">
-        <v>1451</v>
-      </c>
-      <c r="C25" s="14"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
@@ -9347,6 +10913,231 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F53271B7-0EAD-D94F-8AA6-BD76BFA13A48}">
+  <dimension ref="A2:C25"/>
+  <sheetViews>
+    <sheetView zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="21"/>
+  <cols>
+    <col min="1" max="1" width="21.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:3" ht="31">
+      <c r="A2" s="19" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="24">
+      <c r="A4" s="28" t="s">
+        <v>77</v>
+      </c>
+      <c r="B4" s="29" t="s">
+        <v>78</v>
+      </c>
+      <c r="C4" s="29" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="24">
+      <c r="A5" s="30" t="s">
+        <v>816</v>
+      </c>
+      <c r="B5" s="31" t="s">
+        <v>817</v>
+      </c>
+      <c r="C5" s="12"/>
+    </row>
+    <row r="6" spans="1:3" ht="24">
+      <c r="A6" s="13" t="s">
+        <v>505</v>
+      </c>
+      <c r="B6" s="14" t="s">
+        <v>506</v>
+      </c>
+      <c r="C6" s="32"/>
+    </row>
+    <row r="7" spans="1:3" ht="24">
+      <c r="A7" s="13" t="s">
+        <v>507</v>
+      </c>
+      <c r="B7" s="14" t="s">
+        <v>508</v>
+      </c>
+      <c r="C7" s="14"/>
+    </row>
+    <row r="8" spans="1:3" ht="24">
+      <c r="A8" s="13" t="s">
+        <v>509</v>
+      </c>
+      <c r="B8" s="14" t="s">
+        <v>510</v>
+      </c>
+      <c r="C8" s="14"/>
+    </row>
+    <row r="9" spans="1:3" ht="24">
+      <c r="A9" s="13" t="s">
+        <v>810</v>
+      </c>
+      <c r="B9" s="14" t="s">
+        <v>811</v>
+      </c>
+      <c r="C9" s="14"/>
+    </row>
+    <row r="10" spans="1:3" ht="24">
+      <c r="A10" s="13" t="s">
+        <v>511</v>
+      </c>
+      <c r="B10" s="14" t="s">
+        <v>512</v>
+      </c>
+      <c r="C10" s="14"/>
+    </row>
+    <row r="11" spans="1:3" ht="24">
+      <c r="A11" s="13" t="s">
+        <v>812</v>
+      </c>
+      <c r="B11" s="14" t="s">
+        <v>813</v>
+      </c>
+      <c r="C11" s="14"/>
+    </row>
+    <row r="12" spans="1:3" ht="24">
+      <c r="A12" s="13" t="s">
+        <v>513</v>
+      </c>
+      <c r="B12" s="14" t="s">
+        <v>514</v>
+      </c>
+      <c r="C12" s="14"/>
+    </row>
+    <row r="13" spans="1:3" ht="24">
+      <c r="A13" s="14" t="s">
+        <v>818</v>
+      </c>
+      <c r="B13" s="14" t="s">
+        <v>820</v>
+      </c>
+      <c r="C13" s="14"/>
+    </row>
+    <row r="14" spans="1:3" ht="24">
+      <c r="A14" s="14" t="s">
+        <v>819</v>
+      </c>
+      <c r="B14" s="14" t="s">
+        <v>821</v>
+      </c>
+      <c r="C14" s="14"/>
+    </row>
+    <row r="15" spans="1:3" ht="24">
+      <c r="A15" s="13" t="s">
+        <v>515</v>
+      </c>
+      <c r="B15" s="14" t="s">
+        <v>516</v>
+      </c>
+      <c r="C15" s="14"/>
+    </row>
+    <row r="16" spans="1:3" ht="24">
+      <c r="A16" s="13" t="s">
+        <v>517</v>
+      </c>
+      <c r="B16" s="14" t="s">
+        <v>518</v>
+      </c>
+      <c r="C16" s="14"/>
+    </row>
+    <row r="17" spans="1:3" ht="24">
+      <c r="A17" s="13" t="s">
+        <v>519</v>
+      </c>
+      <c r="B17" s="14" t="s">
+        <v>520</v>
+      </c>
+      <c r="C17" s="14"/>
+    </row>
+    <row r="18" spans="1:3" ht="24">
+      <c r="A18" s="13" t="s">
+        <v>521</v>
+      </c>
+      <c r="B18" s="14" t="s">
+        <v>522</v>
+      </c>
+      <c r="C18" s="14"/>
+    </row>
+    <row r="19" spans="1:3" ht="24">
+      <c r="A19" s="30" t="s">
+        <v>806</v>
+      </c>
+      <c r="B19" s="31" t="s">
+        <v>807</v>
+      </c>
+      <c r="C19" s="14"/>
+    </row>
+    <row r="20" spans="1:3" ht="24">
+      <c r="A20" s="13" t="s">
+        <v>808</v>
+      </c>
+      <c r="B20" s="14" t="s">
+        <v>809</v>
+      </c>
+      <c r="C20" s="32"/>
+    </row>
+    <row r="21" spans="1:3" ht="24">
+      <c r="A21" s="13" t="s">
+        <v>814</v>
+      </c>
+      <c r="B21" s="14" t="s">
+        <v>815</v>
+      </c>
+      <c r="C21" s="32"/>
+    </row>
+    <row r="22" spans="1:3" ht="24">
+      <c r="A22" s="13" t="s">
+        <v>1450</v>
+      </c>
+      <c r="B22" s="14" t="s">
+        <v>1449</v>
+      </c>
+      <c r="C22" s="32"/>
+    </row>
+    <row r="23" spans="1:3" ht="24">
+      <c r="A23" s="13" t="s">
+        <v>822</v>
+      </c>
+      <c r="B23" s="14" t="s">
+        <v>823</v>
+      </c>
+      <c r="C23" s="32"/>
+    </row>
+    <row r="24" spans="1:3" ht="24">
+      <c r="A24" s="13" t="s">
+        <v>822</v>
+      </c>
+      <c r="B24" s="14" t="s">
+        <v>823</v>
+      </c>
+      <c r="C24" s="14"/>
+    </row>
+    <row r="25" spans="1:3" ht="24">
+      <c r="A25" s="13" t="s">
+        <v>1452</v>
+      </c>
+      <c r="B25" s="14" t="s">
+        <v>1451</v>
+      </c>
+      <c r="C25" s="14"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B274FF1E-1838-214B-B5DD-642DFDA172AC}">
   <dimension ref="A2:C13"/>
   <sheetViews>
@@ -9469,7 +11260,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1446148E-86CD-C745-8E28-605EED3FB402}">
   <dimension ref="A2:D64"/>
   <sheetViews>
@@ -9987,7 +11778,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{515B1972-D3D7-3442-9E74-B079BA9D4035}">
   <dimension ref="A2:C38"/>
   <sheetViews>
@@ -10203,16 +11994,16 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB36050E-0104-0341-9D1D-396F77732371}">
-  <dimension ref="A2:O262"/>
+  <dimension ref="A2:O246"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B146" sqref="B146"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="21"/>
   <cols>
     <col min="1" max="1" width="28.75" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="47.875" customWidth="1"/>
+    <col min="2" max="2" width="60.375" customWidth="1"/>
     <col min="3" max="3" width="39.875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="25.625" customWidth="1"/>
   </cols>
@@ -10297,14 +12088,12 @@
     </row>
     <row r="8" spans="1:15" ht="24">
       <c r="A8" s="21" t="s">
-        <v>1461</v>
+        <v>881</v>
       </c>
       <c r="B8" s="21" t="s">
-        <v>1462</v>
-      </c>
-      <c r="C8" s="21" t="s">
-        <v>1463</v>
-      </c>
+        <v>882</v>
+      </c>
+      <c r="C8" s="21"/>
       <c r="E8" s="9"/>
       <c r="F8" s="9"/>
       <c r="G8" s="9"/>
@@ -10319,12 +12108,14 @@
     </row>
     <row r="9" spans="1:15" ht="24">
       <c r="A9" s="21" t="s">
-        <v>881</v>
+        <v>1461</v>
       </c>
       <c r="B9" s="21" t="s">
-        <v>882</v>
-      </c>
-      <c r="C9" s="21"/>
+        <v>1462</v>
+      </c>
+      <c r="C9" s="21" t="s">
+        <v>1463</v>
+      </c>
       <c r="E9" s="9"/>
       <c r="F9" s="9"/>
       <c r="G9" s="9"/>
@@ -10470,10 +12261,10 @@
     </row>
     <row r="17" spans="1:15" ht="24">
       <c r="A17" s="21" t="s">
-        <v>1454</v>
+        <v>771</v>
       </c>
       <c r="B17" s="21" t="s">
-        <v>1455</v>
+        <v>772</v>
       </c>
       <c r="C17" s="21"/>
       <c r="E17" s="9"/>
@@ -10490,10 +12281,10 @@
     </row>
     <row r="18" spans="1:15" ht="24">
       <c r="A18" s="21" t="s">
-        <v>771</v>
+        <v>1454</v>
       </c>
       <c r="B18" s="21" t="s">
-        <v>772</v>
+        <v>1455</v>
       </c>
       <c r="C18" s="21"/>
       <c r="E18" s="9"/>
@@ -10570,12 +12361,12 @@
       <c r="N21" s="9"/>
       <c r="O21" s="9"/>
     </row>
-    <row r="22" spans="1:15" ht="24">
-      <c r="A22" s="21" t="s">
-        <v>859</v>
-      </c>
-      <c r="B22" s="21" t="s">
-        <v>860</v>
+    <row r="22" spans="1:15" ht="25">
+      <c r="A22" s="47" t="s">
+        <v>1574</v>
+      </c>
+      <c r="B22" s="47" t="s">
+        <v>1575</v>
       </c>
       <c r="C22" s="21"/>
       <c r="E22" s="9"/>
@@ -10590,12 +12381,12 @@
       <c r="N22" s="9"/>
       <c r="O22" s="9"/>
     </row>
-    <row r="23" spans="1:15" ht="24">
-      <c r="A23" s="21" t="s">
-        <v>600</v>
-      </c>
-      <c r="B23" s="21" t="s">
-        <v>601</v>
+    <row r="23" spans="1:15" ht="25">
+      <c r="A23" s="47" t="s">
+        <v>1571</v>
+      </c>
+      <c r="B23" s="47" t="s">
+        <v>1572</v>
       </c>
       <c r="C23" s="21"/>
       <c r="D23" s="9"/>
@@ -10613,10 +12404,10 @@
     </row>
     <row r="24" spans="1:15" ht="24">
       <c r="A24" s="21" t="s">
-        <v>921</v>
+        <v>859</v>
       </c>
       <c r="B24" s="21" t="s">
-        <v>922</v>
+        <v>860</v>
       </c>
       <c r="C24" s="21"/>
       <c r="E24" s="9"/>
@@ -10633,10 +12424,10 @@
     </row>
     <row r="25" spans="1:15" ht="24">
       <c r="A25" s="21" t="s">
-        <v>1129</v>
+        <v>600</v>
       </c>
       <c r="B25" s="21" t="s">
-        <v>1137</v>
+        <v>601</v>
       </c>
       <c r="C25" s="21"/>
       <c r="D25" s="9"/>
@@ -10654,10 +12445,10 @@
     </row>
     <row r="26" spans="1:15" ht="24">
       <c r="A26" s="21" t="s">
-        <v>178</v>
+        <v>921</v>
       </c>
       <c r="B26" s="21" t="s">
-        <v>196</v>
+        <v>922</v>
       </c>
       <c r="C26" s="21"/>
       <c r="E26" s="9"/>
@@ -10674,10 +12465,10 @@
     </row>
     <row r="27" spans="1:15" ht="24">
       <c r="A27" s="21" t="s">
-        <v>205</v>
+        <v>1129</v>
       </c>
       <c r="B27" s="21" t="s">
-        <v>932</v>
+        <v>1137</v>
       </c>
       <c r="C27" s="21"/>
       <c r="D27" s="9"/>
@@ -10695,10 +12486,10 @@
     </row>
     <row r="28" spans="1:15" ht="24">
       <c r="A28" s="21" t="s">
-        <v>201</v>
+        <v>178</v>
       </c>
       <c r="B28" s="21" t="s">
-        <v>219</v>
+        <v>196</v>
       </c>
       <c r="C28" s="21"/>
       <c r="E28" s="9"/>
@@ -10715,10 +12506,10 @@
     </row>
     <row r="29" spans="1:15" ht="24">
       <c r="A29" s="21" t="s">
-        <v>925</v>
+        <v>205</v>
       </c>
       <c r="B29" s="21" t="s">
-        <v>926</v>
+        <v>932</v>
       </c>
       <c r="C29" s="21"/>
       <c r="D29" s="9"/>
@@ -10736,10 +12527,10 @@
     </row>
     <row r="30" spans="1:15" ht="24">
       <c r="A30" s="21" t="s">
-        <v>1164</v>
+        <v>201</v>
       </c>
       <c r="B30" s="21" t="s">
-        <v>1165</v>
+        <v>219</v>
       </c>
       <c r="C30" s="21"/>
       <c r="E30" s="9"/>
@@ -10756,10 +12547,10 @@
     </row>
     <row r="31" spans="1:15" ht="24">
       <c r="A31" s="21" t="s">
-        <v>179</v>
+        <v>925</v>
       </c>
       <c r="B31" s="21" t="s">
-        <v>169</v>
+        <v>926</v>
       </c>
       <c r="C31" s="21"/>
       <c r="D31" s="9"/>
@@ -10775,12 +12566,12 @@
       <c r="N31" s="9"/>
       <c r="O31" s="9"/>
     </row>
-    <row r="32" spans="1:15" ht="24">
-      <c r="A32" s="21" t="s">
-        <v>197</v>
-      </c>
-      <c r="B32" s="21" t="s">
-        <v>198</v>
+    <row r="32" spans="1:15" ht="25">
+      <c r="A32" s="47" t="s">
+        <v>1592</v>
+      </c>
+      <c r="B32" s="47" t="s">
+        <v>1593</v>
       </c>
       <c r="C32" s="21"/>
       <c r="E32" s="9"/>
@@ -10797,10 +12588,10 @@
     </row>
     <row r="33" spans="1:15" ht="24">
       <c r="A33" s="21" t="s">
-        <v>590</v>
+        <v>1164</v>
       </c>
       <c r="B33" s="21" t="s">
-        <v>591</v>
+        <v>1165</v>
       </c>
       <c r="C33" s="21"/>
       <c r="D33" s="9"/>
@@ -10818,10 +12609,10 @@
     </row>
     <row r="34" spans="1:15" ht="24">
       <c r="A34" s="21" t="s">
-        <v>579</v>
+        <v>179</v>
       </c>
       <c r="B34" s="21" t="s">
-        <v>580</v>
+        <v>169</v>
       </c>
       <c r="C34" s="21"/>
       <c r="E34" s="9"/>
@@ -10838,14 +12629,12 @@
     </row>
     <row r="35" spans="1:15" ht="24">
       <c r="A35" s="21" t="s">
-        <v>1138</v>
+        <v>197</v>
       </c>
       <c r="B35" s="21" t="s">
-        <v>1139</v>
-      </c>
-      <c r="C35" s="21" t="s">
-        <v>1140</v>
-      </c>
+        <v>198</v>
+      </c>
+      <c r="C35" s="21"/>
       <c r="D35" s="9"/>
       <c r="E35" s="9"/>
       <c r="F35" s="9"/>
@@ -10861,10 +12650,10 @@
     </row>
     <row r="36" spans="1:15" ht="24">
       <c r="A36" s="21" t="s">
-        <v>248</v>
+        <v>590</v>
       </c>
       <c r="B36" s="21" t="s">
-        <v>249</v>
+        <v>591</v>
       </c>
       <c r="C36" s="21"/>
       <c r="E36" s="9"/>
@@ -10881,10 +12670,10 @@
     </row>
     <row r="37" spans="1:15" ht="24">
       <c r="A37" s="21" t="s">
-        <v>188</v>
+        <v>579</v>
       </c>
       <c r="B37" s="21" t="s">
-        <v>1000</v>
+        <v>580</v>
       </c>
       <c r="C37" s="21"/>
       <c r="D37" s="9"/>
@@ -10902,19 +12691,21 @@
     </row>
     <row r="38" spans="1:15" ht="25" customHeight="1">
       <c r="A38" s="21" t="s">
-        <v>571</v>
+        <v>1138</v>
       </c>
       <c r="B38" s="21" t="s">
-        <v>572</v>
-      </c>
-      <c r="C38" s="21"/>
+        <v>1139</v>
+      </c>
+      <c r="C38" s="21" t="s">
+        <v>1140</v>
+      </c>
     </row>
     <row r="39" spans="1:15" ht="24">
       <c r="A39" s="21" t="s">
-        <v>1141</v>
+        <v>248</v>
       </c>
       <c r="B39" s="21" t="s">
-        <v>1142</v>
+        <v>249</v>
       </c>
       <c r="C39" s="21"/>
       <c r="D39" s="9"/>
@@ -10932,10 +12723,10 @@
     </row>
     <row r="40" spans="1:15" ht="24">
       <c r="A40" s="21" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="B40" s="21" t="s">
-        <v>183</v>
+        <v>1000</v>
       </c>
       <c r="C40" s="21"/>
       <c r="E40" s="9"/>
@@ -10952,14 +12743,12 @@
     </row>
     <row r="41" spans="1:15" ht="24">
       <c r="A41" s="21" t="s">
-        <v>182</v>
+        <v>571</v>
       </c>
       <c r="B41" s="21" t="s">
-        <v>172</v>
-      </c>
-      <c r="C41" s="21" t="s">
-        <v>235</v>
-      </c>
+        <v>572</v>
+      </c>
+      <c r="C41" s="21"/>
       <c r="E41" s="9"/>
       <c r="F41" s="9"/>
       <c r="G41" s="9"/>
@@ -10974,10 +12763,10 @@
     </row>
     <row r="42" spans="1:15" ht="24">
       <c r="A42" s="21" t="s">
-        <v>569</v>
+        <v>1141</v>
       </c>
       <c r="B42" s="21" t="s">
-        <v>570</v>
+        <v>1142</v>
       </c>
       <c r="C42" s="21"/>
       <c r="D42" s="9"/>
@@ -10995,10 +12784,10 @@
     </row>
     <row r="43" spans="1:15" ht="24">
       <c r="A43" s="21" t="s">
-        <v>403</v>
+        <v>184</v>
       </c>
       <c r="B43" s="21" t="s">
-        <v>404</v>
+        <v>183</v>
       </c>
       <c r="C43" s="21"/>
       <c r="E43" s="9"/>
@@ -11015,12 +12804,14 @@
     </row>
     <row r="44" spans="1:15" ht="24">
       <c r="A44" s="21" t="s">
-        <v>723</v>
+        <v>182</v>
       </c>
       <c r="B44" s="21" t="s">
-        <v>724</v>
-      </c>
-      <c r="C44" s="21"/>
+        <v>172</v>
+      </c>
+      <c r="C44" s="21" t="s">
+        <v>235</v>
+      </c>
       <c r="D44" s="9"/>
       <c r="E44" s="9"/>
       <c r="F44" s="9"/>
@@ -11036,10 +12827,10 @@
     </row>
     <row r="45" spans="1:15" ht="24">
       <c r="A45" s="21" t="s">
-        <v>931</v>
+        <v>569</v>
       </c>
       <c r="B45" s="21" t="s">
-        <v>1329</v>
+        <v>570</v>
       </c>
       <c r="C45" s="21"/>
       <c r="E45" s="9"/>
@@ -11056,10 +12847,10 @@
     </row>
     <row r="46" spans="1:15" ht="24">
       <c r="A46" s="21" t="s">
-        <v>189</v>
+        <v>403</v>
       </c>
       <c r="B46" s="21" t="s">
-        <v>1330</v>
+        <v>404</v>
       </c>
       <c r="C46" s="21"/>
       <c r="D46" s="9"/>
@@ -11077,10 +12868,10 @@
     </row>
     <row r="47" spans="1:15" ht="24">
       <c r="A47" s="21" t="s">
-        <v>1143</v>
+        <v>723</v>
       </c>
       <c r="B47" s="21" t="s">
-        <v>1144</v>
+        <v>724</v>
       </c>
       <c r="C47" s="21"/>
       <c r="E47" s="9"/>
@@ -11095,12 +12886,12 @@
       <c r="N47" s="9"/>
       <c r="O47" s="9"/>
     </row>
-    <row r="48" spans="1:15" ht="24">
-      <c r="A48" s="21" t="s">
-        <v>321</v>
-      </c>
-      <c r="B48" s="21" t="s">
-        <v>322</v>
+    <row r="48" spans="1:15" ht="25">
+      <c r="A48" s="47" t="s">
+        <v>1578</v>
+      </c>
+      <c r="B48" s="47" t="s">
+        <v>1579</v>
       </c>
       <c r="C48" s="21"/>
       <c r="D48" s="9"/>
@@ -11118,10 +12909,10 @@
     </row>
     <row r="49" spans="1:15" ht="24">
       <c r="A49" s="21" t="s">
-        <v>781</v>
+        <v>931</v>
       </c>
       <c r="B49" s="21" t="s">
-        <v>782</v>
+        <v>1329</v>
       </c>
       <c r="C49" s="21"/>
       <c r="E49" s="9"/>
@@ -11138,10 +12929,10 @@
     </row>
     <row r="50" spans="1:15" ht="24">
       <c r="A50" s="21" t="s">
-        <v>777</v>
+        <v>189</v>
       </c>
       <c r="B50" s="21" t="s">
-        <v>778</v>
+        <v>1330</v>
       </c>
       <c r="C50" s="21"/>
       <c r="E50" s="9"/>
@@ -11158,67 +12949,67 @@
     </row>
     <row r="51" spans="1:15" ht="24">
       <c r="A51" s="21" t="s">
-        <v>1145</v>
+        <v>1143</v>
       </c>
       <c r="B51" s="21" t="s">
-        <v>245</v>
+        <v>1144</v>
       </c>
       <c r="C51" s="21"/>
       <c r="D51" s="9"/>
     </row>
     <row r="52" spans="1:15" ht="24">
       <c r="A52" s="21" t="s">
-        <v>1146</v>
+        <v>321</v>
       </c>
       <c r="B52" s="21" t="s">
-        <v>1147</v>
+        <v>322</v>
       </c>
       <c r="C52" s="21"/>
     </row>
     <row r="53" spans="1:15" ht="24">
       <c r="A53" s="21" t="s">
-        <v>162</v>
+        <v>781</v>
       </c>
       <c r="B53" s="21" t="s">
-        <v>163</v>
+        <v>782</v>
       </c>
       <c r="C53" s="21"/>
       <c r="D53" s="9"/>
     </row>
     <row r="54" spans="1:15" ht="24">
       <c r="A54" s="21" t="s">
-        <v>202</v>
+        <v>777</v>
       </c>
       <c r="B54" s="21" t="s">
-        <v>220</v>
+        <v>778</v>
       </c>
       <c r="C54" s="21"/>
     </row>
     <row r="55" spans="1:15" ht="24">
       <c r="A55" s="21" t="s">
-        <v>229</v>
+        <v>1145</v>
       </c>
       <c r="B55" s="21" t="s">
-        <v>230</v>
+        <v>245</v>
       </c>
       <c r="C55" s="21"/>
       <c r="D55" s="9"/>
     </row>
     <row r="56" spans="1:15" ht="24">
       <c r="A56" s="21" t="s">
-        <v>192</v>
+        <v>1146</v>
       </c>
       <c r="B56" s="21" t="s">
-        <v>193</v>
+        <v>1147</v>
       </c>
       <c r="C56" s="21"/>
     </row>
     <row r="57" spans="1:15" ht="24">
       <c r="A57" s="21" t="s">
-        <v>194</v>
+        <v>162</v>
       </c>
       <c r="B57" s="21" t="s">
-        <v>195</v>
+        <v>163</v>
       </c>
       <c r="C57" s="21"/>
       <c r="D57" s="9"/>
@@ -11236,922 +13027,982 @@
     </row>
     <row r="58" spans="1:15" ht="24">
       <c r="A58" s="21" t="s">
-        <v>795</v>
+        <v>202</v>
       </c>
       <c r="B58" s="21" t="s">
-        <v>796</v>
+        <v>220</v>
       </c>
       <c r="C58" s="21"/>
     </row>
     <row r="59" spans="1:15" ht="24">
       <c r="A59" s="21" t="s">
-        <v>203</v>
+        <v>229</v>
       </c>
       <c r="B59" s="21" t="s">
-        <v>221</v>
+        <v>230</v>
       </c>
       <c r="C59" s="21"/>
     </row>
     <row r="60" spans="1:15" ht="24">
       <c r="A60" s="21" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="B60" s="21" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="C60" s="21"/>
       <c r="D60" s="9"/>
     </row>
     <row r="61" spans="1:15" ht="24">
       <c r="A61" s="21" t="s">
-        <v>725</v>
+        <v>194</v>
       </c>
       <c r="B61" s="21" t="s">
-        <v>726</v>
+        <v>195</v>
       </c>
       <c r="C61" s="21"/>
     </row>
-    <row r="62" spans="1:15" ht="24">
-      <c r="A62" s="21" t="s">
-        <v>233</v>
-      </c>
-      <c r="B62" s="21" t="s">
-        <v>240</v>
+    <row r="62" spans="1:15" ht="25">
+      <c r="A62" s="47" t="s">
+        <v>1582</v>
+      </c>
+      <c r="B62" s="47" t="s">
+        <v>1583</v>
       </c>
       <c r="C62" s="21"/>
       <c r="D62" s="9"/>
     </row>
     <row r="63" spans="1:15" ht="24">
       <c r="A63" s="21" t="s">
-        <v>204</v>
+        <v>795</v>
       </c>
       <c r="B63" s="21" t="s">
-        <v>217</v>
+        <v>796</v>
       </c>
       <c r="C63" s="21"/>
     </row>
     <row r="64" spans="1:15" ht="24">
       <c r="A64" s="21" t="s">
-        <v>849</v>
+        <v>203</v>
       </c>
       <c r="B64" s="21" t="s">
-        <v>850</v>
+        <v>221</v>
       </c>
       <c r="C64" s="21"/>
       <c r="D64" s="9"/>
     </row>
     <row r="65" spans="1:4" ht="24">
       <c r="A65" s="21" t="s">
-        <v>1148</v>
+        <v>190</v>
       </c>
       <c r="B65" s="21" t="s">
-        <v>563</v>
+        <v>191</v>
       </c>
       <c r="C65" s="21"/>
     </row>
     <row r="66" spans="1:4" ht="24">
       <c r="A66" s="21" t="s">
-        <v>857</v>
+        <v>725</v>
       </c>
       <c r="B66" s="21" t="s">
-        <v>858</v>
-      </c>
-      <c r="C66" s="23"/>
+        <v>726</v>
+      </c>
+      <c r="C66" s="21"/>
     </row>
     <row r="67" spans="1:4" ht="24">
       <c r="A67" s="21" t="s">
-        <v>1128</v>
+        <v>233</v>
       </c>
       <c r="B67" s="21" t="s">
-        <v>1127</v>
+        <v>240</v>
       </c>
       <c r="C67" s="21"/>
       <c r="D67" s="9"/>
     </row>
     <row r="68" spans="1:4" ht="24">
       <c r="A68" s="21" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="B68" s="21" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C68" s="21"/>
     </row>
     <row r="69" spans="1:4" ht="24">
       <c r="A69" s="21" t="s">
-        <v>1160</v>
+        <v>849</v>
       </c>
       <c r="B69" s="21" t="s">
-        <v>1161</v>
+        <v>850</v>
       </c>
       <c r="C69" s="21"/>
       <c r="D69" s="9"/>
     </row>
-    <row r="70" spans="1:4" ht="24">
-      <c r="A70" s="21" t="s">
-        <v>250</v>
-      </c>
-      <c r="B70" s="21" t="s">
-        <v>251</v>
-      </c>
-      <c r="C70" s="21"/>
+    <row r="70" spans="1:4" ht="25">
+      <c r="A70" s="47" t="s">
+        <v>1584</v>
+      </c>
+      <c r="B70" s="47" t="s">
+        <v>1585</v>
+      </c>
+      <c r="C70" s="23"/>
     </row>
     <row r="71" spans="1:4" ht="24">
       <c r="A71" s="21" t="s">
-        <v>804</v>
+        <v>1148</v>
       </c>
       <c r="B71" s="21" t="s">
-        <v>805</v>
+        <v>563</v>
       </c>
       <c r="C71" s="21"/>
       <c r="D71" s="9"/>
     </row>
     <row r="72" spans="1:4" ht="24">
       <c r="A72" s="21" t="s">
-        <v>799</v>
+        <v>857</v>
       </c>
       <c r="B72" s="21" t="s">
-        <v>1107</v>
-      </c>
-      <c r="C72" s="21"/>
+        <v>858</v>
+      </c>
+      <c r="C72" s="23"/>
     </row>
     <row r="73" spans="1:4" ht="24">
       <c r="A73" s="21" t="s">
-        <v>1162</v>
+        <v>1128</v>
       </c>
       <c r="B73" s="21" t="s">
-        <v>1163</v>
+        <v>1127</v>
       </c>
       <c r="C73" s="21"/>
     </row>
     <row r="74" spans="1:4" ht="24">
       <c r="A74" s="21" t="s">
-        <v>917</v>
+        <v>200</v>
       </c>
       <c r="B74" s="21" t="s">
-        <v>574</v>
+        <v>218</v>
       </c>
       <c r="C74" s="21"/>
     </row>
     <row r="75" spans="1:4" ht="24">
       <c r="A75" s="21" t="s">
-        <v>919</v>
+        <v>1160</v>
       </c>
       <c r="B75" s="21" t="s">
-        <v>920</v>
+        <v>1161</v>
       </c>
       <c r="C75" s="21"/>
       <c r="D75" s="9"/>
     </row>
     <row r="76" spans="1:4" ht="24">
       <c r="A76" s="21" t="s">
-        <v>207</v>
+        <v>250</v>
       </c>
       <c r="B76" s="21" t="s">
-        <v>224</v>
-      </c>
-      <c r="C76" s="21" t="s">
-        <v>918</v>
-      </c>
+        <v>251</v>
+      </c>
+      <c r="C76" s="21"/>
     </row>
     <row r="77" spans="1:4" ht="24">
       <c r="A77" s="21" t="s">
-        <v>800</v>
+        <v>804</v>
       </c>
       <c r="B77" s="21" t="s">
-        <v>801</v>
+        <v>805</v>
       </c>
       <c r="C77" s="21"/>
       <c r="D77" s="9"/>
     </row>
     <row r="78" spans="1:4" ht="24">
       <c r="A78" s="21" t="s">
-        <v>994</v>
+        <v>799</v>
       </c>
       <c r="B78" s="21" t="s">
-        <v>993</v>
+        <v>1107</v>
       </c>
       <c r="C78" s="21"/>
     </row>
     <row r="79" spans="1:4" ht="24">
       <c r="A79" s="21" t="s">
-        <v>1457</v>
+        <v>1162</v>
       </c>
       <c r="B79" s="21" t="s">
-        <v>1458</v>
+        <v>1163</v>
       </c>
       <c r="C79" s="21"/>
     </row>
-    <row r="80" spans="1:4" ht="24">
-      <c r="A80" s="21" t="s">
-        <v>284</v>
-      </c>
-      <c r="B80" s="21" t="s">
-        <v>285</v>
+    <row r="80" spans="1:4" ht="50">
+      <c r="A80" s="47" t="s">
+        <v>1594</v>
+      </c>
+      <c r="B80" s="49" t="s">
+        <v>1595</v>
       </c>
       <c r="C80" s="21"/>
       <c r="D80" s="9"/>
     </row>
     <row r="81" spans="1:4" ht="24">
       <c r="A81" s="21" t="s">
-        <v>927</v>
+        <v>917</v>
       </c>
       <c r="B81" s="21" t="s">
-        <v>929</v>
+        <v>574</v>
       </c>
       <c r="C81" s="21"/>
     </row>
     <row r="82" spans="1:4" ht="24">
       <c r="A82" s="21" t="s">
-        <v>928</v>
+        <v>919</v>
       </c>
       <c r="B82" s="21" t="s">
-        <v>930</v>
+        <v>920</v>
       </c>
       <c r="C82" s="21"/>
     </row>
     <row r="83" spans="1:4" ht="24">
       <c r="A83" s="21" t="s">
-        <v>923</v>
+        <v>207</v>
       </c>
       <c r="B83" s="21" t="s">
-        <v>924</v>
-      </c>
-      <c r="C83" s="21"/>
+        <v>224</v>
+      </c>
+      <c r="C83" s="21" t="s">
+        <v>918</v>
+      </c>
     </row>
     <row r="84" spans="1:4" ht="24">
       <c r="A84" s="21" t="s">
-        <v>577</v>
+        <v>800</v>
       </c>
       <c r="B84" s="21" t="s">
-        <v>578</v>
+        <v>801</v>
       </c>
       <c r="C84" s="21"/>
       <c r="D84" s="9"/>
     </row>
     <row r="85" spans="1:4" ht="24">
       <c r="A85" s="21" t="s">
-        <v>588</v>
+        <v>994</v>
       </c>
       <c r="B85" s="21" t="s">
-        <v>589</v>
+        <v>993</v>
       </c>
       <c r="C85" s="21"/>
     </row>
-    <row r="86" spans="1:4" ht="24">
-      <c r="A86" s="21" t="s">
-        <v>336</v>
-      </c>
-      <c r="B86" s="21" t="s">
-        <v>243</v>
+    <row r="86" spans="1:4" ht="25">
+      <c r="A86" s="47" t="s">
+        <v>1580</v>
+      </c>
+      <c r="B86" s="47" t="s">
+        <v>1581</v>
       </c>
       <c r="C86" s="21"/>
       <c r="D86" s="9"/>
     </row>
     <row r="87" spans="1:4" ht="24">
       <c r="A87" s="21" t="s">
-        <v>215</v>
+        <v>1457</v>
       </c>
       <c r="B87" s="21" t="s">
-        <v>216</v>
+        <v>1458</v>
       </c>
       <c r="C87" s="21"/>
     </row>
     <row r="88" spans="1:4" ht="24">
       <c r="A88" s="21" t="s">
-        <v>593</v>
+        <v>284</v>
       </c>
       <c r="B88" s="21" t="s">
-        <v>594</v>
+        <v>285</v>
       </c>
       <c r="C88" s="21"/>
     </row>
     <row r="89" spans="1:4" ht="24">
       <c r="A89" s="21" t="s">
-        <v>581</v>
+        <v>927</v>
       </c>
       <c r="B89" s="21" t="s">
-        <v>582</v>
+        <v>929</v>
       </c>
       <c r="C89" s="21"/>
       <c r="D89" s="9"/>
     </row>
     <row r="90" spans="1:4" ht="24">
       <c r="A90" s="21" t="s">
-        <v>853</v>
+        <v>928</v>
       </c>
       <c r="B90" s="21" t="s">
-        <v>854</v>
+        <v>930</v>
       </c>
       <c r="C90" s="21"/>
     </row>
     <row r="91" spans="1:4" ht="24">
       <c r="A91" s="21" t="s">
-        <v>1149</v>
+        <v>923</v>
       </c>
       <c r="B91" s="21" t="s">
-        <v>1150</v>
+        <v>924</v>
       </c>
       <c r="C91" s="21"/>
       <c r="D91" s="9"/>
     </row>
     <row r="92" spans="1:4" ht="24">
       <c r="A92" s="21" t="s">
-        <v>721</v>
+        <v>577</v>
       </c>
       <c r="B92" s="21" t="s">
-        <v>722</v>
+        <v>578</v>
       </c>
       <c r="C92" s="21"/>
     </row>
     <row r="93" spans="1:4" ht="24">
       <c r="A93" s="21" t="s">
-        <v>231</v>
+        <v>588</v>
       </c>
       <c r="B93" s="21" t="s">
-        <v>232</v>
+        <v>589</v>
       </c>
       <c r="C93" s="21"/>
       <c r="D93" s="9"/>
     </row>
     <row r="94" spans="1:4" ht="24">
       <c r="A94" s="21" t="s">
-        <v>252</v>
+        <v>336</v>
       </c>
       <c r="B94" s="21" t="s">
-        <v>253</v>
+        <v>243</v>
       </c>
       <c r="C94" s="21"/>
     </row>
     <row r="95" spans="1:4" ht="24">
       <c r="A95" s="21" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="B95" s="21" t="s">
-        <v>226</v>
+        <v>216</v>
       </c>
       <c r="C95" s="21"/>
       <c r="D95" s="9"/>
     </row>
     <row r="96" spans="1:4" ht="24">
       <c r="A96" s="21" t="s">
-        <v>567</v>
+        <v>1325</v>
       </c>
       <c r="B96" s="21" t="s">
-        <v>568</v>
-      </c>
-      <c r="C96" s="21"/>
+        <v>1327</v>
+      </c>
+      <c r="C96" s="21" t="s">
+        <v>1328</v>
+      </c>
     </row>
     <row r="97" spans="1:4" ht="24">
       <c r="A97" s="21" t="s">
-        <v>769</v>
+        <v>593</v>
       </c>
       <c r="B97" s="21" t="s">
-        <v>770</v>
+        <v>594</v>
       </c>
       <c r="C97" s="21"/>
       <c r="D97" s="9"/>
     </row>
     <row r="98" spans="1:4" ht="24">
       <c r="A98" s="21" t="s">
-        <v>989</v>
+        <v>581</v>
       </c>
       <c r="B98" s="21" t="s">
-        <v>990</v>
+        <v>582</v>
       </c>
       <c r="C98" s="21"/>
     </row>
-    <row r="99" spans="1:4" ht="24">
-      <c r="A99" s="21" t="s">
-        <v>1166</v>
-      </c>
-      <c r="B99" s="21" t="s">
-        <v>587</v>
+    <row r="99" spans="1:4" ht="25">
+      <c r="A99" s="47" t="s">
+        <v>1586</v>
+      </c>
+      <c r="B99" s="47" t="s">
+        <v>1587</v>
       </c>
       <c r="C99" s="21"/>
       <c r="D99" s="9"/>
     </row>
     <row r="100" spans="1:4" ht="24">
       <c r="A100" s="21" t="s">
-        <v>583</v>
+        <v>853</v>
       </c>
       <c r="B100" s="21" t="s">
-        <v>584</v>
+        <v>854</v>
       </c>
       <c r="C100" s="21"/>
     </row>
     <row r="101" spans="1:4" ht="24">
       <c r="A101" s="21" t="s">
-        <v>793</v>
+        <v>1149</v>
       </c>
       <c r="B101" s="21" t="s">
-        <v>794</v>
+        <v>1150</v>
       </c>
       <c r="C101" s="21"/>
       <c r="D101" s="9"/>
     </row>
     <row r="102" spans="1:4" ht="24">
       <c r="A102" s="21" t="s">
-        <v>242</v>
+        <v>721</v>
       </c>
       <c r="B102" s="21" t="s">
-        <v>244</v>
+        <v>722</v>
       </c>
       <c r="C102" s="21"/>
     </row>
     <row r="103" spans="1:4" ht="24">
       <c r="A103" s="21" t="s">
-        <v>1167</v>
+        <v>231</v>
       </c>
       <c r="B103" s="21" t="s">
-        <v>1157</v>
+        <v>232</v>
       </c>
       <c r="C103" s="21"/>
     </row>
     <row r="104" spans="1:4" ht="24">
       <c r="A104" s="21" t="s">
-        <v>314</v>
+        <v>252</v>
       </c>
       <c r="B104" s="21" t="s">
-        <v>595</v>
+        <v>253</v>
       </c>
       <c r="C104" s="21"/>
     </row>
     <row r="105" spans="1:4" ht="24">
       <c r="A105" s="21" t="s">
-        <v>727</v>
+        <v>209</v>
       </c>
       <c r="B105" s="21" t="s">
-        <v>728</v>
+        <v>226</v>
       </c>
       <c r="C105" s="21"/>
     </row>
     <row r="106" spans="1:4" ht="24">
       <c r="A106" s="21" t="s">
-        <v>208</v>
+        <v>567</v>
       </c>
       <c r="B106" s="21" t="s">
-        <v>225</v>
+        <v>568</v>
       </c>
       <c r="C106" s="21"/>
     </row>
     <row r="107" spans="1:4" ht="24">
       <c r="A107" s="21" t="s">
-        <v>1151</v>
+        <v>1321</v>
       </c>
       <c r="B107" s="21" t="s">
-        <v>1152</v>
+        <v>1322</v>
       </c>
       <c r="C107" s="21"/>
     </row>
     <row r="108" spans="1:4" ht="24">
       <c r="A108" s="21" t="s">
-        <v>1153</v>
+        <v>769</v>
       </c>
       <c r="B108" s="21" t="s">
-        <v>1154</v>
+        <v>770</v>
       </c>
       <c r="C108" s="21"/>
     </row>
     <row r="109" spans="1:4" ht="24">
       <c r="A109" s="21" t="s">
-        <v>1155</v>
+        <v>989</v>
       </c>
       <c r="B109" s="21" t="s">
-        <v>1156</v>
+        <v>990</v>
       </c>
       <c r="C109" s="21"/>
     </row>
     <row r="110" spans="1:4" ht="24">
       <c r="A110" s="21" t="s">
-        <v>598</v>
+        <v>1166</v>
       </c>
       <c r="B110" s="21" t="s">
-        <v>599</v>
+        <v>587</v>
       </c>
       <c r="C110" s="21"/>
     </row>
     <row r="111" spans="1:4" ht="24">
       <c r="A111" s="21" t="s">
-        <v>241</v>
+        <v>583</v>
       </c>
       <c r="B111" s="21" t="s">
-        <v>243</v>
+        <v>584</v>
       </c>
       <c r="C111" s="21"/>
     </row>
     <row r="112" spans="1:4" ht="24">
       <c r="A112" s="21" t="s">
-        <v>789</v>
+        <v>793</v>
       </c>
       <c r="B112" s="21" t="s">
-        <v>790</v>
+        <v>794</v>
       </c>
       <c r="C112" s="21"/>
     </row>
     <row r="113" spans="1:4" ht="24">
       <c r="A113" s="21" t="s">
-        <v>787</v>
+        <v>242</v>
       </c>
       <c r="B113" s="21" t="s">
-        <v>788</v>
+        <v>244</v>
       </c>
       <c r="C113" s="21"/>
     </row>
     <row r="114" spans="1:4" ht="24">
       <c r="A114" s="21" t="s">
-        <v>851</v>
+        <v>1167</v>
       </c>
       <c r="B114" s="21" t="s">
-        <v>852</v>
+        <v>1157</v>
       </c>
       <c r="C114" s="21"/>
     </row>
     <row r="115" spans="1:4" ht="24">
       <c r="A115" s="21" t="s">
-        <v>791</v>
+        <v>314</v>
       </c>
       <c r="B115" s="21" t="s">
-        <v>792</v>
+        <v>595</v>
       </c>
       <c r="C115" s="21"/>
     </row>
     <row r="116" spans="1:4" ht="24">
       <c r="A116" s="21" t="s">
-        <v>575</v>
+        <v>727</v>
       </c>
       <c r="B116" s="21" t="s">
-        <v>576</v>
+        <v>728</v>
       </c>
       <c r="C116" s="21"/>
       <c r="D116" s="9"/>
     </row>
     <row r="117" spans="1:4" ht="24">
       <c r="A117" s="21" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="B117" s="21" t="s">
-        <v>222</v>
-      </c>
-      <c r="C117" s="21" t="s">
-        <v>223</v>
-      </c>
+        <v>225</v>
+      </c>
+      <c r="C117" s="21"/>
     </row>
     <row r="118" spans="1:4" ht="24">
       <c r="A118" s="21" t="s">
-        <v>246</v>
+        <v>1151</v>
       </c>
       <c r="B118" s="21" t="s">
-        <v>247</v>
+        <v>1152</v>
       </c>
       <c r="C118" s="21"/>
     </row>
     <row r="119" spans="1:4" ht="24">
       <c r="A119" s="21" t="s">
-        <v>995</v>
+        <v>1153</v>
       </c>
       <c r="B119" s="21" t="s">
-        <v>996</v>
+        <v>1154</v>
       </c>
       <c r="C119" s="21"/>
     </row>
     <row r="120" spans="1:4" ht="24">
       <c r="A120" s="21" t="s">
-        <v>775</v>
+        <v>1155</v>
       </c>
       <c r="B120" s="21" t="s">
-        <v>776</v>
+        <v>1156</v>
       </c>
       <c r="C120" s="21"/>
     </row>
     <row r="121" spans="1:4" ht="24">
       <c r="A121" s="21" t="s">
-        <v>585</v>
+        <v>598</v>
       </c>
       <c r="B121" s="21" t="s">
-        <v>586</v>
+        <v>599</v>
       </c>
       <c r="C121" s="21"/>
     </row>
     <row r="122" spans="1:4" ht="24">
       <c r="A122" s="21" t="s">
-        <v>186</v>
+        <v>241</v>
       </c>
       <c r="B122" s="21" t="s">
-        <v>187</v>
+        <v>243</v>
       </c>
       <c r="C122" s="21"/>
     </row>
     <row r="123" spans="1:4" ht="24">
       <c r="A123" s="21" t="s">
-        <v>227</v>
+        <v>789</v>
       </c>
       <c r="B123" s="21" t="s">
-        <v>228</v>
+        <v>790</v>
       </c>
       <c r="C123" s="21"/>
     </row>
     <row r="124" spans="1:4" ht="24">
       <c r="A124" s="21" t="s">
-        <v>239</v>
+        <v>787</v>
       </c>
       <c r="B124" s="21" t="s">
-        <v>238</v>
+        <v>788</v>
       </c>
       <c r="C124" s="21"/>
     </row>
     <row r="125" spans="1:4" ht="24">
       <c r="A125" s="21" t="s">
-        <v>236</v>
+        <v>851</v>
       </c>
       <c r="B125" s="21" t="s">
-        <v>237</v>
+        <v>852</v>
       </c>
       <c r="C125" s="21"/>
     </row>
     <row r="126" spans="1:4" ht="24">
       <c r="A126" s="21" t="s">
-        <v>861</v>
+        <v>791</v>
       </c>
       <c r="B126" s="21" t="s">
-        <v>862</v>
+        <v>792</v>
       </c>
       <c r="C126" s="21"/>
     </row>
     <row r="127" spans="1:4" ht="24">
       <c r="A127" s="21" t="s">
-        <v>785</v>
+        <v>575</v>
       </c>
       <c r="B127" s="21" t="s">
-        <v>786</v>
+        <v>576</v>
       </c>
       <c r="C127" s="21"/>
     </row>
     <row r="128" spans="1:4" ht="24">
       <c r="A128" s="21" t="s">
-        <v>744</v>
+        <v>206</v>
       </c>
       <c r="B128" s="21" t="s">
-        <v>999</v>
-      </c>
-      <c r="C128" s="21"/>
+        <v>222</v>
+      </c>
+      <c r="C128" s="21" t="s">
+        <v>223</v>
+      </c>
     </row>
     <row r="129" spans="1:3" ht="24">
       <c r="A129" s="21" t="s">
-        <v>185</v>
+        <v>246</v>
       </c>
       <c r="B129" s="21" t="s">
-        <v>173</v>
+        <v>247</v>
       </c>
       <c r="C129" s="21"/>
     </row>
-    <row r="130" spans="1:3" ht="24">
-      <c r="A130" s="21" t="s">
-        <v>210</v>
-      </c>
-      <c r="B130" s="21" t="s">
-        <v>211</v>
+    <row r="130" spans="1:3" ht="25">
+      <c r="A130" s="47" t="s">
+        <v>1576</v>
+      </c>
+      <c r="B130" s="47" t="s">
+        <v>1577</v>
       </c>
       <c r="C130" s="21"/>
     </row>
     <row r="131" spans="1:3" ht="24">
       <c r="A131" s="21" t="s">
-        <v>180</v>
+        <v>995</v>
       </c>
       <c r="B131" s="21" t="s">
-        <v>170</v>
+        <v>996</v>
       </c>
       <c r="C131" s="21"/>
     </row>
     <row r="132" spans="1:3" ht="24">
       <c r="A132" s="21" t="s">
-        <v>388</v>
+        <v>775</v>
       </c>
       <c r="B132" s="21" t="s">
-        <v>400</v>
+        <v>776</v>
       </c>
       <c r="C132" s="21"/>
     </row>
     <row r="133" spans="1:3" ht="24">
       <c r="A133" s="21" t="s">
-        <v>1168</v>
+        <v>585</v>
       </c>
       <c r="B133" s="21" t="s">
-        <v>592</v>
+        <v>586</v>
       </c>
       <c r="C133" s="21"/>
     </row>
-    <row r="134" spans="1:3" ht="24">
-      <c r="A134" s="21" t="s">
-        <v>798</v>
-      </c>
-      <c r="B134" s="21" t="s">
-        <v>287</v>
+    <row r="134" spans="1:3" ht="25">
+      <c r="A134" s="47" t="s">
+        <v>1590</v>
+      </c>
+      <c r="B134" s="47" t="s">
+        <v>1591</v>
       </c>
       <c r="C134" s="21"/>
     </row>
     <row r="135" spans="1:3" ht="24">
       <c r="A135" s="21" t="s">
-        <v>1001</v>
+        <v>186</v>
       </c>
       <c r="B135" s="21" t="s">
-        <v>1002</v>
+        <v>187</v>
       </c>
       <c r="C135" s="21"/>
     </row>
     <row r="136" spans="1:3" ht="24">
       <c r="A136" s="21" t="s">
-        <v>1158</v>
+        <v>227</v>
       </c>
       <c r="B136" s="21" t="s">
-        <v>1159</v>
+        <v>228</v>
       </c>
       <c r="C136" s="21"/>
     </row>
-    <row r="137" spans="1:3" ht="24">
-      <c r="A137" s="21" t="s">
-        <v>166</v>
-      </c>
-      <c r="B137" s="21" t="s">
-        <v>167</v>
+    <row r="137" spans="1:3" ht="25">
+      <c r="A137" s="47" t="s">
+        <v>1596</v>
+      </c>
+      <c r="B137" s="47" t="s">
+        <v>1597</v>
       </c>
       <c r="C137" s="21"/>
     </row>
-    <row r="138" spans="1:3" ht="24">
-      <c r="A138" s="21" t="s">
-        <v>409</v>
-      </c>
-      <c r="B138" s="21" t="s">
-        <v>720</v>
+    <row r="138" spans="1:3" ht="25">
+      <c r="A138" s="47" t="s">
+        <v>1443</v>
+      </c>
+      <c r="B138" s="47" t="s">
+        <v>1573</v>
       </c>
       <c r="C138" s="21"/>
     </row>
     <row r="139" spans="1:3" ht="24">
       <c r="A139" s="21" t="s">
-        <v>212</v>
+        <v>1326</v>
       </c>
       <c r="B139" s="21" t="s">
-        <v>213</v>
+        <v>238</v>
       </c>
       <c r="C139" s="21"/>
     </row>
     <row r="140" spans="1:3" ht="24">
       <c r="A140" s="21" t="s">
-        <v>1106</v>
+        <v>239</v>
       </c>
       <c r="B140" s="21" t="s">
-        <v>1003</v>
+        <v>238</v>
       </c>
       <c r="C140" s="21"/>
     </row>
     <row r="141" spans="1:3" ht="24">
       <c r="A141" s="21" t="s">
-        <v>779</v>
+        <v>236</v>
       </c>
       <c r="B141" s="21" t="s">
-        <v>780</v>
+        <v>237</v>
       </c>
       <c r="C141" s="21"/>
     </row>
     <row r="142" spans="1:3" ht="24">
       <c r="A142" s="21" t="s">
-        <v>199</v>
+        <v>861</v>
       </c>
       <c r="B142" s="21" t="s">
-        <v>214</v>
+        <v>862</v>
       </c>
       <c r="C142" s="21"/>
     </row>
-    <row r="143" spans="1:3" ht="24">
-      <c r="A143" s="21" t="s">
-        <v>176</v>
-      </c>
-      <c r="B143" s="21" t="s">
-        <v>177</v>
+    <row r="143" spans="1:3" ht="25">
+      <c r="A143" s="47" t="s">
+        <v>1598</v>
+      </c>
+      <c r="B143" s="47" t="s">
+        <v>1599</v>
       </c>
       <c r="C143" s="21"/>
     </row>
     <row r="144" spans="1:3" ht="24">
       <c r="A144" s="21" t="s">
-        <v>175</v>
+        <v>785</v>
       </c>
       <c r="B144" s="21" t="s">
-        <v>174</v>
+        <v>786</v>
       </c>
       <c r="C144" s="21"/>
     </row>
     <row r="145" spans="1:3" ht="24">
       <c r="A145" s="21" t="s">
-        <v>1321</v>
+        <v>744</v>
       </c>
       <c r="B145" s="21" t="s">
-        <v>1322</v>
+        <v>999</v>
       </c>
       <c r="C145" s="21"/>
     </row>
-    <row r="146" spans="1:3" ht="24">
-      <c r="A146" s="21" t="s">
-        <v>1325</v>
-      </c>
-      <c r="B146" s="21" t="s">
-        <v>1327</v>
-      </c>
-      <c r="C146" s="21" t="s">
-        <v>1328</v>
-      </c>
+    <row r="146" spans="1:3" ht="25">
+      <c r="A146" s="47" t="s">
+        <v>1588</v>
+      </c>
+      <c r="B146" s="47" t="s">
+        <v>1589</v>
+      </c>
+      <c r="C146" s="21"/>
     </row>
     <row r="147" spans="1:3" ht="24">
       <c r="A147" s="21" t="s">
-        <v>1326</v>
+        <v>185</v>
       </c>
       <c r="B147" s="21" t="s">
-        <v>238</v>
+        <v>173</v>
       </c>
       <c r="C147" s="21"/>
     </row>
     <row r="148" spans="1:3" ht="24">
-      <c r="A148" s="21"/>
-      <c r="B148" s="21"/>
+      <c r="A148" s="21" t="s">
+        <v>210</v>
+      </c>
+      <c r="B148" s="21" t="s">
+        <v>211</v>
+      </c>
       <c r="C148" s="21"/>
     </row>
     <row r="149" spans="1:3" ht="24">
-      <c r="A149" s="21"/>
-      <c r="B149" s="21"/>
+      <c r="A149" s="21" t="s">
+        <v>180</v>
+      </c>
+      <c r="B149" s="21" t="s">
+        <v>170</v>
+      </c>
       <c r="C149" s="21"/>
     </row>
     <row r="150" spans="1:3" ht="24">
-      <c r="A150" s="21"/>
-      <c r="B150" s="21"/>
+      <c r="A150" s="48" t="s">
+        <v>388</v>
+      </c>
+      <c r="B150" s="48" t="s">
+        <v>400</v>
+      </c>
       <c r="C150" s="21"/>
     </row>
     <row r="151" spans="1:3" ht="24">
-      <c r="A151" s="21"/>
-      <c r="B151" s="21"/>
+      <c r="A151" s="48" t="s">
+        <v>1168</v>
+      </c>
+      <c r="B151" s="48" t="s">
+        <v>592</v>
+      </c>
       <c r="C151" s="21"/>
     </row>
     <row r="152" spans="1:3" ht="24">
-      <c r="A152" s="21"/>
-      <c r="B152" s="21"/>
+      <c r="A152" s="48" t="s">
+        <v>798</v>
+      </c>
+      <c r="B152" s="48" t="s">
+        <v>287</v>
+      </c>
       <c r="C152" s="21"/>
     </row>
     <row r="153" spans="1:3" ht="24">
-      <c r="A153" s="21"/>
-      <c r="B153" s="21"/>
+      <c r="A153" s="48" t="s">
+        <v>1001</v>
+      </c>
+      <c r="B153" s="48" t="s">
+        <v>1002</v>
+      </c>
       <c r="C153" s="21"/>
     </row>
     <row r="154" spans="1:3" ht="24">
-      <c r="A154" s="21"/>
-      <c r="B154" s="21"/>
+      <c r="A154" s="48" t="s">
+        <v>1158</v>
+      </c>
+      <c r="B154" s="48" t="s">
+        <v>1159</v>
+      </c>
       <c r="C154" s="21"/>
     </row>
     <row r="155" spans="1:3" ht="24">
-      <c r="A155" s="21"/>
-      <c r="B155" s="21"/>
-      <c r="C155" s="9"/>
+      <c r="A155" s="48" t="s">
+        <v>166</v>
+      </c>
+      <c r="B155" s="48" t="s">
+        <v>167</v>
+      </c>
+      <c r="C155" s="21"/>
     </row>
     <row r="156" spans="1:3" ht="24">
-      <c r="A156" s="21"/>
-      <c r="B156" s="21"/>
+      <c r="A156" s="48" t="s">
+        <v>409</v>
+      </c>
+      <c r="B156" s="48" t="s">
+        <v>720</v>
+      </c>
       <c r="C156" s="21"/>
     </row>
     <row r="157" spans="1:3" ht="24">
-      <c r="A157" s="21"/>
-      <c r="B157" s="21"/>
+      <c r="A157" s="48" t="s">
+        <v>212</v>
+      </c>
+      <c r="B157" s="48" t="s">
+        <v>213</v>
+      </c>
       <c r="C157" s="21"/>
     </row>
     <row r="158" spans="1:3" ht="24">
-      <c r="A158" s="21"/>
-      <c r="B158" s="21"/>
+      <c r="A158" s="48" t="s">
+        <v>1106</v>
+      </c>
+      <c r="B158" s="48" t="s">
+        <v>1003</v>
+      </c>
       <c r="C158" s="21"/>
     </row>
     <row r="159" spans="1:3" ht="24">
-      <c r="A159" s="21"/>
-      <c r="B159" s="21"/>
+      <c r="A159" s="48" t="s">
+        <v>779</v>
+      </c>
+      <c r="B159" s="48" t="s">
+        <v>780</v>
+      </c>
       <c r="C159" s="21"/>
     </row>
     <row r="160" spans="1:3" ht="24">
-      <c r="A160" s="21"/>
-      <c r="B160" s="21"/>
-      <c r="C160" s="21"/>
+      <c r="A160" s="48" t="s">
+        <v>199</v>
+      </c>
+      <c r="B160" s="48" t="s">
+        <v>214</v>
+      </c>
+      <c r="C160" s="50"/>
     </row>
     <row r="161" spans="1:3" ht="24">
-      <c r="A161" s="21"/>
-      <c r="B161" s="21"/>
+      <c r="A161" s="48" t="s">
+        <v>176</v>
+      </c>
+      <c r="B161" s="48" t="s">
+        <v>177</v>
+      </c>
       <c r="C161" s="21"/>
     </row>
     <row r="162" spans="1:3" ht="24">
-      <c r="A162" s="21"/>
-      <c r="B162" s="21"/>
+      <c r="A162" s="48" t="s">
+        <v>175</v>
+      </c>
+      <c r="B162" s="48" t="s">
+        <v>174</v>
+      </c>
       <c r="C162" s="21"/>
     </row>
     <row r="163" spans="1:3" ht="24">
-      <c r="A163" s="21"/>
-      <c r="B163" s="21"/>
+      <c r="A163" s="48"/>
+      <c r="B163" s="48"/>
       <c r="C163" s="21"/>
     </row>
     <row r="164" spans="1:3" ht="24">
-      <c r="A164" s="21"/>
-      <c r="B164" s="21"/>
+      <c r="A164" s="48"/>
+      <c r="B164" s="48"/>
       <c r="C164" s="21"/>
     </row>
     <row r="165" spans="1:3" ht="24">
@@ -12197,7 +14048,7 @@
     <row r="173" spans="1:3" ht="24">
       <c r="A173" s="21"/>
       <c r="B173" s="21"/>
-      <c r="C173" s="23"/>
+      <c r="C173" s="21"/>
     </row>
     <row r="174" spans="1:3" ht="24">
       <c r="A174" s="21"/>
@@ -12212,7 +14063,7 @@
     <row r="176" spans="1:3" ht="24">
       <c r="A176" s="21"/>
       <c r="B176" s="21"/>
-      <c r="C176" s="9"/>
+      <c r="C176" s="21"/>
     </row>
     <row r="177" spans="1:3" ht="24">
       <c r="A177" s="21"/>
@@ -12242,7 +14093,7 @@
     <row r="182" spans="1:3" ht="24">
       <c r="A182" s="21"/>
       <c r="B182" s="21"/>
-      <c r="C182" s="21"/>
+      <c r="C182" s="9"/>
     </row>
     <row r="183" spans="1:3" ht="24">
       <c r="A183" s="21"/>
@@ -12277,7 +14128,7 @@
     <row r="189" spans="1:3" ht="24">
       <c r="A189" s="21"/>
       <c r="B189" s="21"/>
-      <c r="C189" s="21"/>
+      <c r="C189" s="9"/>
     </row>
     <row r="190" spans="1:3" ht="24">
       <c r="A190" s="21"/>
@@ -12322,7 +14173,7 @@
     <row r="198" spans="1:3" ht="24">
       <c r="A198" s="21"/>
       <c r="B198" s="21"/>
-      <c r="C198" s="9"/>
+      <c r="C198" s="21"/>
     </row>
     <row r="199" spans="1:3" ht="24">
       <c r="A199" s="21"/>
@@ -12332,7 +14183,7 @@
     <row r="200" spans="1:3" ht="24">
       <c r="A200" s="21"/>
       <c r="B200" s="21"/>
-      <c r="C200" s="21"/>
+      <c r="C200" s="23"/>
     </row>
     <row r="201" spans="1:3" ht="24">
       <c r="A201" s="21"/>
@@ -12362,7 +14213,7 @@
     <row r="206" spans="1:3" ht="24">
       <c r="A206" s="21"/>
       <c r="B206" s="21"/>
-      <c r="C206" s="21"/>
+      <c r="C206" s="23"/>
     </row>
     <row r="207" spans="1:3" ht="24">
       <c r="A207" s="21"/>
@@ -12377,7 +14228,7 @@
     <row r="209" spans="1:3" ht="24">
       <c r="A209" s="21"/>
       <c r="B209" s="21"/>
-      <c r="C209" s="21"/>
+      <c r="C209" s="23"/>
     </row>
     <row r="210" spans="1:3" ht="24">
       <c r="A210" s="21"/>
@@ -12412,7 +14263,7 @@
     <row r="216" spans="1:3" ht="24">
       <c r="A216" s="21"/>
       <c r="B216" s="21"/>
-      <c r="C216" s="23"/>
+      <c r="C216" s="21"/>
     </row>
     <row r="217" spans="1:3" ht="24">
       <c r="A217" s="21"/>
@@ -12437,7 +14288,7 @@
     <row r="221" spans="1:3" ht="24">
       <c r="A221" s="21"/>
       <c r="B221" s="21"/>
-      <c r="C221" s="9"/>
+      <c r="C221" s="21"/>
     </row>
     <row r="222" spans="1:3" ht="24">
       <c r="A222" s="21"/>
@@ -12457,7 +14308,7 @@
     <row r="225" spans="1:3" ht="24">
       <c r="A225" s="21"/>
       <c r="B225" s="21"/>
-      <c r="C225" s="23"/>
+      <c r="C225" s="21"/>
     </row>
     <row r="226" spans="1:3" ht="24">
       <c r="A226" s="21"/>
@@ -12522,7 +14373,7 @@
     <row r="238" spans="1:3" ht="24">
       <c r="A238" s="21"/>
       <c r="B238" s="21"/>
-      <c r="C238" s="23"/>
+      <c r="C238" s="21"/>
     </row>
     <row r="239" spans="1:3" ht="24">
       <c r="A239" s="21"/>
@@ -12564,89 +14415,9 @@
       <c r="B246" s="21"/>
       <c r="C246" s="21"/>
     </row>
-    <row r="247" spans="1:3" ht="24">
-      <c r="A247" s="21"/>
-      <c r="B247" s="21"/>
-      <c r="C247" s="21"/>
-    </row>
-    <row r="248" spans="1:3" ht="24">
-      <c r="A248" s="21"/>
-      <c r="B248" s="21"/>
-      <c r="C248" s="21"/>
-    </row>
-    <row r="249" spans="1:3" ht="24">
-      <c r="A249" s="21"/>
-      <c r="B249" s="21"/>
-      <c r="C249" s="21"/>
-    </row>
-    <row r="250" spans="1:3" ht="24">
-      <c r="A250" s="21"/>
-      <c r="B250" s="21"/>
-      <c r="C250" s="21"/>
-    </row>
-    <row r="251" spans="1:3" ht="24">
-      <c r="A251" s="21"/>
-      <c r="B251" s="21"/>
-      <c r="C251" s="21"/>
-    </row>
-    <row r="252" spans="1:3" ht="24">
-      <c r="A252" s="21"/>
-      <c r="B252" s="21"/>
-      <c r="C252" s="21"/>
-    </row>
-    <row r="253" spans="1:3" ht="24">
-      <c r="A253" s="21"/>
-      <c r="B253" s="21"/>
-      <c r="C253" s="21"/>
-    </row>
-    <row r="254" spans="1:3" ht="24">
-      <c r="A254" s="21"/>
-      <c r="B254" s="21"/>
-      <c r="C254" s="21"/>
-    </row>
-    <row r="255" spans="1:3" ht="24">
-      <c r="A255" s="21"/>
-      <c r="B255" s="21"/>
-      <c r="C255" s="21"/>
-    </row>
-    <row r="256" spans="1:3" ht="24">
-      <c r="A256" s="21"/>
-      <c r="B256" s="21"/>
-      <c r="C256" s="21"/>
-    </row>
-    <row r="257" spans="1:3" ht="24">
-      <c r="A257" s="21"/>
-      <c r="B257" s="21"/>
-      <c r="C257" s="21"/>
-    </row>
-    <row r="258" spans="1:3" ht="24">
-      <c r="A258" s="21"/>
-      <c r="B258" s="21"/>
-      <c r="C258" s="21"/>
-    </row>
-    <row r="259" spans="1:3" ht="24">
-      <c r="A259" s="21"/>
-      <c r="B259" s="21"/>
-      <c r="C259" s="21"/>
-    </row>
-    <row r="260" spans="1:3" ht="24">
-      <c r="A260" s="21"/>
-      <c r="B260" s="21"/>
-      <c r="C260" s="21"/>
-    </row>
-    <row r="261" spans="1:3" ht="24">
-      <c r="A261" s="21"/>
-      <c r="B261" s="21"/>
-      <c r="C261" s="21"/>
-    </row>
-    <row r="262" spans="1:3" ht="24">
-      <c r="A262" s="21"/>
-      <c r="B262" s="21"/>
-      <c r="C262" s="21"/>
-    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A5:C262">
-    <sortCondition ref="A5:A262"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A5:C164">
+    <sortCondition ref="A5:A164"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -12655,18 +14426,24 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E34B8B3C-4FB9-F34F-BE43-E919C8031462}">
-  <dimension ref="A2:C107"/>
+  <dimension ref="A2:T143"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A73" sqref="A73:XFD73"/>
+    <sheetView topLeftCell="A47" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I120" sqref="I120"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="21"/>
   <cols>
     <col min="1" max="1" width="31.75" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="28.875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="61.75" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="63" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16.75" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:3" ht="31">
@@ -13625,6 +15402,459 @@
         <v>273</v>
       </c>
       <c r="C107" s="21"/>
+    </row>
+    <row r="123" spans="5:20">
+      <c r="E123" t="s">
+        <v>77</v>
+      </c>
+      <c r="F123" t="s">
+        <v>1465</v>
+      </c>
+      <c r="G123" t="s">
+        <v>77</v>
+      </c>
+      <c r="H123" t="s">
+        <v>1465</v>
+      </c>
+      <c r="I123" t="s">
+        <v>77</v>
+      </c>
+      <c r="J123" t="s">
+        <v>1466</v>
+      </c>
+    </row>
+    <row r="124" spans="5:20">
+      <c r="E124" t="s">
+        <v>1467</v>
+      </c>
+      <c r="F124" t="s">
+        <v>1468</v>
+      </c>
+      <c r="G124" t="s">
+        <v>1469</v>
+      </c>
+      <c r="H124" t="s">
+        <v>1470</v>
+      </c>
+      <c r="I124" t="s">
+        <v>1471</v>
+      </c>
+      <c r="J124" t="s">
+        <v>1472</v>
+      </c>
+      <c r="K124" t="s">
+        <v>1473</v>
+      </c>
+      <c r="L124" t="s">
+        <v>1474</v>
+      </c>
+      <c r="M124" t="s">
+        <v>1475</v>
+      </c>
+      <c r="N124" t="s">
+        <v>1476</v>
+      </c>
+      <c r="O124" t="s">
+        <v>1477</v>
+      </c>
+      <c r="P124" t="s">
+        <v>1478</v>
+      </c>
+      <c r="Q124" t="s">
+        <v>1472</v>
+      </c>
+      <c r="R124" t="s">
+        <v>1479</v>
+      </c>
+      <c r="S124" t="s">
+        <v>1480</v>
+      </c>
+      <c r="T124" t="s">
+        <v>993</v>
+      </c>
+    </row>
+    <row r="125" spans="5:20">
+      <c r="E125" t="s">
+        <v>1481</v>
+      </c>
+      <c r="F125" t="s">
+        <v>1468</v>
+      </c>
+      <c r="G125" t="s">
+        <v>1482</v>
+      </c>
+      <c r="H125" t="s">
+        <v>1483</v>
+      </c>
+      <c r="I125" t="s">
+        <v>1484</v>
+      </c>
+      <c r="J125" t="s">
+        <v>1485</v>
+      </c>
+      <c r="K125" t="s">
+        <v>1486</v>
+      </c>
+      <c r="L125" t="s">
+        <v>1487</v>
+      </c>
+      <c r="M125" t="s">
+        <v>1488</v>
+      </c>
+      <c r="N125" t="s">
+        <v>1489</v>
+      </c>
+    </row>
+    <row r="126" spans="5:20">
+      <c r="E126" t="s">
+        <v>1490</v>
+      </c>
+      <c r="F126" t="s">
+        <v>1468</v>
+      </c>
+      <c r="G126" t="s">
+        <v>1491</v>
+      </c>
+      <c r="H126" t="s">
+        <v>870</v>
+      </c>
+      <c r="I126" t="s">
+        <v>1492</v>
+      </c>
+      <c r="J126" t="s">
+        <v>1493</v>
+      </c>
+      <c r="K126" t="s">
+        <v>1494</v>
+      </c>
+    </row>
+    <row r="127" spans="5:20">
+      <c r="E127" t="s">
+        <v>1472</v>
+      </c>
+      <c r="F127" t="s">
+        <v>1495</v>
+      </c>
+    </row>
+    <row r="128" spans="5:20">
+      <c r="E128" t="s">
+        <v>1496</v>
+      </c>
+      <c r="F128" t="s">
+        <v>1497</v>
+      </c>
+      <c r="G128" t="s">
+        <v>1498</v>
+      </c>
+      <c r="H128" t="s">
+        <v>1499</v>
+      </c>
+      <c r="I128" t="s">
+        <v>1500</v>
+      </c>
+      <c r="J128" t="s">
+        <v>1501</v>
+      </c>
+      <c r="K128" t="s">
+        <v>1502</v>
+      </c>
+      <c r="L128" t="s">
+        <v>1503</v>
+      </c>
+      <c r="M128" t="s">
+        <v>1472</v>
+      </c>
+      <c r="N128" t="s">
+        <v>1504</v>
+      </c>
+      <c r="O128" t="s">
+        <v>1505</v>
+      </c>
+    </row>
+    <row r="129" spans="5:16">
+      <c r="E129" t="s">
+        <v>1506</v>
+      </c>
+      <c r="F129" t="s">
+        <v>1468</v>
+      </c>
+      <c r="G129" t="s">
+        <v>1507</v>
+      </c>
+      <c r="H129" t="s">
+        <v>1508</v>
+      </c>
+      <c r="I129" t="s">
+        <v>1509</v>
+      </c>
+      <c r="J129" t="s">
+        <v>1486</v>
+      </c>
+      <c r="K129" t="s">
+        <v>1510</v>
+      </c>
+      <c r="L129" t="s">
+        <v>1511</v>
+      </c>
+      <c r="M129" t="s">
+        <v>1512</v>
+      </c>
+    </row>
+    <row r="130" spans="5:16">
+      <c r="E130" t="s">
+        <v>1513</v>
+      </c>
+      <c r="F130" t="s">
+        <v>1468</v>
+      </c>
+      <c r="G130" t="s">
+        <v>1514</v>
+      </c>
+      <c r="H130" t="s">
+        <v>1515</v>
+      </c>
+      <c r="I130" t="s">
+        <v>1516</v>
+      </c>
+      <c r="J130" t="s">
+        <v>1517</v>
+      </c>
+      <c r="K130" t="s">
+        <v>1518</v>
+      </c>
+      <c r="L130" t="s">
+        <v>1519</v>
+      </c>
+      <c r="M130" t="s">
+        <v>1516</v>
+      </c>
+      <c r="N130" t="s">
+        <v>1520</v>
+      </c>
+      <c r="O130" t="s">
+        <v>1521</v>
+      </c>
+      <c r="P130" t="s">
+        <v>1522</v>
+      </c>
+    </row>
+    <row r="131" spans="5:16">
+      <c r="E131" t="s">
+        <v>1523</v>
+      </c>
+      <c r="F131" t="s">
+        <v>1468</v>
+      </c>
+      <c r="G131" t="s">
+        <v>1524</v>
+      </c>
+      <c r="H131" t="s">
+        <v>1523</v>
+      </c>
+      <c r="I131" t="s">
+        <v>1525</v>
+      </c>
+    </row>
+    <row r="132" spans="5:16">
+      <c r="E132" t="s">
+        <v>1526</v>
+      </c>
+      <c r="F132" t="s">
+        <v>1516</v>
+      </c>
+      <c r="G132" t="s">
+        <v>337</v>
+      </c>
+      <c r="H132" t="s">
+        <v>1477</v>
+      </c>
+    </row>
+    <row r="133" spans="5:16">
+      <c r="E133" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="134" spans="5:16">
+      <c r="E134" t="s">
+        <v>1527</v>
+      </c>
+      <c r="F134" t="s">
+        <v>1468</v>
+      </c>
+      <c r="G134" t="s">
+        <v>1528</v>
+      </c>
+      <c r="H134" t="s">
+        <v>1529</v>
+      </c>
+      <c r="I134" t="s">
+        <v>1530</v>
+      </c>
+    </row>
+    <row r="135" spans="5:16">
+      <c r="E135" t="s">
+        <v>1531</v>
+      </c>
+      <c r="F135" t="s">
+        <v>1532</v>
+      </c>
+      <c r="G135" t="s">
+        <v>1533</v>
+      </c>
+      <c r="H135" t="s">
+        <v>1534</v>
+      </c>
+    </row>
+    <row r="136" spans="5:16">
+      <c r="E136" t="s">
+        <v>1535</v>
+      </c>
+      <c r="F136" t="s">
+        <v>1536</v>
+      </c>
+      <c r="G136" t="s">
+        <v>1468</v>
+      </c>
+      <c r="H136" t="s">
+        <v>1537</v>
+      </c>
+      <c r="I136" t="s">
+        <v>1538</v>
+      </c>
+    </row>
+    <row r="137" spans="5:16">
+      <c r="E137" t="s">
+        <v>1539</v>
+      </c>
+      <c r="F137" t="s">
+        <v>1468</v>
+      </c>
+      <c r="G137" t="s">
+        <v>1540</v>
+      </c>
+      <c r="H137" t="s">
+        <v>1541</v>
+      </c>
+      <c r="I137" t="s">
+        <v>1542</v>
+      </c>
+      <c r="J137" t="s">
+        <v>1541</v>
+      </c>
+    </row>
+    <row r="138" spans="5:16">
+      <c r="E138" t="s">
+        <v>1543</v>
+      </c>
+      <c r="F138" t="s">
+        <v>1544</v>
+      </c>
+      <c r="G138" t="s">
+        <v>1545</v>
+      </c>
+      <c r="H138" t="s">
+        <v>1546</v>
+      </c>
+      <c r="I138" t="s">
+        <v>1547</v>
+      </c>
+      <c r="J138" t="s">
+        <v>1548</v>
+      </c>
+      <c r="K138" t="s">
+        <v>1549</v>
+      </c>
+      <c r="L138" t="s">
+        <v>1550</v>
+      </c>
+      <c r="M138" t="s">
+        <v>1551</v>
+      </c>
+      <c r="N138" t="s">
+        <v>1477</v>
+      </c>
+    </row>
+    <row r="139" spans="5:16">
+      <c r="E139" t="s">
+        <v>1552</v>
+      </c>
+      <c r="F139" t="s">
+        <v>1553</v>
+      </c>
+      <c r="G139" t="s">
+        <v>1554</v>
+      </c>
+      <c r="H139" t="s">
+        <v>1555</v>
+      </c>
+      <c r="I139" t="s">
+        <v>1556</v>
+      </c>
+      <c r="J139" t="s">
+        <v>1557</v>
+      </c>
+    </row>
+    <row r="140" spans="5:16">
+      <c r="E140" t="s">
+        <v>1558</v>
+      </c>
+      <c r="F140" t="s">
+        <v>1553</v>
+      </c>
+      <c r="G140" t="s">
+        <v>1559</v>
+      </c>
+    </row>
+    <row r="141" spans="5:16">
+      <c r="E141" t="s">
+        <v>1560</v>
+      </c>
+      <c r="F141" t="s">
+        <v>1553</v>
+      </c>
+      <c r="G141" t="s">
+        <v>1561</v>
+      </c>
+      <c r="H141" t="s">
+        <v>1562</v>
+      </c>
+      <c r="I141" t="s">
+        <v>1563</v>
+      </c>
+      <c r="J141" t="s">
+        <v>1564</v>
+      </c>
+    </row>
+    <row r="142" spans="5:16">
+      <c r="E142" t="s">
+        <v>1565</v>
+      </c>
+      <c r="F142" t="s">
+        <v>1553</v>
+      </c>
+      <c r="G142" t="s">
+        <v>1566</v>
+      </c>
+      <c r="H142" t="s">
+        <v>1567</v>
+      </c>
+      <c r="I142" t="s">
+        <v>1568</v>
+      </c>
+      <c r="J142" t="s">
+        <v>1516</v>
+      </c>
+      <c r="K142" t="s">
+        <v>1569</v>
+      </c>
+    </row>
+    <row r="143" spans="5:16">
+      <c r="E143" t="s">
+        <v>1516</v>
+      </c>
+      <c r="F143" t="s">
+        <v>1570</v>
+      </c>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A6:C104">
@@ -13636,11 +15866,583 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD9AAA77-1A26-CF4D-855B-50339A62BDBB}">
+  <dimension ref="A1:H26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H24" sqref="H24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="39.75" defaultRowHeight="21"/>
+  <cols>
+    <col min="1" max="1" width="14.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="37.75" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="37.125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="37.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.875" customWidth="1"/>
+    <col min="8" max="8" width="37.375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="25">
+      <c r="A1" s="51" t="s">
+        <v>77</v>
+      </c>
+      <c r="B1" s="52" t="s">
+        <v>78</v>
+      </c>
+      <c r="C1" s="52" t="s">
+        <v>77</v>
+      </c>
+      <c r="D1" s="52" t="s">
+        <v>78</v>
+      </c>
+      <c r="E1" s="52" t="s">
+        <v>77</v>
+      </c>
+      <c r="F1" s="52" t="s">
+        <v>78</v>
+      </c>
+      <c r="G1" s="53"/>
+      <c r="H1" s="53"/>
+    </row>
+    <row r="2" spans="1:8" ht="25">
+      <c r="A2" s="54" t="s">
+        <v>1600</v>
+      </c>
+      <c r="B2" s="55" t="s">
+        <v>1601</v>
+      </c>
+      <c r="C2" s="55" t="s">
+        <v>284</v>
+      </c>
+      <c r="D2" s="55" t="s">
+        <v>285</v>
+      </c>
+      <c r="E2" s="55" t="s">
+        <v>282</v>
+      </c>
+      <c r="F2" s="55" t="s">
+        <v>283</v>
+      </c>
+      <c r="G2" s="53"/>
+      <c r="H2" s="53"/>
+    </row>
+    <row r="3" spans="1:8" ht="50">
+      <c r="A3" s="54" t="s">
+        <v>1602</v>
+      </c>
+      <c r="B3" s="55" t="s">
+        <v>1603</v>
+      </c>
+      <c r="C3" s="55" t="s">
+        <v>1604</v>
+      </c>
+      <c r="D3" s="55" t="s">
+        <v>1605</v>
+      </c>
+      <c r="E3" s="55" t="s">
+        <v>1606</v>
+      </c>
+      <c r="F3" s="55" t="s">
+        <v>1603</v>
+      </c>
+      <c r="G3" s="53"/>
+      <c r="H3" s="56" t="s">
+        <v>1607</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="25">
+      <c r="A4" s="54" t="s">
+        <v>1608</v>
+      </c>
+      <c r="B4" s="55" t="s">
+        <v>1609</v>
+      </c>
+      <c r="C4" s="55" t="s">
+        <v>1610</v>
+      </c>
+      <c r="D4" s="55" t="s">
+        <v>1611</v>
+      </c>
+      <c r="E4" s="55" t="s">
+        <v>1612</v>
+      </c>
+      <c r="F4" s="55" t="s">
+        <v>1613</v>
+      </c>
+      <c r="G4" s="53"/>
+      <c r="H4" s="53"/>
+    </row>
+    <row r="5" spans="1:8" ht="25">
+      <c r="A5" s="54" t="s">
+        <v>1614</v>
+      </c>
+      <c r="B5" s="55" t="s">
+        <v>1615</v>
+      </c>
+      <c r="C5" s="55" t="s">
+        <v>1616</v>
+      </c>
+      <c r="D5" s="55" t="s">
+        <v>1617</v>
+      </c>
+      <c r="E5" s="55" t="s">
+        <v>1618</v>
+      </c>
+      <c r="F5" s="55" t="s">
+        <v>1619</v>
+      </c>
+      <c r="G5" s="53"/>
+      <c r="H5" s="53"/>
+    </row>
+    <row r="6" spans="1:8" ht="25">
+      <c r="A6" s="54" t="s">
+        <v>1620</v>
+      </c>
+      <c r="B6" s="55" t="s">
+        <v>1621</v>
+      </c>
+      <c r="C6" s="55" t="s">
+        <v>1622</v>
+      </c>
+      <c r="D6" s="55" t="s">
+        <v>1623</v>
+      </c>
+      <c r="E6" s="55" t="s">
+        <v>1624</v>
+      </c>
+      <c r="F6" s="55" t="s">
+        <v>1625</v>
+      </c>
+      <c r="G6" s="53"/>
+      <c r="H6" s="53"/>
+    </row>
+    <row r="7" spans="1:8" ht="25">
+      <c r="A7" s="54" t="s">
+        <v>1626</v>
+      </c>
+      <c r="B7" s="55" t="s">
+        <v>1627</v>
+      </c>
+      <c r="C7" s="55" t="s">
+        <v>1628</v>
+      </c>
+      <c r="D7" s="55" t="s">
+        <v>1629</v>
+      </c>
+      <c r="E7" s="57"/>
+      <c r="F7" s="57"/>
+      <c r="G7" s="53"/>
+      <c r="H7" s="53"/>
+    </row>
+    <row r="8" spans="1:8" ht="25">
+      <c r="A8" s="54" t="s">
+        <v>1630</v>
+      </c>
+      <c r="B8" s="55" t="s">
+        <v>1631</v>
+      </c>
+      <c r="C8" s="55" t="s">
+        <v>1632</v>
+      </c>
+      <c r="D8" s="55" t="s">
+        <v>1633</v>
+      </c>
+      <c r="E8" s="55" t="s">
+        <v>1634</v>
+      </c>
+      <c r="F8" s="55" t="s">
+        <v>1635</v>
+      </c>
+      <c r="G8" s="53"/>
+      <c r="H8" s="53"/>
+    </row>
+    <row r="9" spans="1:8" ht="50">
+      <c r="A9" s="54" t="s">
+        <v>1636</v>
+      </c>
+      <c r="B9" s="55" t="s">
+        <v>1637</v>
+      </c>
+      <c r="C9" s="55" t="s">
+        <v>1638</v>
+      </c>
+      <c r="D9" s="55" t="s">
+        <v>1639</v>
+      </c>
+      <c r="E9" s="57"/>
+      <c r="F9" s="57"/>
+      <c r="G9" s="53"/>
+      <c r="H9" s="53"/>
+    </row>
+    <row r="10" spans="1:8" ht="25">
+      <c r="A10" s="54" t="s">
+        <v>1640</v>
+      </c>
+      <c r="B10" s="55" t="s">
+        <v>1641</v>
+      </c>
+      <c r="C10" s="55" t="s">
+        <v>1642</v>
+      </c>
+      <c r="D10" s="55" t="s">
+        <v>1643</v>
+      </c>
+      <c r="E10" s="57"/>
+      <c r="F10" s="57"/>
+      <c r="G10" s="53"/>
+      <c r="H10" s="53"/>
+    </row>
+    <row r="11" spans="1:8" ht="25">
+      <c r="A11" s="54" t="s">
+        <v>1644</v>
+      </c>
+      <c r="B11" s="55" t="s">
+        <v>1645</v>
+      </c>
+      <c r="C11" s="55" t="s">
+        <v>1471</v>
+      </c>
+      <c r="D11" s="55" t="s">
+        <v>1646</v>
+      </c>
+      <c r="E11" s="55" t="s">
+        <v>1647</v>
+      </c>
+      <c r="F11" s="55" t="s">
+        <v>1648</v>
+      </c>
+      <c r="G11" s="53"/>
+      <c r="H11" s="53"/>
+    </row>
+    <row r="12" spans="1:8" ht="25">
+      <c r="A12" s="54" t="s">
+        <v>1649</v>
+      </c>
+      <c r="B12" s="55" t="s">
+        <v>1650</v>
+      </c>
+      <c r="C12" s="55" t="s">
+        <v>1651</v>
+      </c>
+      <c r="D12" s="55" t="s">
+        <v>1652</v>
+      </c>
+      <c r="E12" s="55" t="s">
+        <v>1653</v>
+      </c>
+      <c r="F12" s="55" t="s">
+        <v>1654</v>
+      </c>
+      <c r="G12" s="53"/>
+      <c r="H12" s="53"/>
+    </row>
+    <row r="13" spans="1:8" ht="25">
+      <c r="A13" s="54" t="s">
+        <v>1655</v>
+      </c>
+      <c r="B13" s="55" t="s">
+        <v>1656</v>
+      </c>
+      <c r="C13" s="55" t="s">
+        <v>1492</v>
+      </c>
+      <c r="D13" s="55" t="s">
+        <v>1493</v>
+      </c>
+      <c r="E13" s="55" t="s">
+        <v>1494</v>
+      </c>
+      <c r="F13" s="55" t="s">
+        <v>1464</v>
+      </c>
+      <c r="G13" s="53"/>
+      <c r="H13" s="53"/>
+    </row>
+    <row r="14" spans="1:8" ht="25">
+      <c r="A14" s="54" t="s">
+        <v>1657</v>
+      </c>
+      <c r="B14" s="55" t="s">
+        <v>1498</v>
+      </c>
+      <c r="C14" s="55" t="s">
+        <v>1658</v>
+      </c>
+      <c r="D14" s="55" t="s">
+        <v>1659</v>
+      </c>
+      <c r="E14" s="55" t="s">
+        <v>1660</v>
+      </c>
+      <c r="F14" s="55" t="s">
+        <v>1661</v>
+      </c>
+      <c r="G14" s="53"/>
+      <c r="H14" s="53"/>
+    </row>
+    <row r="15" spans="1:8" ht="25">
+      <c r="A15" s="54" t="s">
+        <v>1662</v>
+      </c>
+      <c r="B15" s="55" t="s">
+        <v>1663</v>
+      </c>
+      <c r="C15" s="55" t="s">
+        <v>1664</v>
+      </c>
+      <c r="D15" s="55" t="s">
+        <v>1665</v>
+      </c>
+      <c r="E15" s="55" t="s">
+        <v>1666</v>
+      </c>
+      <c r="F15" s="55" t="s">
+        <v>1667</v>
+      </c>
+      <c r="G15" s="53"/>
+      <c r="H15" s="53"/>
+    </row>
+    <row r="16" spans="1:8" ht="25">
+      <c r="A16" s="54" t="s">
+        <v>1668</v>
+      </c>
+      <c r="B16" s="55" t="s">
+        <v>1514</v>
+      </c>
+      <c r="C16" s="55" t="s">
+        <v>1669</v>
+      </c>
+      <c r="D16" s="55" t="s">
+        <v>1669</v>
+      </c>
+      <c r="E16" s="55" t="s">
+        <v>1670</v>
+      </c>
+      <c r="F16" s="55" t="s">
+        <v>1671</v>
+      </c>
+      <c r="G16" s="53"/>
+      <c r="H16" s="53"/>
+    </row>
+    <row r="17" spans="1:8" ht="25">
+      <c r="A17" s="54" t="s">
+        <v>1672</v>
+      </c>
+      <c r="B17" s="55" t="s">
+        <v>337</v>
+      </c>
+      <c r="C17" s="55" t="s">
+        <v>1445</v>
+      </c>
+      <c r="D17" s="55" t="s">
+        <v>1673</v>
+      </c>
+      <c r="E17" s="55" t="s">
+        <v>1674</v>
+      </c>
+      <c r="F17" s="55" t="s">
+        <v>1675</v>
+      </c>
+      <c r="G17" s="53"/>
+      <c r="H17" s="53"/>
+    </row>
+    <row r="18" spans="1:8" ht="25">
+      <c r="A18" s="54" t="s">
+        <v>1676</v>
+      </c>
+      <c r="B18" s="55" t="s">
+        <v>1677</v>
+      </c>
+      <c r="C18" s="55" t="s">
+        <v>1529</v>
+      </c>
+      <c r="D18" s="55" t="s">
+        <v>1678</v>
+      </c>
+      <c r="E18" s="55" t="s">
+        <v>1530</v>
+      </c>
+      <c r="F18" s="55" t="s">
+        <v>1679</v>
+      </c>
+      <c r="G18" s="53"/>
+      <c r="H18" s="53"/>
+    </row>
+    <row r="19" spans="1:8" ht="50">
+      <c r="A19" s="54" t="s">
+        <v>1680</v>
+      </c>
+      <c r="B19" s="55" t="s">
+        <v>1681</v>
+      </c>
+      <c r="C19" s="55" t="s">
+        <v>923</v>
+      </c>
+      <c r="D19" s="55" t="s">
+        <v>1682</v>
+      </c>
+      <c r="E19" s="55" t="s">
+        <v>1683</v>
+      </c>
+      <c r="F19" s="55" t="s">
+        <v>1684</v>
+      </c>
+      <c r="G19" s="53"/>
+      <c r="H19" s="53"/>
+    </row>
+    <row r="20" spans="1:8" ht="50">
+      <c r="A20" s="54" t="s">
+        <v>1685</v>
+      </c>
+      <c r="B20" s="55" t="s">
+        <v>1686</v>
+      </c>
+      <c r="C20" s="55" t="s">
+        <v>1687</v>
+      </c>
+      <c r="D20" s="55" t="s">
+        <v>1688</v>
+      </c>
+      <c r="E20" s="55" t="s">
+        <v>1689</v>
+      </c>
+      <c r="F20" s="55" t="s">
+        <v>1690</v>
+      </c>
+      <c r="G20" s="53"/>
+      <c r="H20" s="53"/>
+    </row>
+    <row r="21" spans="1:8" ht="50">
+      <c r="A21" s="54" t="s">
+        <v>1691</v>
+      </c>
+      <c r="B21" s="55" t="s">
+        <v>1692</v>
+      </c>
+      <c r="C21" s="55" t="s">
+        <v>1693</v>
+      </c>
+      <c r="D21" s="55" t="s">
+        <v>1694</v>
+      </c>
+      <c r="E21" s="55" t="s">
+        <v>1695</v>
+      </c>
+      <c r="F21" s="55" t="s">
+        <v>1696</v>
+      </c>
+      <c r="G21" s="53"/>
+      <c r="H21" s="53"/>
+    </row>
+    <row r="22" spans="1:8" ht="25">
+      <c r="A22" s="54" t="s">
+        <v>1697</v>
+      </c>
+      <c r="B22" s="55" t="s">
+        <v>1545</v>
+      </c>
+      <c r="C22" s="55" t="s">
+        <v>1698</v>
+      </c>
+      <c r="D22" s="55" t="s">
+        <v>1699</v>
+      </c>
+      <c r="E22" s="55" t="s">
+        <v>1700</v>
+      </c>
+      <c r="F22" s="55" t="s">
+        <v>1701</v>
+      </c>
+      <c r="G22" s="53"/>
+      <c r="H22" s="53"/>
+    </row>
+    <row r="23" spans="1:8" ht="25">
+      <c r="A23" s="54" t="s">
+        <v>1702</v>
+      </c>
+      <c r="B23" s="55" t="s">
+        <v>1703</v>
+      </c>
+      <c r="C23" s="55" t="s">
+        <v>1555</v>
+      </c>
+      <c r="D23" s="55" t="s">
+        <v>1704</v>
+      </c>
+      <c r="E23" s="57"/>
+      <c r="F23" s="57"/>
+      <c r="G23" s="53"/>
+      <c r="H23" s="53"/>
+    </row>
+    <row r="24" spans="1:8" ht="25">
+      <c r="A24" s="54" t="s">
+        <v>1705</v>
+      </c>
+      <c r="B24" s="55" t="s">
+        <v>1706</v>
+      </c>
+      <c r="C24" s="55" t="s">
+        <v>1707</v>
+      </c>
+      <c r="D24" s="55" t="s">
+        <v>1708</v>
+      </c>
+      <c r="E24" s="57"/>
+      <c r="F24" s="57"/>
+      <c r="G24" s="53"/>
+      <c r="H24" s="53"/>
+    </row>
+    <row r="25" spans="1:8" ht="25">
+      <c r="A25" s="54" t="s">
+        <v>1709</v>
+      </c>
+      <c r="B25" s="55" t="s">
+        <v>1710</v>
+      </c>
+      <c r="C25" s="55" t="s">
+        <v>1711</v>
+      </c>
+      <c r="D25" s="55" t="s">
+        <v>1712</v>
+      </c>
+      <c r="E25" s="57"/>
+      <c r="F25" s="57"/>
+      <c r="G25" s="53"/>
+      <c r="H25" s="53"/>
+    </row>
+    <row r="26" spans="1:8" ht="25">
+      <c r="A26" s="54" t="s">
+        <v>1713</v>
+      </c>
+      <c r="B26" s="55" t="s">
+        <v>1714</v>
+      </c>
+      <c r="C26" s="55" t="s">
+        <v>1568</v>
+      </c>
+      <c r="D26" s="55" t="s">
+        <v>1715</v>
+      </c>
+      <c r="E26" s="57"/>
+      <c r="F26" s="57"/>
+      <c r="G26" s="53"/>
+      <c r="H26" s="53"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0621B05F-84D3-C041-A876-6535B8901E4C}">
   <dimension ref="A2:C14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C38" sqref="C38"/>
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="21"/>
@@ -13750,9 +16552,13 @@
         <v>757</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="25" thickBot="1">
-      <c r="A14" s="15"/>
-      <c r="B14" s="15"/>
+    <row r="14" spans="1:3" ht="26" thickBot="1">
+      <c r="A14" s="47" t="s">
+        <v>1571</v>
+      </c>
+      <c r="B14" s="47" t="s">
+        <v>1572</v>
+      </c>
       <c r="C14" s="15"/>
     </row>
   </sheetData>
@@ -13763,7 +16569,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F67C7AAB-967B-5045-BDCA-9F7B04711E90}">
   <dimension ref="A3:C29"/>
   <sheetViews>
@@ -13987,7 +16793,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D11FE1F-F4A2-4243-AD49-0AE386224F39}">
   <dimension ref="A2:C38"/>
   <sheetViews>
@@ -14306,7 +17112,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F29A4BE1-9EDE-B14C-A890-3CF582053E14}">
   <dimension ref="A1:E26"/>
   <sheetViews>
@@ -14569,920 +17375,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B3091FA-FA4D-C844-8EC8-A36691B6A574}">
-  <dimension ref="A2:H96"/>
-  <sheetViews>
-    <sheetView topLeftCell="A47" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="21"/>
-  <cols>
-    <col min="1" max="1" width="47.875" customWidth="1"/>
-    <col min="2" max="2" width="66.75" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="1:3" ht="31">
-      <c r="A2" s="19" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="24">
-      <c r="A3" s="9"/>
-    </row>
-    <row r="4" spans="1:3" ht="24">
-      <c r="A4" s="22" t="s">
-        <v>77</v>
-      </c>
-      <c r="B4" s="22" t="s">
-        <v>78</v>
-      </c>
-      <c r="C4" s="29" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="24">
-      <c r="A5" s="21" t="s">
-        <v>613</v>
-      </c>
-      <c r="B5" s="23" t="s">
-        <v>670</v>
-      </c>
-      <c r="C5" s="23"/>
-    </row>
-    <row r="6" spans="1:3" ht="24">
-      <c r="A6" s="21" t="s">
-        <v>617</v>
-      </c>
-      <c r="B6" s="23" t="s">
-        <v>674</v>
-      </c>
-      <c r="C6" s="23"/>
-    </row>
-    <row r="7" spans="1:3" ht="24">
-      <c r="A7" s="21" t="s">
-        <v>615</v>
-      </c>
-      <c r="B7" s="23" t="s">
-        <v>671</v>
-      </c>
-      <c r="C7" s="23"/>
-    </row>
-    <row r="8" spans="1:3" ht="24">
-      <c r="A8" s="21" t="s">
-        <v>636</v>
-      </c>
-      <c r="B8" s="23" t="s">
-        <v>694</v>
-      </c>
-      <c r="C8" s="23"/>
-    </row>
-    <row r="9" spans="1:3" ht="24">
-      <c r="A9" s="21" t="s">
-        <v>606</v>
-      </c>
-      <c r="B9" s="23" t="s">
-        <v>666</v>
-      </c>
-      <c r="C9" s="23"/>
-    </row>
-    <row r="10" spans="1:3" ht="24">
-      <c r="A10" s="21" t="s">
-        <v>640</v>
-      </c>
-      <c r="B10" s="23" t="s">
-        <v>689</v>
-      </c>
-      <c r="C10" s="23"/>
-    </row>
-    <row r="11" spans="1:3" ht="24">
-      <c r="A11" s="21" t="s">
-        <v>424</v>
-      </c>
-      <c r="B11" s="23" t="s">
-        <v>425</v>
-      </c>
-      <c r="C11" s="23"/>
-    </row>
-    <row r="12" spans="1:3" ht="24">
-      <c r="A12" s="21" t="s">
-        <v>353</v>
-      </c>
-      <c r="B12" s="23" t="s">
-        <v>354</v>
-      </c>
-      <c r="C12" s="23"/>
-    </row>
-    <row r="13" spans="1:3" ht="24">
-      <c r="A13" s="21" t="s">
-        <v>612</v>
-      </c>
-      <c r="B13" s="23" t="s">
-        <v>669</v>
-      </c>
-      <c r="C13" s="23"/>
-    </row>
-    <row r="14" spans="1:3" ht="24">
-      <c r="A14" s="21" t="s">
-        <v>604</v>
-      </c>
-      <c r="B14" s="23" t="s">
-        <v>602</v>
-      </c>
-      <c r="C14" s="23"/>
-    </row>
-    <row r="15" spans="1:3" ht="24">
-      <c r="A15" s="21" t="s">
-        <v>718</v>
-      </c>
-      <c r="B15" s="23" t="s">
-        <v>715</v>
-      </c>
-      <c r="C15" s="23"/>
-    </row>
-    <row r="16" spans="1:3" ht="24">
-      <c r="A16" s="21" t="s">
-        <v>650</v>
-      </c>
-      <c r="B16" s="23" t="s">
-        <v>683</v>
-      </c>
-      <c r="C16" s="23"/>
-    </row>
-    <row r="17" spans="1:8" ht="24">
-      <c r="A17" s="21" t="s">
-        <v>1131</v>
-      </c>
-      <c r="B17" s="23" t="s">
-        <v>464</v>
-      </c>
-      <c r="C17" s="23"/>
-      <c r="D17" s="9"/>
-      <c r="E17" s="9"/>
-      <c r="F17" s="9"/>
-      <c r="G17" s="9"/>
-      <c r="H17" s="9"/>
-    </row>
-    <row r="18" spans="1:8" ht="24">
-      <c r="A18" s="21" t="s">
-        <v>471</v>
-      </c>
-      <c r="B18" s="23" t="s">
-        <v>465</v>
-      </c>
-      <c r="C18" s="23"/>
-      <c r="D18" s="9"/>
-      <c r="E18" s="9"/>
-      <c r="F18" s="9"/>
-      <c r="G18" s="9"/>
-      <c r="H18" s="9"/>
-    </row>
-    <row r="19" spans="1:8" ht="24">
-      <c r="A19" s="21" t="s">
-        <v>652</v>
-      </c>
-      <c r="B19" s="23" t="s">
-        <v>681</v>
-      </c>
-      <c r="C19" s="23"/>
-      <c r="D19" s="9"/>
-      <c r="E19" s="9"/>
-      <c r="F19" s="9"/>
-      <c r="G19" s="9"/>
-      <c r="H19" s="9"/>
-    </row>
-    <row r="20" spans="1:8" ht="24">
-      <c r="A20" s="21" t="s">
-        <v>483</v>
-      </c>
-      <c r="B20" s="23" t="s">
-        <v>482</v>
-      </c>
-      <c r="C20" s="23"/>
-      <c r="D20" s="9"/>
-      <c r="E20" s="9"/>
-      <c r="F20" s="9"/>
-      <c r="G20" s="9"/>
-      <c r="H20" s="9"/>
-    </row>
-    <row r="21" spans="1:8" ht="24">
-      <c r="A21" s="21" t="s">
-        <v>641</v>
-      </c>
-      <c r="B21" s="23" t="s">
-        <v>686</v>
-      </c>
-      <c r="C21" s="23"/>
-      <c r="D21" s="9"/>
-      <c r="E21" s="9"/>
-      <c r="F21" s="9"/>
-      <c r="G21" s="9"/>
-      <c r="H21" s="9"/>
-    </row>
-    <row r="22" spans="1:8" ht="24">
-      <c r="A22" s="21" t="s">
-        <v>619</v>
-      </c>
-      <c r="B22" s="23" t="s">
-        <v>711</v>
-      </c>
-      <c r="C22" s="23"/>
-      <c r="D22" s="9"/>
-      <c r="E22" s="9"/>
-      <c r="F22" s="9"/>
-      <c r="G22" s="9"/>
-      <c r="H22" s="9"/>
-    </row>
-    <row r="23" spans="1:8" ht="24">
-      <c r="A23" s="21" t="s">
-        <v>1109</v>
-      </c>
-      <c r="B23" s="23" t="s">
-        <v>1110</v>
-      </c>
-      <c r="C23" s="23"/>
-      <c r="D23" s="9"/>
-      <c r="E23" s="9"/>
-      <c r="F23" s="9"/>
-      <c r="G23" s="9"/>
-      <c r="H23" s="9"/>
-    </row>
-    <row r="24" spans="1:8" ht="24">
-      <c r="A24" s="21" t="s">
-        <v>481</v>
-      </c>
-      <c r="B24" s="23" t="s">
-        <v>480</v>
-      </c>
-      <c r="C24" s="23"/>
-      <c r="D24" s="9"/>
-      <c r="E24" s="9"/>
-      <c r="F24" s="9"/>
-      <c r="G24" s="9"/>
-      <c r="H24" s="9"/>
-    </row>
-    <row r="25" spans="1:8" ht="24">
-      <c r="A25" s="21" t="s">
-        <v>634</v>
-      </c>
-      <c r="B25" s="23" t="s">
-        <v>696</v>
-      </c>
-      <c r="C25" s="23"/>
-      <c r="D25" s="9"/>
-      <c r="E25" s="9"/>
-      <c r="F25" s="9"/>
-      <c r="G25" s="9"/>
-      <c r="H25" s="9"/>
-    </row>
-    <row r="26" spans="1:8" ht="24">
-      <c r="A26" s="21" t="s">
-        <v>717</v>
-      </c>
-      <c r="B26" s="23" t="s">
-        <v>714</v>
-      </c>
-      <c r="C26" s="23"/>
-    </row>
-    <row r="27" spans="1:8" ht="24">
-      <c r="A27" s="21" t="s">
-        <v>716</v>
-      </c>
-      <c r="B27" s="23" t="s">
-        <v>713</v>
-      </c>
-      <c r="C27" s="23"/>
-    </row>
-    <row r="28" spans="1:8" ht="24">
-      <c r="A28" s="21" t="s">
-        <v>611</v>
-      </c>
-      <c r="B28" s="23" t="s">
-        <v>668</v>
-      </c>
-      <c r="C28" s="23"/>
-    </row>
-    <row r="29" spans="1:8" ht="24">
-      <c r="A29" s="21" t="s">
-        <v>651</v>
-      </c>
-      <c r="B29" s="23" t="s">
-        <v>682</v>
-      </c>
-      <c r="C29" s="23"/>
-    </row>
-    <row r="30" spans="1:8" ht="24">
-      <c r="A30" s="21" t="s">
-        <v>633</v>
-      </c>
-      <c r="B30" s="23" t="s">
-        <v>697</v>
-      </c>
-      <c r="C30" s="23"/>
-    </row>
-    <row r="31" spans="1:8" ht="24">
-      <c r="A31" s="21" t="s">
-        <v>607</v>
-      </c>
-      <c r="B31" s="23" t="s">
-        <v>665</v>
-      </c>
-      <c r="C31" s="23"/>
-    </row>
-    <row r="32" spans="1:8" ht="24">
-      <c r="A32" s="21" t="s">
-        <v>616</v>
-      </c>
-      <c r="B32" s="23" t="s">
-        <v>673</v>
-      </c>
-      <c r="C32" s="23"/>
-    </row>
-    <row r="33" spans="1:3" ht="24">
-      <c r="A33" s="21" t="s">
-        <v>493</v>
-      </c>
-      <c r="B33" s="23" t="s">
-        <v>492</v>
-      </c>
-      <c r="C33" s="23"/>
-    </row>
-    <row r="34" spans="1:3" ht="24">
-      <c r="A34" s="21" t="s">
-        <v>499</v>
-      </c>
-      <c r="B34" s="23" t="s">
-        <v>498</v>
-      </c>
-      <c r="C34" s="23"/>
-    </row>
-    <row r="35" spans="1:3" ht="24">
-      <c r="A35" s="21" t="s">
-        <v>487</v>
-      </c>
-      <c r="B35" s="23" t="s">
-        <v>486</v>
-      </c>
-      <c r="C35" s="23"/>
-    </row>
-    <row r="36" spans="1:3" ht="24">
-      <c r="A36" s="21" t="s">
-        <v>361</v>
-      </c>
-      <c r="B36" s="23" t="s">
-        <v>362</v>
-      </c>
-      <c r="C36" s="23"/>
-    </row>
-    <row r="37" spans="1:3" ht="24">
-      <c r="A37" s="21" t="s">
-        <v>479</v>
-      </c>
-      <c r="B37" s="23" t="s">
-        <v>478</v>
-      </c>
-      <c r="C37" s="23"/>
-    </row>
-    <row r="38" spans="1:3" ht="24">
-      <c r="A38" s="21" t="s">
-        <v>1132</v>
-      </c>
-      <c r="B38" s="23" t="s">
-        <v>685</v>
-      </c>
-      <c r="C38" s="23"/>
-    </row>
-    <row r="39" spans="1:3" ht="24">
-      <c r="A39" s="21" t="s">
-        <v>645</v>
-      </c>
-      <c r="B39" s="23" t="s">
-        <v>687</v>
-      </c>
-      <c r="C39" s="23"/>
-    </row>
-    <row r="40" spans="1:3" ht="24">
-      <c r="A40" s="21" t="s">
-        <v>638</v>
-      </c>
-      <c r="B40" s="23" t="s">
-        <v>691</v>
-      </c>
-      <c r="C40" s="23"/>
-    </row>
-    <row r="41" spans="1:3" ht="24">
-      <c r="A41" s="21" t="s">
-        <v>470</v>
-      </c>
-      <c r="B41" s="23" t="s">
-        <v>463</v>
-      </c>
-      <c r="C41" s="23"/>
-    </row>
-    <row r="42" spans="1:3" ht="24">
-      <c r="A42" s="21" t="s">
-        <v>489</v>
-      </c>
-      <c r="B42" s="23" t="s">
-        <v>488</v>
-      </c>
-      <c r="C42" s="23"/>
-    </row>
-    <row r="43" spans="1:3" ht="24">
-      <c r="A43" s="21" t="s">
-        <v>474</v>
-      </c>
-      <c r="B43" s="23" t="s">
-        <v>468</v>
-      </c>
-      <c r="C43" s="23"/>
-    </row>
-    <row r="44" spans="1:3" ht="24">
-      <c r="A44" s="21" t="s">
-        <v>495</v>
-      </c>
-      <c r="B44" s="23" t="s">
-        <v>494</v>
-      </c>
-      <c r="C44" s="23"/>
-    </row>
-    <row r="45" spans="1:3" ht="24">
-      <c r="A45" s="21" t="s">
-        <v>614</v>
-      </c>
-      <c r="B45" s="23" t="s">
-        <v>672</v>
-      </c>
-      <c r="C45" s="23"/>
-    </row>
-    <row r="46" spans="1:3" ht="24">
-      <c r="A46" s="21" t="s">
-        <v>491</v>
-      </c>
-      <c r="B46" s="23" t="s">
-        <v>490</v>
-      </c>
-      <c r="C46" s="23"/>
-    </row>
-    <row r="47" spans="1:3" ht="24">
-      <c r="A47" s="21" t="s">
-        <v>355</v>
-      </c>
-      <c r="B47" s="23" t="s">
-        <v>356</v>
-      </c>
-      <c r="C47" s="23"/>
-    </row>
-    <row r="48" spans="1:3" ht="24">
-      <c r="A48" s="21" t="s">
-        <v>473</v>
-      </c>
-      <c r="B48" s="23" t="s">
-        <v>467</v>
-      </c>
-      <c r="C48" s="23"/>
-    </row>
-    <row r="49" spans="1:3" ht="24">
-      <c r="A49" s="21" t="s">
-        <v>639</v>
-      </c>
-      <c r="B49" s="23" t="s">
-        <v>690</v>
-      </c>
-      <c r="C49" s="23"/>
-    </row>
-    <row r="50" spans="1:3" ht="24">
-      <c r="A50" s="21" t="s">
-        <v>637</v>
-      </c>
-      <c r="B50" s="23" t="s">
-        <v>693</v>
-      </c>
-      <c r="C50" s="23"/>
-    </row>
-    <row r="51" spans="1:3" ht="24">
-      <c r="A51" s="21" t="s">
-        <v>357</v>
-      </c>
-      <c r="B51" s="23" t="s">
-        <v>358</v>
-      </c>
-      <c r="C51" s="23"/>
-    </row>
-    <row r="52" spans="1:3" ht="24">
-      <c r="A52" s="21" t="s">
-        <v>630</v>
-      </c>
-      <c r="B52" s="23" t="s">
-        <v>700</v>
-      </c>
-      <c r="C52" s="23"/>
-    </row>
-    <row r="53" spans="1:3" ht="24">
-      <c r="A53" s="21" t="s">
-        <v>646</v>
-      </c>
-      <c r="B53" s="23" t="s">
-        <v>642</v>
-      </c>
-      <c r="C53" s="23"/>
-    </row>
-    <row r="54" spans="1:3" ht="24">
-      <c r="A54" s="21" t="s">
-        <v>363</v>
-      </c>
-      <c r="B54" s="23" t="s">
-        <v>364</v>
-      </c>
-      <c r="C54" s="23"/>
-    </row>
-    <row r="55" spans="1:3" ht="24">
-      <c r="A55" s="21" t="s">
-        <v>485</v>
-      </c>
-      <c r="B55" s="23" t="s">
-        <v>484</v>
-      </c>
-      <c r="C55" s="23"/>
-    </row>
-    <row r="56" spans="1:3" ht="24">
-      <c r="A56" s="21" t="s">
-        <v>469</v>
-      </c>
-      <c r="B56" s="23" t="s">
-        <v>462</v>
-      </c>
-      <c r="C56" s="23"/>
-    </row>
-    <row r="57" spans="1:3" ht="24">
-      <c r="A57" s="21" t="s">
-        <v>347</v>
-      </c>
-      <c r="B57" s="23" t="s">
-        <v>348</v>
-      </c>
-      <c r="C57" s="23"/>
-    </row>
-    <row r="58" spans="1:3" ht="24">
-      <c r="A58" s="21" t="s">
-        <v>657</v>
-      </c>
-      <c r="B58" s="23" t="s">
-        <v>676</v>
-      </c>
-      <c r="C58" s="23"/>
-    </row>
-    <row r="59" spans="1:3" ht="24">
-      <c r="A59" s="21" t="s">
-        <v>477</v>
-      </c>
-      <c r="B59" s="23" t="s">
-        <v>476</v>
-      </c>
-      <c r="C59" s="23"/>
-    </row>
-    <row r="60" spans="1:3" ht="24">
-      <c r="A60" s="21" t="s">
-        <v>349</v>
-      </c>
-      <c r="B60" s="23" t="s">
-        <v>350</v>
-      </c>
-      <c r="C60" s="23"/>
-    </row>
-    <row r="61" spans="1:3" ht="24">
-      <c r="A61" s="21" t="s">
-        <v>628</v>
-      </c>
-      <c r="B61" s="23" t="s">
-        <v>702</v>
-      </c>
-      <c r="C61" s="23"/>
-    </row>
-    <row r="62" spans="1:3" ht="24">
-      <c r="A62" s="21" t="s">
-        <v>360</v>
-      </c>
-      <c r="B62" s="23" t="s">
-        <v>359</v>
-      </c>
-      <c r="C62" s="23"/>
-    </row>
-    <row r="63" spans="1:3" ht="24">
-      <c r="A63" s="21" t="s">
-        <v>215</v>
-      </c>
-      <c r="B63" s="23" t="s">
-        <v>475</v>
-      </c>
-      <c r="C63" s="23"/>
-    </row>
-    <row r="64" spans="1:3" ht="24">
-      <c r="A64" s="21" t="s">
-        <v>497</v>
-      </c>
-      <c r="B64" s="23" t="s">
-        <v>496</v>
-      </c>
-      <c r="C64" s="23"/>
-    </row>
-    <row r="65" spans="1:3" ht="24">
-      <c r="A65" s="21" t="s">
-        <v>351</v>
-      </c>
-      <c r="B65" s="23" t="s">
-        <v>352</v>
-      </c>
-      <c r="C65" s="23"/>
-    </row>
-    <row r="66" spans="1:3" ht="24">
-      <c r="A66" s="21" t="s">
-        <v>460</v>
-      </c>
-      <c r="B66" s="23" t="s">
-        <v>461</v>
-      </c>
-      <c r="C66" s="23"/>
-    </row>
-    <row r="67" spans="1:3" ht="24">
-      <c r="A67" s="21" t="s">
-        <v>631</v>
-      </c>
-      <c r="B67" s="23" t="s">
-        <v>699</v>
-      </c>
-      <c r="C67" s="23"/>
-    </row>
-    <row r="68" spans="1:3" ht="24">
-      <c r="A68" s="21" t="s">
-        <v>658</v>
-      </c>
-      <c r="B68" s="23" t="s">
-        <v>675</v>
-      </c>
-      <c r="C68" s="23"/>
-    </row>
-    <row r="69" spans="1:3" ht="24">
-      <c r="A69" s="21" t="s">
-        <v>608</v>
-      </c>
-      <c r="B69" s="23" t="s">
-        <v>664</v>
-      </c>
-      <c r="C69" s="23"/>
-    </row>
-    <row r="70" spans="1:3" ht="24">
-      <c r="A70" s="21" t="s">
-        <v>609</v>
-      </c>
-      <c r="B70" s="23" t="s">
-        <v>663</v>
-      </c>
-      <c r="C70" s="23"/>
-    </row>
-    <row r="71" spans="1:3" ht="24">
-      <c r="A71" s="21" t="s">
-        <v>661</v>
-      </c>
-      <c r="B71" s="23" t="s">
-        <v>662</v>
-      </c>
-      <c r="C71" s="23"/>
-    </row>
-    <row r="72" spans="1:3" ht="24">
-      <c r="A72" s="21" t="s">
-        <v>1133</v>
-      </c>
-      <c r="B72" s="21" t="s">
-        <v>1134</v>
-      </c>
-      <c r="C72" s="21"/>
-    </row>
-    <row r="73" spans="1:3" ht="24">
-      <c r="A73" s="21" t="s">
-        <v>610</v>
-      </c>
-      <c r="B73" s="23" t="s">
-        <v>667</v>
-      </c>
-      <c r="C73" s="23"/>
-    </row>
-    <row r="74" spans="1:3" ht="24">
-      <c r="A74" s="21" t="s">
-        <v>423</v>
-      </c>
-      <c r="B74" s="23" t="s">
-        <v>500</v>
-      </c>
-      <c r="C74" s="23"/>
-    </row>
-    <row r="75" spans="1:3" ht="24">
-      <c r="A75" s="21" t="s">
-        <v>421</v>
-      </c>
-      <c r="B75" s="23" t="s">
-        <v>422</v>
-      </c>
-      <c r="C75" s="23"/>
-    </row>
-    <row r="76" spans="1:3" ht="24">
-      <c r="A76" s="21" t="s">
-        <v>632</v>
-      </c>
-      <c r="B76" s="23" t="s">
-        <v>698</v>
-      </c>
-      <c r="C76" s="23"/>
-    </row>
-    <row r="77" spans="1:3" ht="24">
-      <c r="A77" s="21" t="s">
-        <v>625</v>
-      </c>
-      <c r="B77" s="23" t="s">
-        <v>705</v>
-      </c>
-      <c r="C77" s="23"/>
-    </row>
-    <row r="78" spans="1:3" ht="24">
-      <c r="A78" s="21" t="s">
-        <v>605</v>
-      </c>
-      <c r="B78" s="23" t="s">
-        <v>603</v>
-      </c>
-      <c r="C78" s="23"/>
-    </row>
-    <row r="79" spans="1:3" ht="24">
-      <c r="A79" s="21" t="s">
-        <v>629</v>
-      </c>
-      <c r="B79" s="23" t="s">
-        <v>701</v>
-      </c>
-      <c r="C79" s="23"/>
-    </row>
-    <row r="80" spans="1:3" ht="24">
-      <c r="A80" s="21" t="s">
-        <v>654</v>
-      </c>
-      <c r="B80" s="23" t="s">
-        <v>679</v>
-      </c>
-      <c r="C80" s="23"/>
-    </row>
-    <row r="81" spans="1:4" ht="24">
-      <c r="A81" s="21" t="s">
-        <v>653</v>
-      </c>
-      <c r="B81" s="23" t="s">
-        <v>680</v>
-      </c>
-      <c r="C81" s="23"/>
-    </row>
-    <row r="82" spans="1:4" ht="24">
-      <c r="A82" s="21" t="s">
-        <v>644</v>
-      </c>
-      <c r="B82" s="23" t="s">
-        <v>688</v>
-      </c>
-      <c r="C82" s="23"/>
-    </row>
-    <row r="83" spans="1:4" ht="24">
-      <c r="A83" s="21" t="s">
-        <v>656</v>
-      </c>
-      <c r="B83" s="23" t="s">
-        <v>677</v>
-      </c>
-      <c r="C83" s="23"/>
-    </row>
-    <row r="84" spans="1:4" ht="24">
-      <c r="A84" s="21" t="s">
-        <v>660</v>
-      </c>
-      <c r="B84" s="23" t="s">
-        <v>659</v>
-      </c>
-      <c r="C84" s="23"/>
-    </row>
-    <row r="85" spans="1:4" ht="24">
-      <c r="A85" s="21" t="s">
-        <v>618</v>
-      </c>
-      <c r="B85" s="23" t="s">
-        <v>712</v>
-      </c>
-      <c r="C85" s="23"/>
-    </row>
-    <row r="86" spans="1:4" ht="24">
-      <c r="A86" s="21" t="s">
-        <v>626</v>
-      </c>
-      <c r="B86" s="23" t="s">
-        <v>704</v>
-      </c>
-      <c r="C86" s="23"/>
-    </row>
-    <row r="87" spans="1:4" ht="24">
-      <c r="A87" s="21" t="s">
-        <v>647</v>
-      </c>
-      <c r="B87" s="23" t="s">
-        <v>643</v>
-      </c>
-      <c r="C87" s="23"/>
-    </row>
-    <row r="88" spans="1:4" ht="24">
-      <c r="A88" s="21" t="s">
-        <v>426</v>
-      </c>
-      <c r="B88" s="23" t="s">
-        <v>427</v>
-      </c>
-      <c r="C88" s="23"/>
-    </row>
-    <row r="89" spans="1:4" ht="24">
-      <c r="A89" s="21" t="s">
-        <v>620</v>
-      </c>
-      <c r="B89" s="23" t="s">
-        <v>710</v>
-      </c>
-      <c r="C89" s="23"/>
-    </row>
-    <row r="90" spans="1:4" ht="24">
-      <c r="A90" s="21" t="s">
-        <v>621</v>
-      </c>
-      <c r="B90" s="23" t="s">
-        <v>709</v>
-      </c>
-      <c r="C90" s="23"/>
-    </row>
-    <row r="91" spans="1:4" ht="24">
-      <c r="A91" s="21" t="s">
-        <v>622</v>
-      </c>
-      <c r="B91" s="23" t="s">
-        <v>708</v>
-      </c>
-      <c r="C91" s="23"/>
-    </row>
-    <row r="92" spans="1:4" ht="24">
-      <c r="A92" s="21" t="s">
-        <v>624</v>
-      </c>
-      <c r="B92" s="23" t="s">
-        <v>706</v>
-      </c>
-      <c r="C92" s="23"/>
-    </row>
-    <row r="93" spans="1:4" ht="24">
-      <c r="A93" s="21" t="s">
-        <v>234</v>
-      </c>
-      <c r="B93" s="23" t="s">
-        <v>768</v>
-      </c>
-      <c r="C93" s="23"/>
-    </row>
-    <row r="94" spans="1:4" ht="24">
-      <c r="A94" s="21" t="s">
-        <v>623</v>
-      </c>
-      <c r="B94" s="23" t="s">
-        <v>707</v>
-      </c>
-      <c r="C94" s="23"/>
-    </row>
-    <row r="95" spans="1:4" ht="24">
-      <c r="A95" s="21" t="s">
-        <v>472</v>
-      </c>
-      <c r="B95" s="23" t="s">
-        <v>466</v>
-      </c>
-      <c r="C95" s="23"/>
-    </row>
-    <row r="96" spans="1:4" ht="24">
-      <c r="A96" s="21" t="s">
-        <v>627</v>
-      </c>
-      <c r="B96" s="23" t="s">
-        <v>703</v>
-      </c>
-      <c r="C96" s="23"/>
-      <c r="D96" s="9"/>
-    </row>
-  </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A5:C96">
-    <sortCondition ref="A5:A96"/>
-  </sortState>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
-</worksheet>
 </file>